--- a/src/main/resources/input/KING/props/KING.xlsx
+++ b/src/main/resources/input/KING/props/KING.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="416">
   <si>
     <t>Name</t>
   </si>
@@ -1297,6 +1297,9 @@
   </si>
   <si>
     <t>BSM: uitgebreid</t>
+  </si>
+  <si>
+    <t>VNGRSIM</t>
   </si>
 </sst>
 </file>
@@ -1969,11 +1972,11 @@
   <dimension ref="A1:W151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E64" sqref="E64"/>
       <selection pane="topRight" activeCell="E64" sqref="E64"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="M106" sqref="M106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4360,16 +4363,16 @@
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="45" t="s">
-        <v>290</v>
+        <v>415</v>
       </c>
       <c r="I72" s="45" t="s">
-        <v>290</v>
+        <v>415</v>
       </c>
       <c r="J72" s="45" t="s">
-        <v>290</v>
+        <v>415</v>
       </c>
       <c r="K72" s="45" t="s">
-        <v>290</v>
+        <v>415</v>
       </c>
       <c r="L72" s="22"/>
       <c r="M72" s="45" t="s">
@@ -5496,17 +5499,17 @@
         <v>404</v>
       </c>
       <c r="G106" s="15"/>
-      <c r="H106" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="I106" s="59" t="s">
-        <v>290</v>
-      </c>
-      <c r="J106" s="59" t="s">
-        <v>290</v>
-      </c>
-      <c r="K106" s="59" t="s">
-        <v>290</v>
+      <c r="H106" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="I106" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="J106" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="K106" s="45" t="s">
+        <v>415</v>
       </c>
       <c r="L106" s="22"/>
       <c r="M106" s="38" t="s">
@@ -6437,16 +6440,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="V45:V46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="V45:V46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>

--- a/src/main/resources/input/KING/props/KING.xlsx
+++ b/src/main/resources/input/KING/props/KING.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="417">
   <si>
     <t>Name</t>
   </si>
@@ -1300,6 +1300,9 @@
   </si>
   <si>
     <t>VNGRSIM</t>
+  </si>
+  <si>
+    <t>createeatoolbox</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1489,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1673,6 +1676,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1969,14 +1975,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W151"/>
+  <dimension ref="A1:W152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E64" sqref="E64"/>
       <selection pane="topRight" activeCell="E64" sqref="E64"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
-      <selection pane="bottomRight" activeCell="M106" sqref="M106"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2221,16 +2227,16 @@
       <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="71" t="b">
+      <c r="D7" s="72" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
@@ -2248,7 +2254,7 @@
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="70" t="s">
+      <c r="V7" s="71" t="s">
         <v>351</v>
       </c>
       <c r="W7" s="1" t="s">
@@ -2256,10 +2262,10 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
       <c r="F8" s="51"/>
       <c r="G8" s="15"/>
       <c r="L8" s="15"/>
@@ -2272,7 +2278,7 @@
       <c r="S8" s="31"/>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
-      <c r="V8" s="70"/>
+      <c r="V8" s="71"/>
     </row>
     <row r="9" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
@@ -2893,62 +2899,54 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:23" s="70" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="70" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="b">
+      <c r="C27" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="70" t="b">
         <v>1</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
+        <v>4</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="L27" s="22"/>
       <c r="Q27" s="22"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="43" t="s">
-        <v>327</v>
+      <c r="V27" s="58" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="12"/>
+      <c r="M28" s="38"/>
       <c r="N28" s="38"/>
       <c r="O28" s="38"/>
       <c r="P28" s="38"/>
@@ -2958,43 +2956,52 @@
       <c r="T28" s="31"/>
       <c r="U28" s="31"/>
       <c r="V28" s="43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="43" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="37" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:23" s="37" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D29" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="N29" s="38"/>
-      <c r="Q29" s="22"/>
-      <c r="V29" s="43" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" s="23" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="D30" s="4" t="b">
         <v>0</v>
@@ -3004,111 +3011,96 @@
       </c>
       <c r="F30" s="52"/>
       <c r="G30" s="22"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
       <c r="L30" s="22"/>
       <c r="N30" s="38"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
       <c r="Q30" s="22"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
       <c r="V30" s="43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="23" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="52"/>
+      <c r="G31" s="22"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="22"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="W30" s="50"/>
-    </row>
-    <row r="31" spans="1:23" s="25" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
+      <c r="W31" s="50"/>
+    </row>
+    <row r="32" spans="1:23" s="25" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D31" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="52" t="s">
+      <c r="D32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="43" t="s">
+      <c r="G32" s="22"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="W31" s="50"/>
-    </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="I32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J32" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="L32" s="15"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
+      <c r="W32" s="50"/>
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>0</v>
@@ -3117,29 +3109,38 @@
         <v>1</v>
       </c>
       <c r="F33" s="51" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G33" s="15"/>
+      <c r="I33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="59" t="s">
+        <v>34</v>
+      </c>
       <c r="L33" s="15"/>
       <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
       <c r="Q33" s="22"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-    </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+    </row>
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D34" s="1" t="b">
         <v>0</v>
@@ -3148,43 +3149,45 @@
         <v>1</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="G34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="12"/>
-      <c r="N34" s="38"/>
+      <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="31"/>
-      <c r="S34" s="45"/>
+      <c r="S34" s="31"/>
       <c r="T34" s="31"/>
       <c r="U34" s="31"/>
-      <c r="V34" s="43"/>
-    </row>
-    <row r="35" spans="1:23" s="30" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="D35" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="30" t="b">
+    </row>
+    <row r="35" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F35" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="G35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="38"/>
+        <v>291</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="31"/>
       <c r="S35" s="45"/>
@@ -3192,109 +3195,106 @@
       <c r="U35" s="31"/>
       <c r="V35" s="43"/>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="37"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
+    <row r="36" spans="1:23" s="30" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="38"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="31"/>
-      <c r="S36" s="38"/>
+      <c r="S36" s="45"/>
       <c r="T36" s="31"/>
       <c r="U36" s="31"/>
-    </row>
-    <row r="37" spans="1:23" s="32" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V36" s="43"/>
+    </row>
+    <row r="37" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="52"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="37"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+    </row>
+    <row r="38" spans="1:23" s="32" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D37" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="37"/>
-      <c r="L37" s="33"/>
-      <c r="Q37" s="22"/>
-      <c r="V37" s="42" t="s">
+      <c r="D38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="52"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="37"/>
+      <c r="L38" s="33"/>
+      <c r="Q38" s="22"/>
+      <c r="V38" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="W37" s="50"/>
-    </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="37"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
+      <c r="W38" s="50"/>
     </row>
     <row r="39" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E39" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="51" t="s">
         <v>16</v>
@@ -3311,30 +3311,24 @@
       <c r="S39" s="38"/>
       <c r="T39" s="31"/>
       <c r="U39" s="31"/>
-      <c r="V39" s="43" t="s">
-        <v>337</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="51" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="15"/>
@@ -3349,221 +3343,229 @@
       <c r="S40" s="38"/>
       <c r="T40" s="31"/>
       <c r="U40" s="31"/>
-    </row>
-    <row r="41" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="4" t="s">
+      <c r="V40" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="37"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+    </row>
+    <row r="42" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D41" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="52" t="s">
+      <c r="D42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-    </row>
-    <row r="42" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
+      <c r="G42" s="22"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+    </row>
+    <row r="43" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" s="51" t="s">
+      <c r="D43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38" t="s">
+      <c r="G43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="38" t="s">
+      <c r="T43" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="38" t="s">
+      <c r="U43" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="43" t="s">
+      <c r="V43" s="43" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A43" s="32" t="s">
+    <row r="44" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A44" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B44" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C44" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" s="53" t="s">
+      <c r="D44" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="32"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="42" t="s">
+      <c r="G44" s="15"/>
+      <c r="H44" s="32"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="42" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="44" t="s">
+    <row r="45" spans="1:23" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B45" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C45" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="28" t="s">
+      <c r="D45" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="28"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="22"/>
-      <c r="S44" s="28"/>
-      <c r="V44" s="42" t="s">
+      <c r="G45" s="15"/>
+      <c r="H45" s="28"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="22"/>
+      <c r="S45" s="28"/>
+      <c r="V45" s="42" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="71" t="s">
+    <row r="46" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B46" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C46" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" s="51" t="s">
+      <c r="D46" s="72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="70" t="s">
-        <v>351</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="F46" s="51"/>
       <c r="G46" s="15"/>
       <c r="L46" s="15"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
       <c r="Q46" s="22"/>
       <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
+      <c r="S46" s="45"/>
       <c r="T46" s="31"/>
       <c r="U46" s="31"/>
-      <c r="V46" s="70"/>
-    </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="V46" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="72"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
       <c r="F47" s="51"/>
       <c r="G47" s="15"/>
       <c r="L47" s="15"/>
@@ -3576,59 +3578,58 @@
       <c r="S47" s="31"/>
       <c r="T47" s="31"/>
       <c r="U47" s="31"/>
-    </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V47" s="71"/>
+    </row>
+    <row r="48" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="D48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" s="51" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F48" s="51"/>
       <c r="G48" s="15"/>
       <c r="L48" s="15"/>
       <c r="M48" s="12"/>
-      <c r="N48" s="38"/>
+      <c r="N48" s="12"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="22"/>
       <c r="R48" s="31"/>
-      <c r="S48" s="38"/>
+      <c r="S48" s="31"/>
       <c r="T48" s="31"/>
       <c r="U48" s="31"/>
     </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A49" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="G49" s="68"/>
-      <c r="L49" s="16"/>
+    <row r="49" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="L49" s="15"/>
       <c r="M49" s="12"/>
       <c r="N49" s="38"/>
       <c r="O49" s="12"/>
@@ -3638,177 +3639,178 @@
       <c r="S49" s="38"/>
       <c r="T49" s="31"/>
       <c r="U49" s="31"/>
-      <c r="V49" s="43" t="s">
+    </row>
+    <row r="50" spans="1:23" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="G50" s="68"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="W49" s="1" t="s">
+      <c r="W50" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:23" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B50" s="60" t="s">
+      <c r="B51" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C51" s="60" t="s">
         <v>403</v>
       </c>
-      <c r="D50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="51" t="s">
+      <c r="D51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="34" t="s">
+      <c r="G51" s="16"/>
+      <c r="H51" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="I50" s="59" t="s">
+      <c r="I51" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="J50" s="59" t="s">
+      <c r="J51" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="K50" s="59" t="s">
+      <c r="K51" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="L50" s="22"/>
-      <c r="M50" s="34" t="s">
+      <c r="L51" s="22"/>
+      <c r="M51" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="N50" s="59" t="s">
+      <c r="N51" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="O50" s="59" t="s">
+      <c r="O51" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="P50" s="59" t="s">
+      <c r="P51" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="59" t="s">
+      <c r="Q51" s="22"/>
+      <c r="R51" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="S50" s="34" t="s">
+      <c r="S51" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="T50" s="59" t="s">
+      <c r="T51" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="U50" s="59" t="s">
+      <c r="U51" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="V50" s="56" t="s">
+      <c r="V51" s="56" t="s">
         <v>357</v>
       </c>
-      <c r="W50"/>
-    </row>
-    <row r="51" spans="1:23" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="32" t="s">
+      <c r="W51"/>
+    </row>
+    <row r="52" spans="1:23" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B52" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C52" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F51" s="53" t="s">
+      <c r="D52" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="Q51" s="22"/>
-      <c r="V51" s="42" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" s="4" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F52" s="53"/>
       <c r="G52" s="15"/>
       <c r="L52" s="15"/>
       <c r="Q52" s="22"/>
-      <c r="S52" t="s">
+      <c r="V52" s="42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" s="4" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="53"/>
+      <c r="G53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="Q53" s="22"/>
+      <c r="S53" t="s">
         <v>361</v>
       </c>
-      <c r="T52" t="s">
+      <c r="T53" t="s">
         <v>361</v>
       </c>
-      <c r="U52" t="s">
+      <c r="U53" t="s">
         <v>361</v>
       </c>
-      <c r="V52" s="42" t="s">
+      <c r="V53" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="W52" s="4" t="s">
+      <c r="W53" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="64"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="43"/>
-    </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A54" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D54" s="4" t="b">
         <v>0</v>
@@ -3820,7 +3822,7 @@
       <c r="G54" s="64"/>
       <c r="L54" s="15"/>
       <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
+      <c r="N54" s="38"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="22"/>
@@ -3828,129 +3830,134 @@
       <c r="S54" s="38"/>
       <c r="T54" s="31"/>
       <c r="U54" s="31"/>
-      <c r="V54" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="V54" s="43"/>
+    </row>
+    <row r="55" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D55" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E55" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="15"/>
-      <c r="H55" s="32"/>
+        <v>1</v>
+      </c>
+      <c r="F55" s="52"/>
+      <c r="G55" s="64"/>
       <c r="L55" s="15"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
       <c r="Q55" s="22"/>
+      <c r="R55" s="31"/>
       <c r="S55" s="38"/>
-      <c r="V55" s="42" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="T55" s="31"/>
+      <c r="U55" s="31"/>
+      <c r="V55" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="15"/>
+      <c r="H56" s="32"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="Q56" s="22"/>
+      <c r="S56" s="38"/>
+      <c r="V56" s="42" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A57" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="43" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A57" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="B57" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="D57" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" s="65" t="b">
+      <c r="D57" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F57" s="52"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
+      <c r="G57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
       <c r="Q57" s="22"/>
-      <c r="S57" s="11"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="31"/>
       <c r="V57" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="W57" s="50"/>
-    </row>
-    <row r="58" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A58" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D58" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" s="4" t="b">
+    </row>
+    <row r="58" spans="1:23" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A58" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="65" t="b">
         <v>1</v>
       </c>
       <c r="F58" s="52"/>
-      <c r="G58" s="22"/>
-      <c r="L58" s="22"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
       <c r="Q58" s="22"/>
+      <c r="S58" s="11"/>
       <c r="V58" s="43" t="s">
         <v>358</v>
       </c>
@@ -3958,13 +3965,13 @@
     </row>
     <row r="59" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="D59" s="4" t="b">
         <v>0</v>
@@ -3973,772 +3980,774 @@
         <v>1</v>
       </c>
       <c r="F59" s="52"/>
-      <c r="G59" s="15"/>
-      <c r="L59" s="15"/>
+      <c r="G59" s="22"/>
+      <c r="L59" s="22"/>
       <c r="Q59" s="22"/>
-      <c r="V59" s="43"/>
+      <c r="V59" s="43" t="s">
+        <v>358</v>
+      </c>
       <c r="W59" s="50"/>
     </row>
     <row r="60" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="52"/>
+      <c r="G60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="Q60" s="22"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="50"/>
+    </row>
+    <row r="61" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A61" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D60" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="22"/>
-      <c r="V60" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="W60" s="50"/>
-    </row>
-    <row r="61" spans="1:23" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A61" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D61" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
+      <c r="D61" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="52"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
       <c r="Q61" s="22"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
       <c r="V61" s="43" t="s">
         <v>358</v>
       </c>
       <c r="W61" s="50"/>
     </row>
-    <row r="62" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:23" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A62" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="G62" s="17"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="W62" s="50"/>
+    </row>
+    <row r="63" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D62" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" s="52" t="s">
+      <c r="D63" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="Q62" s="22"/>
-      <c r="V62" s="43" t="s">
+      <c r="G63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="Q63" s="22"/>
+      <c r="V63" s="43" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="63" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="4" t="s">
+    <row r="64" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F63" s="52"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="45"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="45"/>
-      <c r="N63" s="45"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="45"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="31"/>
-      <c r="V63" s="43" t="s">
+      <c r="D64" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" s="52"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="45"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="45"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="31"/>
+      <c r="V64" s="43" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="37" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A64" s="4" t="s">
+    <row r="65" spans="1:23" s="37" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A65" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D64" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E64" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" s="52" t="s">
+      <c r="D65" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="45"/>
-      <c r="L64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="V64" s="43" t="s">
-        <v>336</v>
-      </c>
-      <c r="W64" s="61"/>
-    </row>
-    <row r="65" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A65" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="G65" s="15"/>
-      <c r="L65" s="15"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="45"/>
+      <c r="L65" s="22"/>
       <c r="Q65" s="22"/>
       <c r="V65" s="43" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>336</v>
+      </c>
+      <c r="W65" s="61"/>
+    </row>
+    <row r="66" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>294</v>
+        <v>66</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>298</v>
+        <v>67</v>
       </c>
       <c r="D66" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="22"/>
-      <c r="L66" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="E66" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="G66" s="15"/>
+      <c r="L66" s="15"/>
       <c r="Q66" s="22"/>
       <c r="V66" s="43" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A67" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="B67" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="D67" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E67" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" s="63"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A67" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D67" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="52"/>
       <c r="G67" s="22"/>
       <c r="L67" s="22"/>
       <c r="Q67" s="22"/>
       <c r="V67" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A68" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="63"/>
+      <c r="G68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="Q68" s="22"/>
+      <c r="V68" s="43" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D68" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="51" t="s">
+      <c r="D69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="G68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="31"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="31"/>
-      <c r="U68" s="31"/>
-    </row>
-    <row r="69" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="45" t="s">
-        <v>299</v>
-      </c>
       <c r="G69" s="15"/>
-      <c r="H69" s="45"/>
       <c r="L69" s="15"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="45"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="22"/>
       <c r="R69" s="31"/>
-      <c r="S69" s="45"/>
+      <c r="S69" s="38"/>
       <c r="T69" s="31"/>
       <c r="U69" s="31"/>
     </row>
-    <row r="70" spans="1:23" s="19" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A70" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="B70" s="69" t="s">
-        <v>408</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D70" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" s="51" t="s">
-        <v>245</v>
+    <row r="70" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="45" t="s">
+        <v>299</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="45"/>
       <c r="L70" s="15"/>
       <c r="M70" s="45"/>
       <c r="N70" s="45"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
       <c r="Q70" s="22"/>
       <c r="R70" s="31"/>
       <c r="S70" s="45"/>
       <c r="T70" s="31"/>
       <c r="U70" s="31"/>
-      <c r="V70" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="W70" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A71" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1" t="b">
+    </row>
+    <row r="71" spans="1:23" s="19" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A71" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" s="69" t="s">
+        <v>408</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="19" t="b">
         <v>1</v>
       </c>
       <c r="F71" s="51" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="G71" s="15"/>
+      <c r="H71" s="45"/>
       <c r="L71" s="15"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="45"/>
       <c r="Q71" s="22"/>
       <c r="R71" s="31"/>
-      <c r="S71" s="31"/>
+      <c r="S71" s="45"/>
       <c r="T71" s="31"/>
       <c r="U71" s="31"/>
       <c r="V71" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="W71" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="G72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="31"/>
+      <c r="S72" s="31"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="31"/>
+      <c r="V72" s="43" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72" s="51" t="s">
+      <c r="D73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="45" t="s">
+      <c r="G73" s="15"/>
+      <c r="H73" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="I72" s="45" t="s">
+      <c r="I73" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="J72" s="45" t="s">
+      <c r="J73" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="K72" s="45" t="s">
+      <c r="K73" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="L72" s="22"/>
-      <c r="M72" s="45" t="s">
+      <c r="L73" s="22"/>
+      <c r="M73" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="N72" s="45" t="s">
+      <c r="N73" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="O72" s="45" t="s">
+      <c r="O73" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="P72" s="45" t="s">
+      <c r="P73" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="59" t="s">
+      <c r="Q73" s="22"/>
+      <c r="R73" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="S72" s="34" t="s">
+      <c r="S73" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="T72" s="59" t="s">
+      <c r="T73" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="U72" s="59" t="s">
+      <c r="U73" s="59" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A73" s="35" t="s">
+    <row r="74" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A74" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B74" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C74" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="D73" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" s="51"/>
-      <c r="G73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="59"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="59"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="59"/>
-      <c r="S73" s="59"/>
-      <c r="T73" s="59"/>
-      <c r="U73" s="59"/>
-    </row>
-    <row r="74" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="32" t="s">
+      <c r="D74" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" s="51"/>
+      <c r="G74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="59"/>
+      <c r="N74" s="59"/>
+      <c r="O74" s="59"/>
+      <c r="P74" s="59"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="59"/>
+      <c r="S74" s="59"/>
+      <c r="T74" s="59"/>
+      <c r="U74" s="59"/>
+    </row>
+    <row r="75" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B75" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C75" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F74" s="53" t="s">
+      <c r="D75" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="32"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="32"/>
-      <c r="Q74" s="22"/>
-      <c r="S74" s="32"/>
-      <c r="V74" s="42" t="s">
+      <c r="G75" s="15"/>
+      <c r="H75" s="32"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="32"/>
+      <c r="Q75" s="22"/>
+      <c r="S75" s="32"/>
+      <c r="V75" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="W74" s="22" t="s">
+      <c r="W75" s="22" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="31"/>
-      <c r="S75" s="38"/>
-      <c r="T75" s="31"/>
-      <c r="U75" s="31"/>
     </row>
     <row r="76" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="D76" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F76" s="51" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G76" s="15"/>
-      <c r="H76" s="32"/>
       <c r="L76" s="15"/>
-      <c r="M76" s="32"/>
-      <c r="N76" s="32"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
       <c r="O76" s="12"/>
       <c r="P76" s="12"/>
       <c r="Q76" s="22"/>
       <c r="R76" s="31"/>
-      <c r="S76" s="32"/>
+      <c r="S76" s="38"/>
       <c r="T76" s="31"/>
       <c r="U76" s="31"/>
     </row>
-    <row r="77" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="15"/>
+      <c r="H77" s="32"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="32"/>
+      <c r="T77" s="31"/>
+      <c r="U77" s="31"/>
+    </row>
+    <row r="78" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" s="51" t="s">
+      <c r="D78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="G77" s="15"/>
-      <c r="H77" s="45" t="s">
+      <c r="G78" s="15"/>
+      <c r="H78" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="I77" s="45" t="s">
+      <c r="I78" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="J77" s="45" t="s">
+      <c r="J78" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="K77" s="45" t="s">
+      <c r="K78" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="L77" s="22"/>
-      <c r="M77" s="45" t="s">
+      <c r="L78" s="22"/>
+      <c r="M78" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="N77" s="45" t="s">
+      <c r="N78" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="O77" s="45" t="s">
+      <c r="O78" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="P77" s="45" t="s">
+      <c r="P78" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="59" t="s">
+      <c r="Q78" s="22"/>
+      <c r="R78" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="S77" s="59" t="s">
+      <c r="S78" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="T77" s="59" t="s">
+      <c r="T78" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="U77" s="59" t="s">
+      <c r="U78" s="59" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" s="51" t="s">
+      <c r="D79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="G78" s="15"/>
-      <c r="H78" s="45"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="31"/>
-      <c r="S78" s="45"/>
-      <c r="T78" s="31"/>
-      <c r="U78" s="31"/>
-    </row>
-    <row r="79" spans="1:23" s="4" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A79" s="4" t="s">
+      <c r="G79" s="15"/>
+      <c r="H79" s="45"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="45"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="45"/>
+      <c r="T79" s="31"/>
+      <c r="U79" s="31"/>
+    </row>
+    <row r="80" spans="1:23" s="4" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A80" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" s="52" t="s">
+      <c r="D80" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="G79" s="15"/>
-      <c r="H79" s="32"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="32"/>
-      <c r="Q79" s="22"/>
-      <c r="S79" s="32"/>
-      <c r="V79" s="42" t="s">
+      <c r="G80" s="15"/>
+      <c r="H80" s="32"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="32"/>
+      <c r="N80" s="32"/>
+      <c r="Q80" s="22"/>
+      <c r="S80" s="32"/>
+      <c r="V80" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="W79" s="4" t="s">
+      <c r="W80" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A80" s="4" t="s">
+    <row r="81" spans="1:23" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A81" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D80" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="32"/>
-      <c r="L80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="V80" s="43" t="s">
+      <c r="D81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="52"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="32"/>
+      <c r="L81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="V81" s="43" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D81" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E81" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" s="51" t="s">
+      <c r="D82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="31"/>
-      <c r="S81" s="31"/>
-      <c r="T81" s="31"/>
-      <c r="U81" s="31"/>
-      <c r="V81" s="43" t="s">
+      <c r="G82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="31"/>
+      <c r="S82" s="31"/>
+      <c r="T82" s="31"/>
+      <c r="U82" s="31"/>
+      <c r="V82" s="43" t="s">
         <v>342</v>
-      </c>
-      <c r="W81" s="4"/>
-    </row>
-    <row r="82" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A82" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D82" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="V82" s="43" t="s">
-        <v>336</v>
       </c>
       <c r="W82" s="4"/>
     </row>
     <row r="83" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A83" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D83" s="4" t="b">
         <v>0</v>
@@ -4755,13 +4764,13 @@
     </row>
     <row r="84" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D84" s="4" t="b">
         <v>0</v>
@@ -4778,10 +4787,10 @@
     </row>
     <row r="85" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>311</v>
@@ -4799,300 +4808,289 @@
       </c>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A86" s="4" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
       <c r="D86" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E86" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F86" s="52" t="s">
-        <v>206</v>
-      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="52"/>
       <c r="G86" s="22"/>
       <c r="L86" s="22"/>
       <c r="Q86" s="22"/>
       <c r="V86" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="W86" s="4"/>
+    </row>
+    <row r="87" spans="1:23" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A87" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="G87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="Q87" s="22"/>
+      <c r="V87" s="43" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="51" t="s">
-        <v>404</v>
-      </c>
-      <c r="G87" s="15"/>
-      <c r="H87" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I87" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="J87" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="K87" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="L87" s="22"/>
-      <c r="M87" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="N87" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="O87" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="P87" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="S87" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="T87" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="U87" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="V87" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="W87" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="88" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="51" t="s">
+        <v>404</v>
+      </c>
+      <c r="G88" s="15"/>
+      <c r="H88" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I88" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="J88" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="K88" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="L88" s="22"/>
+      <c r="M88" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="N88" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="O88" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="P88" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="S88" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="T88" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="U88" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="V88" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F88" s="51" t="s">
+      <c r="D89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" s="51" t="s">
         <v>88</v>
-      </c>
-      <c r="G88" s="15"/>
-      <c r="H88" s="37"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="31"/>
-      <c r="S88" s="38"/>
-      <c r="T88" s="31"/>
-      <c r="U88" s="31"/>
-      <c r="V88" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="W88" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A89" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D89" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" s="52" t="s">
-        <v>92</v>
       </c>
       <c r="G89" s="15"/>
       <c r="H89" s="37"/>
       <c r="L89" s="22"/>
       <c r="M89" s="38"/>
       <c r="N89" s="38"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
       <c r="Q89" s="22"/>
+      <c r="R89" s="31"/>
       <c r="S89" s="38"/>
-      <c r="V89" s="42" t="s">
+      <c r="T89" s="31"/>
+      <c r="U89" s="31"/>
+      <c r="V89" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="W89" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A90" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G90" s="15"/>
+      <c r="H90" s="37"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="Q90" s="22"/>
+      <c r="S90" s="38"/>
+      <c r="V90" s="42" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="90" spans="1:23" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="4" t="s">
+    <row r="91" spans="1:23" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D90" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90" s="52" t="s">
+      <c r="D91" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G90" s="15"/>
-      <c r="L90" s="22"/>
-      <c r="Q90" s="22"/>
-      <c r="V90" s="43" t="s">
+      <c r="G91" s="15"/>
+      <c r="L91" s="22"/>
+      <c r="Q91" s="22"/>
+      <c r="V91" s="43" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91" s="51" t="s">
+      <c r="D92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="G91" s="15"/>
-      <c r="H91" s="45"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="45"/>
-      <c r="N91" s="45"/>
-      <c r="O91" s="12"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="31"/>
-      <c r="S91" s="45"/>
-      <c r="T91" s="31"/>
-      <c r="U91" s="31"/>
-    </row>
-    <row r="92" spans="1:23" s="38" customFormat="1" ht="102" x14ac:dyDescent="0.4">
-      <c r="A92" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="B92" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="D92" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G92" s="22"/>
+      <c r="G92" s="15"/>
       <c r="H92" s="45"/>
       <c r="L92" s="22"/>
       <c r="M92" s="45"/>
       <c r="N92" s="45"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
       <c r="Q92" s="22"/>
-      <c r="V92" s="47" t="s">
-        <v>400</v>
-      </c>
-      <c r="W92" s="38" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="R92" s="31"/>
+      <c r="S92" s="45"/>
+      <c r="T92" s="31"/>
+      <c r="U92" s="31"/>
+    </row>
+    <row r="93" spans="1:23" s="38" customFormat="1" ht="102" x14ac:dyDescent="0.4">
       <c r="A93" s="60" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="B93" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C93" s="60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D93" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E93" s="60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G93" s="15"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="45"/>
       <c r="L93" s="22"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
-      <c r="P93" s="12"/>
+      <c r="M93" s="45"/>
+      <c r="N93" s="45"/>
       <c r="Q93" s="22"/>
-      <c r="R93" s="31"/>
-      <c r="S93" s="31"/>
-      <c r="T93" s="31"/>
-      <c r="U93" s="31"/>
-      <c r="W93" s="22" t="s">
-        <v>385</v>
+      <c r="V93" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="W93" s="38" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="94" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A94" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="A94" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B94" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" s="1" t="b">
+      <c r="C94" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="D94" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="60" t="b">
         <v>1</v>
       </c>
       <c r="F94" s="51" t="s">
@@ -5109,89 +5107,89 @@
       <c r="S94" s="31"/>
       <c r="T94" s="31"/>
       <c r="U94" s="31"/>
-      <c r="V94" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="W94" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" s="26" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A95" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D95" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E95" s="26" t="b">
-        <v>0</v>
+      <c r="W94" s="22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="F95" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="G95" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="G95" s="15"/>
       <c r="L95" s="22"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
       <c r="Q95" s="22"/>
       <c r="R95" s="31"/>
       <c r="S95" s="31"/>
       <c r="T95" s="31"/>
       <c r="U95" s="31"/>
       <c r="V95" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="W95" s="26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A96" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D96" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F96" s="52" t="s">
-        <v>405</v>
-      </c>
-      <c r="G96" s="15"/>
+        <v>331</v>
+      </c>
+      <c r="W95" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" s="26" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A96" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="G96" s="22"/>
       <c r="L96" s="22"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
       <c r="Q96" s="22"/>
       <c r="R96" s="31"/>
       <c r="S96" s="31"/>
       <c r="T96" s="31"/>
       <c r="U96" s="31"/>
       <c r="V96" s="43" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" s="9" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+        <v>401</v>
+      </c>
+      <c r="W96" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A97" s="4" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="D97" s="4" t="b">
         <v>0</v>
@@ -5199,7 +5197,9 @@
       <c r="E97" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F97" s="67"/>
+      <c r="F97" s="52" t="s">
+        <v>405</v>
+      </c>
       <c r="G97" s="15"/>
       <c r="L97" s="22"/>
       <c r="M97" s="12"/>
@@ -5215,217 +5215,218 @@
         <v>331</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:23" s="9" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A98" s="4" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>317</v>
+        <v>242</v>
       </c>
       <c r="D98" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F98" s="52" t="s">
-        <v>212</v>
-      </c>
+      <c r="F98" s="67"/>
       <c r="G98" s="15"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="29"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="29"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
       <c r="Q98" s="22"/>
       <c r="R98" s="31"/>
       <c r="S98" s="31"/>
       <c r="T98" s="31"/>
       <c r="U98" s="31"/>
-      <c r="V98" s="47" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D99" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F99" s="51" t="s">
-        <v>16</v>
+      <c r="V98" s="43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A99" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D99" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" s="52" t="s">
+        <v>212</v>
       </c>
       <c r="G99" s="15"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
       <c r="L99" s="15"/>
-      <c r="M99" s="38"/>
-      <c r="N99" s="38"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
       <c r="Q99" s="22"/>
       <c r="R99" s="31"/>
-      <c r="S99" s="38"/>
+      <c r="S99" s="31"/>
       <c r="T99" s="31"/>
       <c r="U99" s="31"/>
-    </row>
-    <row r="100" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="5" t="s">
+      <c r="V99" s="47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="38"/>
+      <c r="N100" s="38"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="31"/>
+      <c r="S100" s="38"/>
+      <c r="T100" s="31"/>
+      <c r="U100" s="31"/>
+    </row>
+    <row r="101" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D100" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E100" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F100" s="63" t="s">
+      <c r="D101" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="G100" s="22"/>
-      <c r="H100" s="37"/>
-      <c r="L100" s="22"/>
-      <c r="Q100" s="22"/>
-    </row>
-    <row r="101" spans="1:23" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="1" t="s">
+      <c r="G101" s="22"/>
+      <c r="H101" s="37"/>
+      <c r="L101" s="22"/>
+      <c r="Q101" s="22"/>
+    </row>
+    <row r="102" spans="1:23" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D101" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F101" s="54" t="s">
+      <c r="D102" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="54" t="s">
         <v>406</v>
       </c>
-      <c r="G101" s="15"/>
-      <c r="H101" s="37"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="45"/>
-      <c r="N101" s="45"/>
-      <c r="O101" s="12"/>
-      <c r="P101" s="12"/>
-      <c r="Q101" s="22"/>
-      <c r="R101" s="31"/>
-      <c r="S101" s="45"/>
-      <c r="T101" s="31"/>
-      <c r="U101" s="31"/>
-      <c r="V101" s="43" t="s">
-        <v>402</v>
-      </c>
-      <c r="W101" s="22" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" s="38" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A102" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="B102" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="D102" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E102" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="22"/>
-      <c r="H102" s="59"/>
-      <c r="I102" s="59"/>
-      <c r="J102" s="59"/>
-      <c r="K102" s="59"/>
-      <c r="L102" s="22"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="37"/>
+      <c r="L102" s="15"/>
       <c r="M102" s="45"/>
       <c r="N102" s="45"/>
-      <c r="O102" s="59"/>
-      <c r="P102" s="59"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
       <c r="Q102" s="22"/>
-      <c r="R102" s="59"/>
+      <c r="R102" s="31"/>
       <c r="S102" s="45"/>
-      <c r="T102" s="59"/>
-      <c r="U102" s="59"/>
-      <c r="V102" s="47" t="s">
+      <c r="T102" s="31"/>
+      <c r="U102" s="31"/>
+      <c r="V102" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="W102" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" s="38" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A103" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="B103" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D103" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="22"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="59"/>
+      <c r="K103" s="59"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="45"/>
+      <c r="N103" s="45"/>
+      <c r="O103" s="59"/>
+      <c r="P103" s="59"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="59"/>
+      <c r="S103" s="45"/>
+      <c r="T103" s="59"/>
+      <c r="U103" s="59"/>
+      <c r="V103" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="W102" s="22" t="s">
+      <c r="W103" s="22" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="103" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D103" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F103" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="38"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="31"/>
-      <c r="S103" s="38"/>
-      <c r="T103" s="31"/>
-      <c r="U103" s="31"/>
-    </row>
-    <row r="104" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="D104" s="1" t="b">
         <v>0</v>
@@ -5434,152 +5435,150 @@
         <v>1</v>
       </c>
       <c r="F104" s="51" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G104" s="15"/>
       <c r="L104" s="15"/>
       <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
+      <c r="N104" s="38"/>
       <c r="O104" s="12"/>
       <c r="P104" s="12"/>
       <c r="Q104" s="22"/>
       <c r="R104" s="31"/>
-      <c r="S104" s="31"/>
+      <c r="S104" s="38"/>
       <c r="T104" s="31"/>
       <c r="U104" s="31"/>
     </row>
     <row r="105" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="D105" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="51" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="G105" s="15"/>
       <c r="L105" s="15"/>
-      <c r="M105" s="38"/>
-      <c r="N105" s="38"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
       <c r="O105" s="12"/>
       <c r="P105" s="12"/>
       <c r="Q105" s="22"/>
       <c r="R105" s="31"/>
-      <c r="S105" s="38"/>
+      <c r="S105" s="31"/>
       <c r="T105" s="31"/>
       <c r="U105" s="31"/>
     </row>
-    <row r="106" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G106" s="15"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="38"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="22"/>
+      <c r="R106" s="31"/>
+      <c r="S106" s="38"/>
+      <c r="T106" s="31"/>
+      <c r="U106" s="31"/>
+    </row>
+    <row r="107" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D106" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E106" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F106" s="51" t="s">
+      <c r="D107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="G106" s="15"/>
-      <c r="H106" s="45" t="s">
+      <c r="G107" s="15"/>
+      <c r="H107" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="I106" s="45" t="s">
+      <c r="I107" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="J106" s="45" t="s">
+      <c r="J107" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="K106" s="45" t="s">
+      <c r="K107" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="L106" s="22"/>
-      <c r="M106" s="38" t="s">
+      <c r="L107" s="22"/>
+      <c r="M107" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="N106" s="59" t="s">
+      <c r="N107" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="O106" s="59" t="s">
+      <c r="O107" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="P106" s="59" t="s">
+      <c r="P107" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="Q106" s="22"/>
-      <c r="R106" s="59" t="s">
+      <c r="Q107" s="22"/>
+      <c r="R107" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="S106" s="38" t="s">
+      <c r="S107" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="T106" s="59" t="s">
+      <c r="T107" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="U106" s="59" t="s">
+      <c r="U107" s="59" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="107" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A107" s="4" t="s">
+    <row r="108" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A108" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D107" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E107" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F107" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="G107" s="15"/>
-      <c r="H107" s="45"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="45"/>
-      <c r="N107" s="45"/>
-      <c r="Q107" s="22"/>
-      <c r="S107" s="45"/>
-      <c r="V107" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="W107" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A108" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D108" s="4" t="b">
         <v>1</v>
@@ -5593,119 +5592,99 @@
       <c r="G108" s="15"/>
       <c r="H108" s="45"/>
       <c r="L108" s="15"/>
+      <c r="M108" s="45"/>
+      <c r="N108" s="45"/>
       <c r="Q108" s="22"/>
+      <c r="S108" s="45"/>
       <c r="V108" s="42" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="W108" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>116</v>
-      </c>
-      <c r="B109" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" t="s">
-        <v>117</v>
-      </c>
-      <c r="D109" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" t="b">
-        <v>1</v>
-      </c>
-      <c r="F109" s="53" t="s">
-        <v>16</v>
+    <row r="109" spans="1:23" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A109" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="52" t="s">
+        <v>212</v>
       </c>
       <c r="G109" s="15"/>
       <c r="H109" s="45"/>
       <c r="L109" s="15"/>
-      <c r="M109" s="45"/>
-      <c r="N109" s="45"/>
       <c r="Q109" s="22"/>
       <c r="V109" s="42" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="W109" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B110" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D110" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E110" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F110" s="62" t="s">
+      <c r="C110" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="15"/>
       <c r="H110" s="45"/>
-      <c r="I110" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="J110" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="K110" s="59" t="s">
-        <v>4</v>
-      </c>
       <c r="L110" s="15"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O110" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="P110" s="59" t="s">
-        <v>4</v>
-      </c>
+      <c r="M110" s="45"/>
+      <c r="N110" s="45"/>
       <c r="Q110" s="22"/>
-      <c r="R110" s="31"/>
-      <c r="S110" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="T110" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="U110" s="59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A111" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="B111" s="60" t="s">
+      <c r="V110" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="W110" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="60" t="s">
-        <v>320</v>
-      </c>
-      <c r="D111" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E111" s="60" t="b">
+      <c r="C111" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F111" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G111" s="46"/>
+      <c r="G111" s="15"/>
       <c r="H111" s="45"/>
       <c r="I111" s="59" t="s">
         <v>4</v>
@@ -5739,18 +5718,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A112" s="60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B112" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="60" t="s">
-        <v>122</v>
+        <v>320</v>
       </c>
       <c r="D112" s="60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="60" t="b">
         <v>1</v>
@@ -5760,20 +5739,29 @@
       </c>
       <c r="G112" s="46"/>
       <c r="H112" s="45"/>
+      <c r="I112" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="J112" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="K112" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="L112" s="15"/>
       <c r="M112" s="12"/>
       <c r="N112" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O112" s="12" t="s">
+      <c r="O112" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="P112" s="12" t="s">
+      <c r="P112" s="59" t="s">
         <v>4</v>
       </c>
       <c r="Q112" s="22"/>
       <c r="R112" s="31"/>
-      <c r="S112" s="38" t="s">
+      <c r="S112" s="59" t="s">
         <v>4</v>
       </c>
       <c r="T112" s="59" t="s">
@@ -5783,53 +5771,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A113" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B113" s="4" t="s">
+    <row r="113" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D113" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E113" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F113" s="52"/>
+      <c r="C113" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D113" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="G113" s="46"/>
       <c r="H113" s="45"/>
-      <c r="I113"/>
-      <c r="J113"/>
-      <c r="K113"/>
       <c r="L113" s="15"/>
       <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
+      <c r="N113" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O113" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P113" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="Q113" s="22"/>
       <c r="R113" s="31"/>
-      <c r="S113" s="38"/>
-      <c r="T113" s="31"/>
-      <c r="U113" s="31"/>
-    </row>
-    <row r="114" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B114" s="5" t="s">
+      <c r="S113" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T113" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="U113" s="59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A114" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D114" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E114" s="5" t="b">
+      <c r="C114" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D114" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F114" s="52"/>
@@ -5838,131 +5837,111 @@
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
-      <c r="L114" s="22"/>
-      <c r="M114"/>
-      <c r="N114"/>
-      <c r="O114"/>
-      <c r="P114"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
       <c r="Q114" s="22"/>
-      <c r="R114"/>
-      <c r="S114"/>
-      <c r="T114"/>
-      <c r="U114"/>
-    </row>
-    <row r="115" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A115" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B115" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C115" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D115" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E115" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F115" s="53" t="s">
-        <v>19</v>
-      </c>
+      <c r="R114" s="31"/>
+      <c r="S114" s="38"/>
+      <c r="T114" s="31"/>
+      <c r="U114" s="31"/>
+    </row>
+    <row r="115" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D115" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" s="52"/>
       <c r="G115" s="46"/>
       <c r="H115" s="45"/>
-      <c r="I115" s="59" t="s">
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115" s="22"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115" s="22"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+    </row>
+    <row r="116" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A116" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G116" s="46"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="J115" s="59" t="s">
+      <c r="J116" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="K115" s="59" t="s">
+      <c r="K116" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="L115" s="15"/>
-      <c r="M115" s="38"/>
-      <c r="N115" s="38" t="s">
+      <c r="L116" s="15"/>
+      <c r="M116" s="38"/>
+      <c r="N116" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="O115" s="59" t="s">
+      <c r="O116" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="P115" s="59" t="s">
+      <c r="P116" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="Q115" s="22"/>
-      <c r="S115" s="38" t="s">
+      <c r="Q116" s="22"/>
+      <c r="S116" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="T115" s="59" t="s">
+      <c r="T116" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="U115" s="59" t="s">
+      <c r="U116" s="59" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="B116" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="D116" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E116" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F116" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="15"/>
-      <c r="H116" s="45"/>
-      <c r="I116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L116" s="15"/>
-      <c r="M116" s="45"/>
-      <c r="N116" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="O116" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="P116" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q116" s="22"/>
-      <c r="R116" s="45"/>
-      <c r="S116" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="T116" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="U116" s="59" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A117" s="60" t="s">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="B117" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C117" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D117" s="60" t="b">
         <v>1</v>
@@ -5970,18 +5949,18 @@
       <c r="E117" s="60" t="b">
         <v>1</v>
       </c>
-      <c r="F117" s="62" t="s">
+      <c r="F117" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G117" s="46"/>
+      <c r="G117" s="15"/>
       <c r="H117" s="45"/>
-      <c r="I117" s="59" t="s">
+      <c r="I117" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J117" s="59" t="s">
+      <c r="J117" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K117" s="59" t="s">
+      <c r="K117" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L117" s="15"/>
@@ -6009,127 +5988,168 @@
     </row>
     <row r="118" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A118" s="60" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="B118" s="60" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C118" s="60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D118" s="60" t="b">
         <v>1</v>
       </c>
       <c r="E118" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F118" s="51" t="s">
-        <v>300</v>
+        <v>1</v>
+      </c>
+      <c r="F118" s="62" t="s">
+        <v>16</v>
       </c>
       <c r="G118" s="46"/>
       <c r="H118" s="45"/>
+      <c r="I118" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="J118" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="K118" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="L118" s="15"/>
       <c r="M118" s="45"/>
-      <c r="N118" s="45"/>
-      <c r="O118" s="12"/>
-      <c r="P118" s="12"/>
+      <c r="N118" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="O118" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="P118" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="Q118" s="22"/>
-      <c r="R118" s="31"/>
-      <c r="S118" s="45"/>
-      <c r="T118" s="31"/>
-      <c r="U118" s="31"/>
-    </row>
-    <row r="119" spans="1:23" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="R118" s="45"/>
+      <c r="S118" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="T118" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="U118" s="59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A119" s="60" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="B119" s="60" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="C119" s="60" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="D119" s="60" t="b">
         <v>1</v>
       </c>
       <c r="E119" s="60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" s="51" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="G119" s="46"/>
       <c r="H119" s="45"/>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="22"/>
-      <c r="M119" s="21"/>
-      <c r="N119" s="38"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="45"/>
+      <c r="N119" s="45"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
       <c r="Q119" s="22"/>
       <c r="R119" s="31"/>
-      <c r="S119" s="31"/>
+      <c r="S119" s="45"/>
       <c r="T119" s="31"/>
       <c r="U119" s="31"/>
-      <c r="V119" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="W119" s="20" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="120" spans="1:23" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A120" s="60" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="B120" s="60" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="C120" s="60" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="D120" s="60" t="b">
         <v>1</v>
       </c>
       <c r="E120" s="60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" s="51" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G120" s="46"/>
       <c r="H120" s="45"/>
-      <c r="I120" s="59"/>
-      <c r="J120" s="59"/>
-      <c r="K120" s="59"/>
-      <c r="L120" s="15"/>
-      <c r="M120" s="45"/>
-      <c r="N120" s="59"/>
-      <c r="O120" s="59"/>
-      <c r="P120" s="59"/>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="38"/>
       <c r="Q120" s="22"/>
       <c r="R120" s="31"/>
       <c r="S120" s="31"/>
       <c r="T120" s="31"/>
       <c r="U120" s="31"/>
-      <c r="V120" s="47" t="s">
+      <c r="V120" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="W120" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A121" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B121" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D121" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="G121" s="46"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="59"/>
+      <c r="J121" s="59"/>
+      <c r="K121" s="59"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="45"/>
+      <c r="N121" s="59"/>
+      <c r="O121" s="59"/>
+      <c r="P121" s="59"/>
+      <c r="Q121" s="22"/>
+      <c r="R121" s="31"/>
+      <c r="S121" s="31"/>
+      <c r="T121" s="31"/>
+      <c r="U121" s="31"/>
+      <c r="V121" s="47" t="s">
         <v>365</v>
       </c>
-      <c r="W120" s="1" t="s">
+      <c r="W121" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A121" s="41"/>
-      <c r="B121" s="41"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="39"/>
-      <c r="M121" s="45"/>
-      <c r="Q121" s="22"/>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A122" s="41"/>
@@ -6140,6 +6160,7 @@
       <c r="F122" s="41"/>
       <c r="G122" s="48"/>
       <c r="H122" s="39"/>
+      <c r="M122" s="45"/>
       <c r="Q122" s="22"/>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.4">
@@ -6225,8 +6246,9 @@
       <c r="C130" s="41"/>
       <c r="D130" s="41"/>
       <c r="E130" s="41"/>
-      <c r="F130" s="49"/>
+      <c r="F130" s="41"/>
       <c r="G130" s="48"/>
+      <c r="H130" s="39"/>
       <c r="Q130" s="22"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.4">
@@ -6345,7 +6367,7 @@
       <c r="C142" s="41"/>
       <c r="D142" s="41"/>
       <c r="E142" s="41"/>
-      <c r="F142" s="41"/>
+      <c r="F142" s="49"/>
       <c r="G142" s="48"/>
       <c r="Q142" s="22"/>
     </row>
@@ -6355,7 +6377,7 @@
       <c r="C143" s="41"/>
       <c r="D143" s="41"/>
       <c r="E143" s="41"/>
-      <c r="F143" s="49"/>
+      <c r="F143" s="41"/>
       <c r="G143" s="48"/>
       <c r="Q143" s="22"/>
     </row>
@@ -6415,7 +6437,7 @@
       <c r="C149" s="41"/>
       <c r="D149" s="41"/>
       <c r="E149" s="41"/>
-      <c r="F149" s="41"/>
+      <c r="F149" s="49"/>
       <c r="G149" s="48"/>
       <c r="Q149" s="22"/>
     </row>
@@ -6437,25 +6459,35 @@
       <c r="E151" s="41"/>
       <c r="F151" s="41"/>
       <c r="G151" s="48"/>
+      <c r="Q151" s="22"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A152" s="41"/>
+      <c r="B152" s="41"/>
+      <c r="C152" s="41"/>
+      <c r="D152" s="41"/>
+      <c r="E152" s="41"/>
+      <c r="F152" s="41"/>
+      <c r="G152" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="V45:V46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H20" r:id="rId1" display="standaarden.ondersteuning@vng.nl"/>
     <hyperlink ref="F20" r:id="rId2"/>
-    <hyperlink ref="F44" r:id="rId3"/>
+    <hyperlink ref="F45" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId4"/>

--- a/src/main/resources/input/KING/props/KING.xlsx
+++ b/src/main/resources/input/KING/props/KING.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="419">
   <si>
     <t>Name</t>
   </si>
@@ -1303,13 +1303,19 @@
   </si>
   <si>
     <t>createeatoolbox</t>
+  </si>
+  <si>
+    <t>visuals</t>
+  </si>
+  <si>
+    <t>Name of the visuals file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1421,8 +1427,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1456,6 +1469,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1481,15 +1499,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1681,19 +1700,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Neutral 2" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1975,14 +2004,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W152"/>
+  <dimension ref="A1:W153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C106" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E64" sqref="E64"/>
       <selection pane="topRight" activeCell="E64" sqref="E64"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="H120" sqref="H120:U120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2227,16 +2256,16 @@
       <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="72" t="b">
+      <c r="D7" s="73" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
@@ -2254,7 +2283,7 @@
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="71" t="s">
+      <c r="V7" s="72" t="s">
         <v>351</v>
       </c>
       <c r="W7" s="1" t="s">
@@ -2262,10 +2291,10 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
       <c r="F8" s="51"/>
       <c r="G8" s="15"/>
       <c r="L8" s="15"/>
@@ -2278,7 +2307,7 @@
       <c r="S8" s="31"/>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
-      <c r="V8" s="71"/>
+      <c r="V8" s="72"/>
     </row>
     <row r="9" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
@@ -3525,16 +3554,16 @@
       </c>
     </row>
     <row r="46" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="72" t="b">
+      <c r="D46" s="73" t="b">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="b">
@@ -3554,7 +3583,7 @@
       <c r="S46" s="45"/>
       <c r="T46" s="31"/>
       <c r="U46" s="31"/>
-      <c r="V46" s="71" t="s">
+      <c r="V46" s="72" t="s">
         <v>351</v>
       </c>
       <c r="W46" s="1" t="s">
@@ -3562,10 +3591,10 @@
       </c>
     </row>
     <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="72"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
       <c r="F47" s="51"/>
       <c r="G47" s="15"/>
       <c r="L47" s="15"/>
@@ -3578,7 +3607,7 @@
       <c r="S47" s="31"/>
       <c r="T47" s="31"/>
       <c r="U47" s="31"/>
-      <c r="V47" s="71"/>
+      <c r="V47" s="72"/>
     </row>
     <row r="48" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
@@ -6071,97 +6100,142 @@
       <c r="T119" s="31"/>
       <c r="U119" s="31"/>
     </row>
-    <row r="120" spans="1:23" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A120" s="60" t="s">
+    <row r="120" spans="1:23" s="71" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="74" t="s">
+        <v>417</v>
+      </c>
+      <c r="B120" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="74" t="s">
+        <v>418</v>
+      </c>
+      <c r="D120" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" s="74"/>
+      <c r="G120" s="75"/>
+      <c r="H120" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="I120" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="J120" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="K120" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="L120" s="75"/>
+      <c r="M120" s="74" t="s">
+        <v>348</v>
+      </c>
+      <c r="N120" s="74" t="s">
+        <v>348</v>
+      </c>
+      <c r="O120" s="74" t="s">
+        <v>348</v>
+      </c>
+      <c r="P120" s="74" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q120" s="75"/>
+      <c r="R120" s="74" t="s">
+        <v>360</v>
+      </c>
+      <c r="S120" s="74" t="s">
+        <v>360</v>
+      </c>
+      <c r="T120" s="74" t="s">
+        <v>360</v>
+      </c>
+      <c r="U120" s="74" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A121" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="B120" s="60" t="s">
+      <c r="B121" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C120" s="60" t="s">
+      <c r="C121" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="D120" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E120" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F120" s="51" t="s">
+      <c r="D121" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" s="51" t="s">
         <v>249</v>
-      </c>
-      <c r="G120" s="46"/>
-      <c r="H120" s="45"/>
-      <c r="I120" s="21"/>
-      <c r="J120" s="21"/>
-      <c r="K120" s="21"/>
-      <c r="L120" s="22"/>
-      <c r="M120" s="21"/>
-      <c r="N120" s="38"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="31"/>
-      <c r="S120" s="31"/>
-      <c r="T120" s="31"/>
-      <c r="U120" s="31"/>
-      <c r="V120" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="W120" s="20" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A121" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="B121" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="C121" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D121" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E121" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F121" s="51" t="s">
-        <v>220</v>
       </c>
       <c r="G121" s="46"/>
       <c r="H121" s="45"/>
-      <c r="I121" s="59"/>
-      <c r="J121" s="59"/>
-      <c r="K121" s="59"/>
-      <c r="L121" s="15"/>
-      <c r="M121" s="45"/>
-      <c r="N121" s="59"/>
-      <c r="O121" s="59"/>
-      <c r="P121" s="59"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="38"/>
       <c r="Q121" s="22"/>
       <c r="R121" s="31"/>
       <c r="S121" s="31"/>
       <c r="T121" s="31"/>
       <c r="U121" s="31"/>
-      <c r="V121" s="47" t="s">
+      <c r="V121" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="W121" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A122" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="G122" s="46"/>
+      <c r="H122" s="45"/>
+      <c r="I122" s="59"/>
+      <c r="J122" s="59"/>
+      <c r="K122" s="59"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="45"/>
+      <c r="N122" s="59"/>
+      <c r="O122" s="59"/>
+      <c r="P122" s="59"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="31"/>
+      <c r="S122" s="31"/>
+      <c r="T122" s="31"/>
+      <c r="U122" s="31"/>
+      <c r="V122" s="47" t="s">
         <v>365</v>
       </c>
-      <c r="W121" s="1" t="s">
+      <c r="W122" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A122" s="41"/>
-      <c r="B122" s="41"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="39"/>
-      <c r="M122" s="45"/>
-      <c r="Q122" s="22"/>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A123" s="41"/>
@@ -6172,6 +6246,7 @@
       <c r="F123" s="41"/>
       <c r="G123" s="48"/>
       <c r="H123" s="39"/>
+      <c r="M123" s="45"/>
       <c r="Q123" s="22"/>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.4">
@@ -6257,8 +6332,9 @@
       <c r="C131" s="41"/>
       <c r="D131" s="41"/>
       <c r="E131" s="41"/>
-      <c r="F131" s="49"/>
+      <c r="F131" s="41"/>
       <c r="G131" s="48"/>
+      <c r="H131" s="39"/>
       <c r="Q131" s="22"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.4">
@@ -6377,7 +6453,7 @@
       <c r="C143" s="41"/>
       <c r="D143" s="41"/>
       <c r="E143" s="41"/>
-      <c r="F143" s="41"/>
+      <c r="F143" s="49"/>
       <c r="G143" s="48"/>
       <c r="Q143" s="22"/>
     </row>
@@ -6387,7 +6463,7 @@
       <c r="C144" s="41"/>
       <c r="D144" s="41"/>
       <c r="E144" s="41"/>
-      <c r="F144" s="49"/>
+      <c r="F144" s="41"/>
       <c r="G144" s="48"/>
       <c r="Q144" s="22"/>
     </row>
@@ -6447,7 +6523,7 @@
       <c r="C150" s="41"/>
       <c r="D150" s="41"/>
       <c r="E150" s="41"/>
-      <c r="F150" s="41"/>
+      <c r="F150" s="49"/>
       <c r="G150" s="48"/>
       <c r="Q150" s="22"/>
     </row>
@@ -6469,19 +6545,29 @@
       <c r="E152" s="41"/>
       <c r="F152" s="41"/>
       <c r="G152" s="48"/>
+      <c r="Q152" s="22"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A153" s="41"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="41"/>
+      <c r="E153" s="41"/>
+      <c r="F153" s="41"/>
+      <c r="G153" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>

--- a/src/main/resources/input/KING/props/KING.xlsx
+++ b/src/main/resources/input/KING/props/KING.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\KING\props\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\KING\Kern-taken\Imvertor\Imvertor-Maven\src\main\resources\input\KING\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A3C9C-463F-44F1-BAA1-A75676DB08E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KING" sheetId="3" r:id="rId1"/>
     <sheet name="Explanation" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="419">
   <si>
     <t>Name</t>
   </si>
@@ -1314,7 +1315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1703,27 +1704,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Controlecel" xfId="1" builtinId="23"/>
+    <cellStyle name="Goed" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Neutral 2" xfId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutral 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Verklarende tekst" xfId="3" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2000,46 +2001,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E64" sqref="E64"/>
       <selection pane="topRight" activeCell="E64" sqref="E64"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
-      <selection pane="bottomRight" activeCell="H120" sqref="H120:U120"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.84375" customWidth="1"/>
-    <col min="2" max="2" width="20.15234375" customWidth="1"/>
-    <col min="3" max="3" width="50.69140625" customWidth="1"/>
-    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="2.69140625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.61328125" customWidth="1"/>
-    <col min="9" max="9" width="14.69140625" customWidth="1"/>
-    <col min="10" max="10" width="14.3046875" customWidth="1"/>
-    <col min="11" max="11" width="15.69140625" customWidth="1"/>
-    <col min="12" max="12" width="2.3828125" style="18" customWidth="1"/>
-    <col min="13" max="13" width="18.69140625" customWidth="1"/>
-    <col min="14" max="14" width="16.07421875" customWidth="1"/>
-    <col min="15" max="16" width="15.69140625" customWidth="1"/>
-    <col min="17" max="17" width="2.3828125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="19.921875" customWidth="1"/>
-    <col min="19" max="19" width="19.61328125" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.3984375" style="18" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.06640625" customWidth="1"/>
+    <col min="15" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="2.3984375" style="18" customWidth="1"/>
+    <col min="18" max="18" width="19.9296875" customWidth="1"/>
+    <col min="19" max="19" width="19.59765625" customWidth="1"/>
     <col min="20" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="63.61328125" customWidth="1"/>
-    <col min="23" max="23" width="30.07421875" customWidth="1"/>
+    <col min="22" max="22" width="63.59765625" customWidth="1"/>
+    <col min="23" max="23" width="30.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="36.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="F2" s="57"/>
       <c r="G2" s="14"/>
       <c r="H2" s="2" t="s">
@@ -2143,7 +2144,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="28.9" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -2172,7 +2173,7 @@
       <c r="T3" s="31"/>
       <c r="U3" s="31"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2203,7 +2204,7 @@
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2234,7 +2235,7 @@
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -2255,17 +2256,17 @@
       <c r="L6" s="15"/>
       <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A7" s="73" t="s">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="73" t="b">
+      <c r="D7" s="75" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
@@ -2283,18 +2284,18 @@
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="72" t="s">
+      <c r="V7" s="74" t="s">
         <v>351</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
       <c r="F8" s="51"/>
       <c r="G8" s="15"/>
       <c r="L8" s="15"/>
@@ -2307,9 +2308,9 @@
       <c r="S8" s="31"/>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
-      <c r="V8" s="72"/>
-    </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="V8" s="74"/>
+    </row>
+    <row r="9" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>159</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2369,7 +2370,7 @@
       <c r="T10" s="31"/>
       <c r="U10" s="31"/>
     </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>161</v>
       </c>
@@ -2390,7 +2391,7 @@
       <c r="L11" s="15"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>134</v>
       </c>
@@ -2419,7 +2420,7 @@
       <c r="T12" s="31"/>
       <c r="U12" s="31"/>
     </row>
-    <row r="13" spans="1:23" s="8" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2485,7 +2486,7 @@
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2522,7 +2523,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2557,7 +2558,7 @@
       </c>
       <c r="W16" s="59"/>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" s="1" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>215</v>
       </c>
@@ -2588,7 +2589,7 @@
       <c r="T17" s="31"/>
       <c r="U17" s="31"/>
     </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>217</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>163</v>
       </c>
@@ -2684,7 +2685,7 @@
       <c r="T19" s="31"/>
       <c r="U19" s="31"/>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>139</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23" s="32" t="s">
         <v>25</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>165</v>
       </c>
@@ -2857,7 +2858,7 @@
       <c r="T24" s="31"/>
       <c r="U24" s="31"/>
     </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2914,21 +2915,28 @@
         <v>16</v>
       </c>
       <c r="G26" s="15"/>
+      <c r="I26" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L26" s="15"/>
       <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="N26" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="O26" s="38"/>
       <c r="P26" s="38"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="31"/>
-      <c r="S26" s="59"/>
+      <c r="S26" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="T26" s="59"/>
       <c r="U26" s="59"/>
       <c r="V26" s="43" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="70" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" s="70" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="70" t="s">
         <v>416</v>
       </c>
@@ -2948,13 +2956,22 @@
         <v>4</v>
       </c>
       <c r="G27" s="22"/>
+      <c r="I27" s="70" t="s">
+        <v>4</v>
+      </c>
       <c r="L27" s="22"/>
+      <c r="N27" s="70" t="s">
+        <v>4</v>
+      </c>
       <c r="Q27" s="22"/>
+      <c r="S27" s="70" t="s">
+        <v>4</v>
+      </c>
       <c r="V27" s="58" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2988,7 +3005,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>144</v>
       </c>
@@ -3022,7 +3039,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="37" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" s="37" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>288</v>
       </c>
@@ -3047,7 +3064,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="23" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" s="23" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>250</v>
       </c>
@@ -3082,7 +3099,7 @@
       </c>
       <c r="W31" s="50"/>
     </row>
-    <row r="32" spans="1:23" s="25" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" s="25" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>255</v>
       </c>
@@ -3121,7 +3138,7 @@
       </c>
       <c r="W32" s="50"/>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -3161,7 +3178,7 @@
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>167</v>
       </c>
@@ -3192,7 +3209,7 @@
       <c r="T34" s="31"/>
       <c r="U34" s="31"/>
     </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
@@ -3224,7 +3241,7 @@
       <c r="U35" s="31"/>
       <c r="V35" s="43"/>
     </row>
-    <row r="36" spans="1:23" s="30" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="30" t="s">
         <v>260</v>
       </c>
@@ -3253,7 +3270,7 @@
       <c r="U36" s="31"/>
       <c r="V36" s="43"/>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -3283,7 +3300,7 @@
       <c r="T37" s="31"/>
       <c r="U37" s="31"/>
     </row>
-    <row r="38" spans="1:23" s="32" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" s="32" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
         <v>272</v>
       </c>
@@ -3309,7 +3326,7 @@
       </c>
       <c r="W38" s="50"/>
     </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -3341,7 +3358,7 @@
       <c r="T39" s="31"/>
       <c r="U39" s="31"/>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -3379,7 +3396,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -3411,7 +3428,7 @@
       <c r="T41" s="31"/>
       <c r="U41" s="31"/>
     </row>
-    <row r="42" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
         <v>254</v>
       </c>
@@ -3446,7 +3463,7 @@
       <c r="T42" s="59"/>
       <c r="U42" s="59"/>
     </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>173</v>
       </c>
@@ -3486,7 +3503,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:23" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A44" s="32" t="s">
         <v>45</v>
       </c>
@@ -3521,7 +3538,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:23" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="44" t="s">
         <v>47</v>
       </c>
@@ -3553,17 +3570,17 @@
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="73" t="s">
+    <row r="46" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="73" t="s">
+      <c r="C46" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="73" t="b">
+      <c r="D46" s="75" t="b">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="b">
@@ -3583,18 +3600,18 @@
       <c r="S46" s="45"/>
       <c r="T46" s="31"/>
       <c r="U46" s="31"/>
-      <c r="V46" s="72" t="s">
+      <c r="V46" s="74" t="s">
         <v>351</v>
       </c>
       <c r="W46" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="73"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
+    <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="75"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
       <c r="F47" s="51"/>
       <c r="G47" s="15"/>
       <c r="L47" s="15"/>
@@ -3607,9 +3624,9 @@
       <c r="S47" s="31"/>
       <c r="T47" s="31"/>
       <c r="U47" s="31"/>
-      <c r="V47" s="72"/>
-    </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V47" s="74"/>
+    </row>
+    <row r="48" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -3638,7 +3655,7 @@
       <c r="T48" s="31"/>
       <c r="U48" s="31"/>
     </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -3669,7 +3686,7 @@
       <c r="T49" s="31"/>
       <c r="U49" s="31"/>
     </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:23" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -3706,7 +3723,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:23" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>213</v>
       </c>
@@ -3769,7 +3786,7 @@
       </c>
       <c r="W51"/>
     </row>
-    <row r="52" spans="1:23" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:23" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="32" t="s">
         <v>178</v>
       </c>
@@ -3795,7 +3812,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="4" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" s="4" customFormat="1" ht="86.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="32" t="s">
         <v>180</v>
       </c>
@@ -3831,7 +3848,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
@@ -3861,7 +3878,7 @@
       <c r="U54" s="31"/>
       <c r="V54" s="43"/>
     </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
@@ -3896,7 +3913,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:23" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
         <v>61</v>
       </c>
@@ -3926,7 +3943,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>183</v>
       </c>
@@ -3958,7 +3975,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:23" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A58" s="65" t="s">
         <v>278</v>
       </c>
@@ -3992,7 +4009,7 @@
       </c>
       <c r="W58" s="50"/>
     </row>
-    <row r="59" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>280</v>
       </c>
@@ -4017,7 +4034,7 @@
       </c>
       <c r="W59" s="50"/>
     </row>
-    <row r="60" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
         <v>185</v>
       </c>
@@ -4040,7 +4057,7 @@
       <c r="V60" s="43"/>
       <c r="W60" s="50"/>
     </row>
-    <row r="61" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>283</v>
       </c>
@@ -4073,7 +4090,7 @@
       </c>
       <c r="W61" s="50"/>
     </row>
-    <row r="62" spans="1:23" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:23" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A62" s="11" t="s">
         <v>233</v>
       </c>
@@ -4112,7 +4129,7 @@
       </c>
       <c r="W62" s="50"/>
     </row>
-    <row r="63" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:23" s="4" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
@@ -4138,7 +4155,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
@@ -4171,7 +4188,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="37" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:23" s="37" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>295</v>
       </c>
@@ -4199,7 +4216,7 @@
       </c>
       <c r="W65" s="61"/>
     </row>
-    <row r="66" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:23" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -4225,7 +4242,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:23" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>297</v>
       </c>
@@ -4246,7 +4263,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="65" t="s">
         <v>252</v>
       </c>
@@ -4270,7 +4287,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -4301,7 +4318,7 @@
       <c r="T69" s="31"/>
       <c r="U69" s="31"/>
     </row>
-    <row r="70" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -4333,7 +4350,7 @@
       <c r="T70" s="31"/>
       <c r="U70" s="31"/>
     </row>
-    <row r="71" spans="1:23" s="19" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:23" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A71" s="19" t="s">
         <v>244</v>
       </c>
@@ -4369,7 +4386,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>189</v>
       </c>
@@ -4403,7 +4420,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -4462,7 +4479,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A74" s="35" t="s">
         <v>192</v>
       </c>
@@ -4491,7 +4508,7 @@
       <c r="T74" s="59"/>
       <c r="U74" s="59"/>
     </row>
-    <row r="75" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="32" t="s">
         <v>74</v>
       </c>
@@ -4524,7 +4541,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>211</v>
       </c>
@@ -4555,7 +4572,7 @@
       <c r="T76" s="31"/>
       <c r="U76" s="31"/>
     </row>
-    <row r="77" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -4587,7 +4604,7 @@
       <c r="T77" s="31"/>
       <c r="U77" s="31"/>
     </row>
-    <row r="78" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -4646,7 +4663,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -4678,7 +4695,7 @@
       <c r="T79" s="31"/>
       <c r="U79" s="31"/>
     </row>
-    <row r="80" spans="1:23" s="4" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:23" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A80" s="4" t="s">
         <v>83</v>
       </c>
@@ -4711,7 +4728,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:23" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>301</v>
       </c>
@@ -4733,7 +4750,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>193</v>
       </c>
@@ -4768,7 +4785,7 @@
       </c>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:23" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>303</v>
       </c>
@@ -4791,7 +4808,7 @@
       </c>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:23" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A84" s="4" t="s">
         <v>306</v>
       </c>
@@ -4814,7 +4831,7 @@
       </c>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:23" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>309</v>
       </c>
@@ -4837,7 +4854,7 @@
       </c>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:23" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A86" s="4" t="s">
         <v>312</v>
       </c>
@@ -4860,7 +4877,7 @@
       </c>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:23" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>196</v>
       </c>
@@ -4886,7 +4903,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="88" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
@@ -4951,7 +4968,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -4989,7 +5006,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="90" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A90" s="4" t="s">
         <v>91</v>
       </c>
@@ -5019,7 +5036,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:23" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>147</v>
       </c>
@@ -5045,7 +5062,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:23" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>95</v>
       </c>
@@ -5077,7 +5094,7 @@
       <c r="T92" s="31"/>
       <c r="U92" s="31"/>
     </row>
-    <row r="93" spans="1:23" s="38" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:23" s="38" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A93" s="60" t="s">
         <v>314</v>
       </c>
@@ -5106,7 +5123,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="94" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A94" s="60" t="s">
         <v>218</v>
       </c>
@@ -5140,7 +5157,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="95" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>149</v>
       </c>
@@ -5177,7 +5194,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="96" spans="1:23" s="26" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:23" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A96" s="26" t="s">
         <v>98</v>
       </c>
@@ -5210,7 +5227,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="97" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>198</v>
       </c>
@@ -5244,7 +5261,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="9" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:23" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A98" s="4" t="s">
         <v>240</v>
       </c>
@@ -5276,7 +5293,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="99" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:23" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>214</v>
       </c>
@@ -5313,7 +5330,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
@@ -5344,7 +5361,7 @@
       <c r="T100" s="31"/>
       <c r="U100" s="31"/>
     </row>
-    <row r="101" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
         <v>274</v>
       </c>
@@ -5368,7 +5385,7 @@
       <c r="L101" s="22"/>
       <c r="Q101" s="22"/>
     </row>
-    <row r="102" spans="1:23" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:23" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
@@ -5406,7 +5423,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="103" spans="1:23" s="38" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:23" s="38" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A103" s="61" t="s">
         <v>318</v>
       </c>
@@ -5447,7 +5464,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="104" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
@@ -5478,7 +5495,7 @@
       <c r="T104" s="31"/>
       <c r="U104" s="31"/>
     </row>
-    <row r="105" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>201</v>
       </c>
@@ -5509,7 +5526,7 @@
       <c r="T105" s="31"/>
       <c r="U105" s="31"/>
     </row>
-    <row r="106" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
@@ -5540,7 +5557,7 @@
       <c r="T106" s="31"/>
       <c r="U106" s="31"/>
     </row>
-    <row r="107" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>110</v>
       </c>
@@ -5599,7 +5616,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="108" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A108" s="4" t="s">
         <v>112</v>
       </c>
@@ -5632,7 +5649,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A109" s="4" t="s">
         <v>114</v>
       </c>
@@ -5662,7 +5679,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="110" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -5694,7 +5711,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="111" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>118</v>
       </c>
@@ -5747,7 +5764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A112" s="60" t="s">
         <v>120</v>
       </c>
@@ -5800,7 +5817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="60" t="s">
         <v>121</v>
       </c>
@@ -5844,7 +5861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A114" s="4" t="s">
         <v>151</v>
       </c>
@@ -5877,7 +5894,7 @@
       <c r="T114" s="31"/>
       <c r="U114" s="31"/>
     </row>
-    <row r="115" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="5" t="s">
         <v>276</v>
       </c>
@@ -5910,7 +5927,7 @@
       <c r="T115"/>
       <c r="U115"/>
     </row>
-    <row r="116" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A116" s="44" t="s">
         <v>123</v>
       </c>
@@ -5962,7 +5979,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="117" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="60" t="s">
         <v>126</v>
       </c>
@@ -6015,7 +6032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A118" s="60" t="s">
         <v>232</v>
       </c>
@@ -6068,7 +6085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="60" t="s">
         <v>129</v>
       </c>
@@ -6100,24 +6117,24 @@
       <c r="T119" s="31"/>
       <c r="U119" s="31"/>
     </row>
-    <row r="120" spans="1:23" s="71" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="74" t="s">
+    <row r="120" spans="1:23" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="72" t="s">
         <v>417</v>
       </c>
-      <c r="B120" s="74" t="s">
+      <c r="B120" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="74" t="s">
+      <c r="C120" s="72" t="s">
         <v>418</v>
       </c>
-      <c r="D120" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E120" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="F120" s="74"/>
-      <c r="G120" s="75"/>
+      <c r="D120" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" s="72"/>
+      <c r="G120" s="73"/>
       <c r="H120" s="45" t="s">
         <v>415</v>
       </c>
@@ -6130,34 +6147,34 @@
       <c r="K120" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="L120" s="75"/>
-      <c r="M120" s="74" t="s">
+      <c r="L120" s="73"/>
+      <c r="M120" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="N120" s="74" t="s">
+      <c r="N120" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="O120" s="74" t="s">
+      <c r="O120" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="P120" s="74" t="s">
+      <c r="P120" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="Q120" s="75"/>
-      <c r="R120" s="74" t="s">
+      <c r="Q120" s="73"/>
+      <c r="R120" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="S120" s="74" t="s">
+      <c r="S120" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="T120" s="74" t="s">
+      <c r="T120" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="U120" s="74" t="s">
+      <c r="U120" s="72" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="121" spans="1:23" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:23" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A121" s="60" t="s">
         <v>247</v>
       </c>
@@ -6196,7 +6213,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A122" s="60" t="s">
         <v>131</v>
       </c>
@@ -6237,7 +6254,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A123" s="41"/>
       <c r="B123" s="41"/>
       <c r="C123" s="41"/>
@@ -6249,7 +6266,7 @@
       <c r="M123" s="45"/>
       <c r="Q123" s="22"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A124" s="41"/>
       <c r="B124" s="41"/>
       <c r="C124" s="41"/>
@@ -6260,7 +6277,7 @@
       <c r="H124" s="39"/>
       <c r="Q124" s="22"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -6271,7 +6288,7 @@
       <c r="H125" s="39"/>
       <c r="Q125" s="22"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A126" s="41"/>
       <c r="B126" s="41"/>
       <c r="C126" s="41"/>
@@ -6282,7 +6299,7 @@
       <c r="H126" s="39"/>
       <c r="Q126" s="22"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A127" s="41"/>
       <c r="B127" s="41"/>
       <c r="C127" s="41"/>
@@ -6293,7 +6310,7 @@
       <c r="H127" s="39"/>
       <c r="Q127" s="22"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A128" s="41"/>
       <c r="B128" s="41"/>
       <c r="C128" s="41"/>
@@ -6304,7 +6321,7 @@
       <c r="H128" s="39"/>
       <c r="Q128" s="22"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A129" s="41"/>
       <c r="B129" s="41"/>
       <c r="C129" s="41"/>
@@ -6315,7 +6332,7 @@
       <c r="H129" s="39"/>
       <c r="Q129" s="22"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A130" s="41"/>
       <c r="B130" s="41"/>
       <c r="C130" s="41"/>
@@ -6326,7 +6343,7 @@
       <c r="H130" s="39"/>
       <c r="Q130" s="22"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A131" s="41"/>
       <c r="B131" s="41"/>
       <c r="C131" s="41"/>
@@ -6337,7 +6354,7 @@
       <c r="H131" s="39"/>
       <c r="Q131" s="22"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A132" s="41"/>
       <c r="B132" s="41"/>
       <c r="C132" s="41"/>
@@ -6347,7 +6364,7 @@
       <c r="G132" s="48"/>
       <c r="Q132" s="22"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
@@ -6357,7 +6374,7 @@
       <c r="G133" s="48"/>
       <c r="Q133" s="22"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A134" s="41"/>
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
@@ -6367,7 +6384,7 @@
       <c r="G134" s="48"/>
       <c r="Q134" s="22"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A135" s="41"/>
       <c r="B135" s="41"/>
       <c r="C135" s="41"/>
@@ -6377,7 +6394,7 @@
       <c r="G135" s="48"/>
       <c r="Q135" s="22"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A136" s="41"/>
       <c r="B136" s="41"/>
       <c r="C136" s="41"/>
@@ -6387,7 +6404,7 @@
       <c r="G136" s="48"/>
       <c r="Q136" s="22"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A137" s="41"/>
       <c r="B137" s="41"/>
       <c r="C137" s="41"/>
@@ -6397,7 +6414,7 @@
       <c r="G137" s="48"/>
       <c r="Q137" s="22"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A138" s="41"/>
       <c r="B138" s="41"/>
       <c r="C138" s="41"/>
@@ -6407,7 +6424,7 @@
       <c r="G138" s="48"/>
       <c r="Q138" s="22"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A139" s="41"/>
       <c r="B139" s="41"/>
       <c r="C139" s="41"/>
@@ -6417,7 +6434,7 @@
       <c r="G139" s="48"/>
       <c r="Q139" s="22"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A140" s="41"/>
       <c r="B140" s="41"/>
       <c r="C140" s="41"/>
@@ -6427,7 +6444,7 @@
       <c r="G140" s="48"/>
       <c r="Q140" s="22"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A141" s="41"/>
       <c r="B141" s="41"/>
       <c r="C141" s="41"/>
@@ -6437,7 +6454,7 @@
       <c r="G141" s="48"/>
       <c r="Q141" s="22"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A142" s="41"/>
       <c r="B142" s="41"/>
       <c r="C142" s="41"/>
@@ -6447,7 +6464,7 @@
       <c r="G142" s="48"/>
       <c r="Q142" s="22"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A143" s="41"/>
       <c r="B143" s="41"/>
       <c r="C143" s="41"/>
@@ -6457,7 +6474,7 @@
       <c r="G143" s="48"/>
       <c r="Q143" s="22"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A144" s="41"/>
       <c r="B144" s="41"/>
       <c r="C144" s="41"/>
@@ -6467,7 +6484,7 @@
       <c r="G144" s="48"/>
       <c r="Q144" s="22"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A145" s="41"/>
       <c r="B145" s="41"/>
       <c r="C145" s="41"/>
@@ -6477,7 +6494,7 @@
       <c r="G145" s="48"/>
       <c r="Q145" s="22"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A146" s="41"/>
       <c r="B146" s="41"/>
       <c r="C146" s="41"/>
@@ -6487,7 +6504,7 @@
       <c r="G146" s="48"/>
       <c r="Q146" s="22"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A147" s="41"/>
       <c r="B147" s="41"/>
       <c r="C147" s="41"/>
@@ -6497,7 +6514,7 @@
       <c r="G147" s="48"/>
       <c r="Q147" s="22"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A148" s="41"/>
       <c r="B148" s="41"/>
       <c r="C148" s="41"/>
@@ -6507,7 +6524,7 @@
       <c r="G148" s="48"/>
       <c r="Q148" s="22"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A149" s="41"/>
       <c r="B149" s="41"/>
       <c r="C149" s="41"/>
@@ -6517,7 +6534,7 @@
       <c r="G149" s="48"/>
       <c r="Q149" s="22"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A150" s="41"/>
       <c r="B150" s="41"/>
       <c r="C150" s="41"/>
@@ -6527,7 +6544,7 @@
       <c r="G150" s="48"/>
       <c r="Q150" s="22"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A151" s="41"/>
       <c r="B151" s="41"/>
       <c r="C151" s="41"/>
@@ -6537,7 +6554,7 @@
       <c r="G151" s="48"/>
       <c r="Q151" s="22"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A152" s="41"/>
       <c r="B152" s="41"/>
       <c r="C152" s="41"/>
@@ -6547,7 +6564,7 @@
       <c r="G152" s="48"/>
       <c r="Q152" s="22"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A153" s="41"/>
       <c r="B153" s="41"/>
       <c r="C153" s="41"/>
@@ -6558,22 +6575,22 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="V46:V47"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H20" r:id="rId1" display="standaarden.ondersteuning@vng.nl"/>
-    <hyperlink ref="F20" r:id="rId2"/>
-    <hyperlink ref="F45" r:id="rId3"/>
+    <hyperlink ref="H20" r:id="rId1" display="standaarden.ondersteuning@vng.nl" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F45" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId4"/>
@@ -6581,25 +6598,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" customWidth="1"/>
-    <col min="2" max="2" width="52.23046875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>229</v>
       </c>
@@ -6607,7 +6624,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>230</v>
       </c>
@@ -6615,8 +6632,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
         <v>208</v>
       </c>
@@ -6624,7 +6641,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
         <v>209</v>
       </c>
@@ -6632,7 +6649,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
         <v>210</v>
       </c>
@@ -6640,7 +6657,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:2" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/input/KING/props/KING.xlsx
+++ b/src/main/resources/input/KING/props/KING.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\KING\Kern-taken\Imvertor\Imvertor-Maven\src\main\resources\input\KING\props\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\KING\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A3C9C-463F-44F1-BAA1-A75676DB08E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="KING" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="421">
   <si>
     <t>Name</t>
   </si>
@@ -1311,11 +1310,17 @@
   <si>
     <t>Name of the visuals file</t>
   </si>
+  <si>
+    <t>nativescalars</t>
+  </si>
+  <si>
+    <t>Yes if scalar types may be entered without reference to a UML datatype</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1509,7 +1514,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1710,6 +1715,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1718,13 +1726,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Controlecel" xfId="1" builtinId="23"/>
-    <cellStyle name="Goed" xfId="4" builtinId="26"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Neutral 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Verklarende tekst" xfId="3" builtinId="53"/>
+    <cellStyle name="Neutral 2" xfId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2001,46 +2009,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W153"/>
+  <dimension ref="A1:W154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E64" sqref="E64"/>
       <selection pane="topRight" activeCell="E64" sqref="E64"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="A76" sqref="A76:F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" customWidth="1"/>
-    <col min="2" max="2" width="20.1328125" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.84375" customWidth="1"/>
+    <col min="2" max="2" width="20.15234375" customWidth="1"/>
+    <col min="3" max="3" width="50.69140625" customWidth="1"/>
+    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="2.3984375" style="18" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.06640625" customWidth="1"/>
-    <col min="15" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="2.3984375" style="18" customWidth="1"/>
-    <col min="18" max="18" width="19.9296875" customWidth="1"/>
-    <col min="19" max="19" width="19.59765625" customWidth="1"/>
+    <col min="7" max="7" width="2.69140625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.61328125" customWidth="1"/>
+    <col min="9" max="9" width="14.69140625" customWidth="1"/>
+    <col min="10" max="10" width="14.3046875" customWidth="1"/>
+    <col min="11" max="11" width="15.69140625" customWidth="1"/>
+    <col min="12" max="12" width="2.3828125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="18.69140625" customWidth="1"/>
+    <col min="14" max="14" width="16.07421875" customWidth="1"/>
+    <col min="15" max="16" width="15.69140625" customWidth="1"/>
+    <col min="17" max="17" width="2.3828125" style="18" customWidth="1"/>
+    <col min="18" max="18" width="19.921875" customWidth="1"/>
+    <col min="19" max="19" width="19.61328125" customWidth="1"/>
     <col min="20" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="63.59765625" customWidth="1"/>
-    <col min="23" max="23" width="30.06640625" customWidth="1"/>
+    <col min="22" max="22" width="63.61328125" customWidth="1"/>
+    <col min="23" max="23" width="30.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="36.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2110,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F2" s="57"/>
       <c r="G2" s="14"/>
       <c r="H2" s="2" t="s">
@@ -2144,7 +2152,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="28.9" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -2173,7 +2181,7 @@
       <c r="T3" s="31"/>
       <c r="U3" s="31"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2204,7 +2212,7 @@
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2235,7 +2243,7 @@
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -2256,17 +2264,17 @@
       <c r="L6" s="15"/>
       <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="75" t="s">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="75" t="b">
+      <c r="D7" s="76" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
@@ -2284,18 +2292,18 @@
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="74" t="s">
+      <c r="V7" s="75" t="s">
         <v>351</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
       <c r="F8" s="51"/>
       <c r="G8" s="15"/>
       <c r="L8" s="15"/>
@@ -2308,9 +2316,9 @@
       <c r="S8" s="31"/>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
-      <c r="V8" s="74"/>
-    </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V8" s="75"/>
+    </row>
+    <row r="9" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>159</v>
       </c>
@@ -2339,7 +2347,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2370,7 +2378,7 @@
       <c r="T10" s="31"/>
       <c r="U10" s="31"/>
     </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>161</v>
       </c>
@@ -2391,7 +2399,7 @@
       <c r="L11" s="15"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>134</v>
       </c>
@@ -2420,7 +2428,7 @@
       <c r="T12" s="31"/>
       <c r="U12" s="31"/>
     </row>
-    <row r="13" spans="1:23" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" s="8" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
@@ -2455,7 +2463,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2486,7 +2494,7 @@
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2523,7 +2531,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2558,7 +2566,7 @@
       </c>
       <c r="W16" s="59"/>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" s="1" customFormat="1" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>215</v>
       </c>
@@ -2589,7 +2597,7 @@
       <c r="T17" s="31"/>
       <c r="U17" s="31"/>
     </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>217</v>
       </c>
@@ -2654,7 +2662,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>163</v>
       </c>
@@ -2685,7 +2693,7 @@
       <c r="T19" s="31"/>
       <c r="U19" s="31"/>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
@@ -2722,7 +2730,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>139</v>
       </c>
@@ -2760,7 +2768,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
@@ -2797,7 +2805,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A23" s="32" t="s">
         <v>25</v>
       </c>
@@ -2829,7 +2837,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>165</v>
       </c>
@@ -2858,7 +2866,7 @@
       <c r="T24" s="31"/>
       <c r="U24" s="31"/>
     </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2895,7 +2903,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,7 +2944,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="70" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" s="70" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A27" s="70" t="s">
         <v>416</v>
       </c>
@@ -2971,7 +2979,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3005,7 +3013,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>144</v>
       </c>
@@ -3039,7 +3047,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="37" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" s="37" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>288</v>
       </c>
@@ -3064,7 +3072,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="23" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" s="23" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>250</v>
       </c>
@@ -3099,7 +3107,7 @@
       </c>
       <c r="W31" s="50"/>
     </row>
-    <row r="32" spans="1:23" s="25" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" s="25" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>255</v>
       </c>
@@ -3138,7 +3146,7 @@
       </c>
       <c r="W32" s="50"/>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -3178,7 +3186,7 @@
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>167</v>
       </c>
@@ -3209,7 +3217,7 @@
       <c r="T34" s="31"/>
       <c r="U34" s="31"/>
     </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
@@ -3241,7 +3249,7 @@
       <c r="U35" s="31"/>
       <c r="V35" s="43"/>
     </row>
-    <row r="36" spans="1:23" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:23" s="30" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A36" s="30" t="s">
         <v>260</v>
       </c>
@@ -3270,7 +3278,7 @@
       <c r="U36" s="31"/>
       <c r="V36" s="43"/>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -3300,7 +3308,7 @@
       <c r="T37" s="31"/>
       <c r="U37" s="31"/>
     </row>
-    <row r="38" spans="1:23" s="32" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" s="32" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>272</v>
       </c>
@@ -3326,7 +3334,7 @@
       </c>
       <c r="W38" s="50"/>
     </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -3358,7 +3366,7 @@
       <c r="T39" s="31"/>
       <c r="U39" s="31"/>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -3396,7 +3404,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -3428,7 +3436,7 @@
       <c r="T41" s="31"/>
       <c r="U41" s="31"/>
     </row>
-    <row r="42" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>254</v>
       </c>
@@ -3463,7 +3471,7 @@
       <c r="T42" s="59"/>
       <c r="U42" s="59"/>
     </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>173</v>
       </c>
@@ -3503,7 +3511,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A44" s="32" t="s">
         <v>45</v>
       </c>
@@ -3538,7 +3546,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:23" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="44" t="s">
         <v>47</v>
       </c>
@@ -3570,17 +3578,17 @@
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="75" t="s">
+    <row r="46" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="75" t="b">
+      <c r="D46" s="76" t="b">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="b">
@@ -3600,18 +3608,18 @@
       <c r="S46" s="45"/>
       <c r="T46" s="31"/>
       <c r="U46" s="31"/>
-      <c r="V46" s="74" t="s">
+      <c r="V46" s="75" t="s">
         <v>351</v>
       </c>
       <c r="W46" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
+    <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="76"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
       <c r="F47" s="51"/>
       <c r="G47" s="15"/>
       <c r="L47" s="15"/>
@@ -3624,9 +3632,9 @@
       <c r="S47" s="31"/>
       <c r="T47" s="31"/>
       <c r="U47" s="31"/>
-      <c r="V47" s="74"/>
-    </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="V47" s="75"/>
+    </row>
+    <row r="48" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -3655,7 +3663,7 @@
       <c r="T48" s="31"/>
       <c r="U48" s="31"/>
     </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -3686,7 +3694,7 @@
       <c r="T49" s="31"/>
       <c r="U49" s="31"/>
     </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:23" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -3723,7 +3731,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="1" customFormat="1" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:23" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>213</v>
       </c>
@@ -3786,7 +3794,7 @@
       </c>
       <c r="W51"/>
     </row>
-    <row r="52" spans="1:23" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:23" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="32" t="s">
         <v>178</v>
       </c>
@@ -3812,7 +3820,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="4" customFormat="1" ht="86.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:23" s="4" customFormat="1" ht="86.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="32" t="s">
         <v>180</v>
       </c>
@@ -3848,7 +3856,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
@@ -3878,7 +3886,7 @@
       <c r="U54" s="31"/>
       <c r="V54" s="43"/>
     </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
@@ -3913,7 +3921,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:23" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
         <v>61</v>
       </c>
@@ -3943,7 +3951,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>183</v>
       </c>
@@ -3975,7 +3983,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:23" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A58" s="65" t="s">
         <v>278</v>
       </c>
@@ -4009,7 +4017,7 @@
       </c>
       <c r="W58" s="50"/>
     </row>
-    <row r="59" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>280</v>
       </c>
@@ -4034,7 +4042,7 @@
       </c>
       <c r="W59" s="50"/>
     </row>
-    <row r="60" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
         <v>185</v>
       </c>
@@ -4057,7 +4065,7 @@
       <c r="V60" s="43"/>
       <c r="W60" s="50"/>
     </row>
-    <row r="61" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
         <v>283</v>
       </c>
@@ -4090,7 +4098,7 @@
       </c>
       <c r="W61" s="50"/>
     </row>
-    <row r="62" spans="1:23" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:23" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>233</v>
       </c>
@@ -4129,7 +4137,7 @@
       </c>
       <c r="W62" s="50"/>
     </row>
-    <row r="63" spans="1:23" s="4" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
@@ -4155,7 +4163,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
@@ -4188,7 +4196,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="37" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:23" s="37" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
         <v>295</v>
       </c>
@@ -4216,7 +4224,7 @@
       </c>
       <c r="W65" s="61"/>
     </row>
-    <row r="66" spans="1:23" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -4242,7 +4250,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:23" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
         <v>297</v>
       </c>
@@ -4263,7 +4271,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A68" s="65" t="s">
         <v>252</v>
       </c>
@@ -4287,7 +4295,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -4318,7 +4326,7 @@
       <c r="T69" s="31"/>
       <c r="U69" s="31"/>
     </row>
-    <row r="70" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -4350,7 +4358,7 @@
       <c r="T70" s="31"/>
       <c r="U70" s="31"/>
     </row>
-    <row r="71" spans="1:23" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:23" s="19" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A71" s="19" t="s">
         <v>244</v>
       </c>
@@ -4386,7 +4394,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>189</v>
       </c>
@@ -4420,7 +4428,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,7 +4487,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A74" s="35" t="s">
         <v>192</v>
       </c>
@@ -4508,7 +4516,7 @@
       <c r="T74" s="59"/>
       <c r="U74" s="59"/>
     </row>
-    <row r="75" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="32" t="s">
         <v>74</v>
       </c>
@@ -4541,282 +4549,288 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A76" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="D76" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="73"/>
+      <c r="H76" s="32"/>
+      <c r="L76" s="73"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="32"/>
+      <c r="Q76" s="73"/>
+      <c r="S76" s="32"/>
+      <c r="V76" s="42"/>
+      <c r="W76" s="73"/>
+    </row>
+    <row r="77" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D76" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="31"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="31"/>
-      <c r="U76" s="31"/>
-    </row>
-    <row r="77" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="D77" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F77" s="51" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G77" s="15"/>
-      <c r="H77" s="32"/>
       <c r="L77" s="15"/>
-      <c r="M77" s="32"/>
-      <c r="N77" s="32"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
       <c r="O77" s="12"/>
       <c r="P77" s="12"/>
       <c r="Q77" s="22"/>
       <c r="R77" s="31"/>
-      <c r="S77" s="32"/>
+      <c r="S77" s="38"/>
       <c r="T77" s="31"/>
       <c r="U77" s="31"/>
     </row>
-    <row r="78" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="15"/>
+      <c r="H78" s="32"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="32"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="31"/>
+      <c r="S78" s="32"/>
+      <c r="T78" s="31"/>
+      <c r="U78" s="31"/>
+    </row>
+    <row r="79" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" s="51" t="s">
+      <c r="D79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="G78" s="15"/>
-      <c r="H78" s="45" t="s">
+      <c r="G79" s="15"/>
+      <c r="H79" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="I78" s="45" t="s">
+      <c r="I79" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="J78" s="45" t="s">
+      <c r="J79" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="K78" s="45" t="s">
+      <c r="K79" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="L78" s="22"/>
-      <c r="M78" s="45" t="s">
+      <c r="L79" s="22"/>
+      <c r="M79" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="N78" s="45" t="s">
+      <c r="N79" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="O78" s="45" t="s">
+      <c r="O79" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="P78" s="45" t="s">
+      <c r="P79" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="59" t="s">
+      <c r="Q79" s="22"/>
+      <c r="R79" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="S78" s="59" t="s">
+      <c r="S79" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="T78" s="59" t="s">
+      <c r="T79" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="U78" s="59" t="s">
+      <c r="U79" s="59" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" s="51" t="s">
+      <c r="D80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="G79" s="15"/>
-      <c r="H79" s="45"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="45"/>
-      <c r="N79" s="45"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="31"/>
-      <c r="S79" s="45"/>
-      <c r="T79" s="31"/>
-      <c r="U79" s="31"/>
-    </row>
-    <row r="80" spans="1:23" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A80" s="4" t="s">
+      <c r="G80" s="15"/>
+      <c r="H80" s="45"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="31"/>
+      <c r="S80" s="45"/>
+      <c r="T80" s="31"/>
+      <c r="U80" s="31"/>
+    </row>
+    <row r="81" spans="1:23" s="4" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A81" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="52" t="s">
+      <c r="D81" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="G80" s="15"/>
-      <c r="H80" s="32"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="32"/>
-      <c r="Q80" s="22"/>
-      <c r="S80" s="32"/>
-      <c r="V80" s="42" t="s">
+      <c r="G81" s="15"/>
+      <c r="H81" s="32"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="32"/>
+      <c r="Q81" s="22"/>
+      <c r="S81" s="32"/>
+      <c r="V81" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="W80" s="4" t="s">
+      <c r="W81" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A81" s="4" t="s">
+    <row r="82" spans="1:23" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A82" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D81" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" s="52"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="32"/>
-      <c r="L81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="V81" s="43" t="s">
+      <c r="D82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="52"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="32"/>
+      <c r="L82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="V82" s="43" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F82" s="51" t="s">
+      <c r="D83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="31"/>
-      <c r="S82" s="31"/>
-      <c r="T82" s="31"/>
-      <c r="U82" s="31"/>
-      <c r="V82" s="43" t="s">
+      <c r="G83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="31"/>
+      <c r="T83" s="31"/>
+      <c r="U83" s="31"/>
+      <c r="V83" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="W82" s="4"/>
-    </row>
-    <row r="83" spans="1:23" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A83" s="4" t="s">
+      <c r="W83" s="4"/>
+    </row>
+    <row r="84" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A84" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="D83" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="V83" s="43" t="s">
-        <v>336</v>
-      </c>
-      <c r="W83" s="4"/>
-    </row>
-    <row r="84" spans="1:23" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A84" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="D84" s="4" t="b">
         <v>0</v>
@@ -4831,15 +4845,15 @@
       </c>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="1:23" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D85" s="4" t="b">
         <v>0</v>
@@ -4854,12 +4868,12 @@
       </c>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A86" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>311</v>
@@ -4877,300 +4891,289 @@
       </c>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
       <c r="D87" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E87" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F87" s="52" t="s">
-        <v>206</v>
-      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="52"/>
       <c r="G87" s="22"/>
       <c r="L87" s="22"/>
       <c r="Q87" s="22"/>
       <c r="V87" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="W87" s="4"/>
+    </row>
+    <row r="88" spans="1:23" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A88" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D88" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="G88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="Q88" s="22"/>
+      <c r="V88" s="43" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="88" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F88" s="51" t="s">
+      <c r="D89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="G88" s="15"/>
-      <c r="H88" s="1" t="s">
+      <c r="G89" s="15"/>
+      <c r="H89" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="I88" s="59" t="s">
+      <c r="I89" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="J88" s="59" t="s">
+      <c r="J89" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="K88" s="59" t="s">
+      <c r="K89" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="L88" s="22"/>
-      <c r="M88" s="38" t="s">
+      <c r="L89" s="22"/>
+      <c r="M89" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="N88" s="59" t="s">
+      <c r="N89" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="O88" s="59" t="s">
+      <c r="O89" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="P88" s="59" t="s">
+      <c r="P89" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="59" t="s">
+      <c r="Q89" s="22"/>
+      <c r="R89" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="S88" s="31" t="s">
+      <c r="S89" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="T88" s="59" t="s">
+      <c r="T89" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="U88" s="59" t="s">
+      <c r="U89" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="V88" s="43" t="s">
+      <c r="V89" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="W88" s="1" t="s">
+      <c r="W89" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" s="51" t="s">
+      <c r="D90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" s="51" t="s">
         <v>88</v>
-      </c>
-      <c r="G89" s="15"/>
-      <c r="H89" s="37"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="31"/>
-      <c r="S89" s="38"/>
-      <c r="T89" s="31"/>
-      <c r="U89" s="31"/>
-      <c r="V89" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="W89" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A90" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D90" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F90" s="52" t="s">
-        <v>92</v>
       </c>
       <c r="G90" s="15"/>
       <c r="H90" s="37"/>
       <c r="L90" s="22"/>
       <c r="M90" s="38"/>
       <c r="N90" s="38"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
       <c r="Q90" s="22"/>
+      <c r="R90" s="31"/>
       <c r="S90" s="38"/>
-      <c r="V90" s="42" t="s">
+      <c r="T90" s="31"/>
+      <c r="U90" s="31"/>
+      <c r="V90" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="W90" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A91" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G91" s="15"/>
+      <c r="H91" s="37"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="38"/>
+      <c r="Q91" s="22"/>
+      <c r="S91" s="38"/>
+      <c r="V91" s="42" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="4" t="s">
+    <row r="92" spans="1:23" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D91" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91" s="52" t="s">
+      <c r="D92" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="15"/>
-      <c r="L91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="V91" s="43" t="s">
+      <c r="G92" s="15"/>
+      <c r="L92" s="22"/>
+      <c r="Q92" s="22"/>
+      <c r="V92" s="43" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E92" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92" s="51" t="s">
+      <c r="D93" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="G92" s="15"/>
-      <c r="H92" s="45"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="45"/>
-      <c r="N92" s="45"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="31"/>
-      <c r="S92" s="45"/>
-      <c r="T92" s="31"/>
-      <c r="U92" s="31"/>
-    </row>
-    <row r="93" spans="1:23" s="38" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A93" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="B93" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="D93" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F93" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G93" s="22"/>
+      <c r="G93" s="15"/>
       <c r="H93" s="45"/>
       <c r="L93" s="22"/>
       <c r="M93" s="45"/>
       <c r="N93" s="45"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
       <c r="Q93" s="22"/>
-      <c r="V93" s="47" t="s">
-        <v>400</v>
-      </c>
-      <c r="W93" s="38" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="R93" s="31"/>
+      <c r="S93" s="45"/>
+      <c r="T93" s="31"/>
+      <c r="U93" s="31"/>
+    </row>
+    <row r="94" spans="1:23" s="38" customFormat="1" ht="102" x14ac:dyDescent="0.4">
       <c r="A94" s="60" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="B94" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C94" s="60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D94" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" s="60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="15"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="45"/>
       <c r="L94" s="22"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
+      <c r="M94" s="45"/>
+      <c r="N94" s="45"/>
       <c r="Q94" s="22"/>
-      <c r="R94" s="31"/>
-      <c r="S94" s="31"/>
-      <c r="T94" s="31"/>
-      <c r="U94" s="31"/>
-      <c r="W94" s="22" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="V94" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="W94" s="38" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A95" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B95" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D95" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E95" s="1" t="b">
+      <c r="C95" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="D95" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" s="60" t="b">
         <v>1</v>
       </c>
       <c r="F95" s="51" t="s">
@@ -5187,89 +5190,89 @@
       <c r="S95" s="31"/>
       <c r="T95" s="31"/>
       <c r="U95" s="31"/>
-      <c r="V95" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="W95" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A96" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D96" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E96" s="26" t="b">
-        <v>0</v>
+      <c r="W95" s="22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="F96" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="G96" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="G96" s="15"/>
       <c r="L96" s="22"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
       <c r="Q96" s="22"/>
       <c r="R96" s="31"/>
       <c r="S96" s="31"/>
       <c r="T96" s="31"/>
       <c r="U96" s="31"/>
       <c r="V96" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="W96" s="26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A97" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D97" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E97" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F97" s="52" t="s">
-        <v>405</v>
-      </c>
-      <c r="G97" s="15"/>
+        <v>331</v>
+      </c>
+      <c r="W96" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" s="26" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A97" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="G97" s="22"/>
       <c r="L97" s="22"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
       <c r="Q97" s="22"/>
       <c r="R97" s="31"/>
       <c r="S97" s="31"/>
       <c r="T97" s="31"/>
       <c r="U97" s="31"/>
       <c r="V97" s="43" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>401</v>
+      </c>
+      <c r="W97" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A98" s="4" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="D98" s="4" t="b">
         <v>0</v>
@@ -5277,7 +5280,9 @@
       <c r="E98" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F98" s="67"/>
+      <c r="F98" s="52" t="s">
+        <v>405</v>
+      </c>
       <c r="G98" s="15"/>
       <c r="L98" s="22"/>
       <c r="M98" s="12"/>
@@ -5293,217 +5298,218 @@
         <v>331</v>
       </c>
     </row>
-    <row r="99" spans="1:23" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:23" s="9" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A99" s="4" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>317</v>
+        <v>242</v>
       </c>
       <c r="D99" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F99" s="52" t="s">
-        <v>212</v>
-      </c>
+      <c r="F99" s="67"/>
       <c r="G99" s="15"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="29"/>
-      <c r="N99" s="29"/>
-      <c r="O99" s="29"/>
-      <c r="P99" s="29"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
       <c r="Q99" s="22"/>
       <c r="R99" s="31"/>
       <c r="S99" s="31"/>
       <c r="T99" s="31"/>
       <c r="U99" s="31"/>
-      <c r="V99" s="47" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D100" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E100" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F100" s="51" t="s">
-        <v>16</v>
+      <c r="V99" s="43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A100" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D100" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="52" t="s">
+        <v>212</v>
       </c>
       <c r="G100" s="15"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
       <c r="L100" s="15"/>
-      <c r="M100" s="38"/>
-      <c r="N100" s="38"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
       <c r="Q100" s="22"/>
       <c r="R100" s="31"/>
-      <c r="S100" s="38"/>
+      <c r="S100" s="31"/>
       <c r="T100" s="31"/>
       <c r="U100" s="31"/>
-    </row>
-    <row r="101" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="5" t="s">
+      <c r="V100" s="47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="38"/>
+      <c r="N101" s="38"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="22"/>
+      <c r="R101" s="31"/>
+      <c r="S101" s="38"/>
+      <c r="T101" s="31"/>
+      <c r="U101" s="31"/>
+    </row>
+    <row r="102" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D101" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E101" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F101" s="63" t="s">
+      <c r="D102" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="G101" s="22"/>
-      <c r="H101" s="37"/>
-      <c r="L101" s="22"/>
-      <c r="Q101" s="22"/>
-    </row>
-    <row r="102" spans="1:23" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
+      <c r="G102" s="22"/>
+      <c r="H102" s="37"/>
+      <c r="L102" s="22"/>
+      <c r="Q102" s="22"/>
+    </row>
+    <row r="103" spans="1:23" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D102" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E102" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" s="54" t="s">
+      <c r="D103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" s="54" t="s">
         <v>406</v>
       </c>
-      <c r="G102" s="15"/>
-      <c r="H102" s="37"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="45"/>
-      <c r="N102" s="45"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="22"/>
-      <c r="R102" s="31"/>
-      <c r="S102" s="45"/>
-      <c r="T102" s="31"/>
-      <c r="U102" s="31"/>
-      <c r="V102" s="43" t="s">
-        <v>402</v>
-      </c>
-      <c r="W102" s="22" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" s="38" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A103" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="B103" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="D103" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F103" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" s="22"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59"/>
-      <c r="J103" s="59"/>
-      <c r="K103" s="59"/>
-      <c r="L103" s="22"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="37"/>
+      <c r="L103" s="15"/>
       <c r="M103" s="45"/>
       <c r="N103" s="45"/>
-      <c r="O103" s="59"/>
-      <c r="P103" s="59"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
       <c r="Q103" s="22"/>
-      <c r="R103" s="59"/>
+      <c r="R103" s="31"/>
       <c r="S103" s="45"/>
-      <c r="T103" s="59"/>
-      <c r="U103" s="59"/>
-      <c r="V103" s="47" t="s">
+      <c r="T103" s="31"/>
+      <c r="U103" s="31"/>
+      <c r="V103" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="W103" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" s="38" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A104" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="B104" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D104" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="22"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="45"/>
+      <c r="N104" s="45"/>
+      <c r="O104" s="59"/>
+      <c r="P104" s="59"/>
+      <c r="Q104" s="22"/>
+      <c r="R104" s="59"/>
+      <c r="S104" s="45"/>
+      <c r="T104" s="59"/>
+      <c r="U104" s="59"/>
+      <c r="V104" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="W103" s="22" t="s">
+      <c r="W104" s="22" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="104" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D104" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F104" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G104" s="15"/>
-      <c r="L104" s="15"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="38"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="22"/>
-      <c r="R104" s="31"/>
-      <c r="S104" s="38"/>
-      <c r="T104" s="31"/>
-      <c r="U104" s="31"/>
-    </row>
-    <row r="105" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="D105" s="1" t="b">
         <v>0</v>
@@ -5512,152 +5518,150 @@
         <v>1</v>
       </c>
       <c r="F105" s="51" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G105" s="15"/>
       <c r="L105" s="15"/>
       <c r="M105" s="12"/>
-      <c r="N105" s="12"/>
+      <c r="N105" s="38"/>
       <c r="O105" s="12"/>
       <c r="P105" s="12"/>
       <c r="Q105" s="22"/>
       <c r="R105" s="31"/>
-      <c r="S105" s="31"/>
+      <c r="S105" s="38"/>
       <c r="T105" s="31"/>
       <c r="U105" s="31"/>
     </row>
-    <row r="106" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="D106" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" s="51" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="G106" s="15"/>
       <c r="L106" s="15"/>
-      <c r="M106" s="38"/>
-      <c r="N106" s="38"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
       <c r="O106" s="12"/>
       <c r="P106" s="12"/>
       <c r="Q106" s="22"/>
       <c r="R106" s="31"/>
-      <c r="S106" s="38"/>
+      <c r="S106" s="31"/>
       <c r="T106" s="31"/>
       <c r="U106" s="31"/>
     </row>
-    <row r="107" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="38"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="22"/>
+      <c r="R107" s="31"/>
+      <c r="S107" s="38"/>
+      <c r="T107" s="31"/>
+      <c r="U107" s="31"/>
+    </row>
+    <row r="108" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D107" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F107" s="51" t="s">
+      <c r="D108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="G107" s="15"/>
-      <c r="H107" s="45" t="s">
+      <c r="G108" s="15"/>
+      <c r="H108" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="I107" s="45" t="s">
+      <c r="I108" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="J107" s="45" t="s">
+      <c r="J108" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="K107" s="45" t="s">
+      <c r="K108" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="L107" s="22"/>
-      <c r="M107" s="38" t="s">
+      <c r="L108" s="22"/>
+      <c r="M108" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="N107" s="59" t="s">
+      <c r="N108" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="O107" s="59" t="s">
+      <c r="O108" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="P107" s="59" t="s">
+      <c r="P108" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="59" t="s">
+      <c r="Q108" s="22"/>
+      <c r="R108" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="S107" s="38" t="s">
+      <c r="S108" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="T107" s="59" t="s">
+      <c r="T108" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="U107" s="59" t="s">
+      <c r="U108" s="59" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="108" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A108" s="4" t="s">
+    <row r="109" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A109" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D108" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E108" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F108" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="G108" s="15"/>
-      <c r="H108" s="45"/>
-      <c r="L108" s="15"/>
-      <c r="M108" s="45"/>
-      <c r="N108" s="45"/>
-      <c r="Q108" s="22"/>
-      <c r="S108" s="45"/>
-      <c r="V108" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="W108" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A109" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D109" s="4" t="b">
         <v>1</v>
@@ -5671,119 +5675,99 @@
       <c r="G109" s="15"/>
       <c r="H109" s="45"/>
       <c r="L109" s="15"/>
+      <c r="M109" s="45"/>
+      <c r="N109" s="45"/>
       <c r="Q109" s="22"/>
+      <c r="S109" s="45"/>
       <c r="V109" s="42" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="W109" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="110" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>116</v>
-      </c>
-      <c r="B110" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" t="s">
-        <v>117</v>
-      </c>
-      <c r="D110" t="b">
-        <v>1</v>
-      </c>
-      <c r="E110" t="b">
-        <v>1</v>
-      </c>
-      <c r="F110" s="53" t="s">
-        <v>16</v>
+    <row r="110" spans="1:23" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A110" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" s="52" t="s">
+        <v>212</v>
       </c>
       <c r="G110" s="15"/>
       <c r="H110" s="45"/>
       <c r="L110" s="15"/>
-      <c r="M110" s="45"/>
-      <c r="N110" s="45"/>
       <c r="Q110" s="22"/>
       <c r="V110" s="42" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="W110" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B111" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D111" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" s="62" t="s">
+      <c r="C111" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="15"/>
       <c r="H111" s="45"/>
-      <c r="I111" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="J111" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="K111" s="59" t="s">
-        <v>4</v>
-      </c>
       <c r="L111" s="15"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O111" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="P111" s="59" t="s">
-        <v>4</v>
-      </c>
+      <c r="M111" s="45"/>
+      <c r="N111" s="45"/>
       <c r="Q111" s="22"/>
-      <c r="R111" s="31"/>
-      <c r="S111" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="T111" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="U111" s="59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A112" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="B112" s="60" t="s">
+      <c r="V111" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="W111" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C112" s="60" t="s">
-        <v>320</v>
-      </c>
-      <c r="D112" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E112" s="60" t="b">
+      <c r="C112" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F112" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G112" s="46"/>
+      <c r="G112" s="15"/>
       <c r="H112" s="45"/>
       <c r="I112" s="59" t="s">
         <v>4</v>
@@ -5817,18 +5801,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A113" s="60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B113" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C113" s="60" t="s">
-        <v>122</v>
+        <v>320</v>
       </c>
       <c r="D113" s="60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" s="60" t="b">
         <v>1</v>
@@ -5838,20 +5822,29 @@
       </c>
       <c r="G113" s="46"/>
       <c r="H113" s="45"/>
+      <c r="I113" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="J113" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="K113" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="L113" s="15"/>
       <c r="M113" s="12"/>
       <c r="N113" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O113" s="12" t="s">
+      <c r="O113" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="P113" s="12" t="s">
+      <c r="P113" s="59" t="s">
         <v>4</v>
       </c>
       <c r="Q113" s="22"/>
       <c r="R113" s="31"/>
-      <c r="S113" s="38" t="s">
+      <c r="S113" s="59" t="s">
         <v>4</v>
       </c>
       <c r="T113" s="59" t="s">
@@ -5861,53 +5854,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A114" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B114" s="4" t="s">
+    <row r="114" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D114" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E114" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F114" s="52"/>
+      <c r="C114" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D114" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="G114" s="46"/>
       <c r="H114" s="45"/>
-      <c r="I114"/>
-      <c r="J114"/>
-      <c r="K114"/>
       <c r="L114" s="15"/>
       <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
+      <c r="N114" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O114" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P114" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="Q114" s="22"/>
       <c r="R114" s="31"/>
-      <c r="S114" s="38"/>
-      <c r="T114" s="31"/>
-      <c r="U114" s="31"/>
-    </row>
-    <row r="115" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B115" s="5" t="s">
+      <c r="S114" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T114" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="U114" s="59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A115" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D115" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E115" s="5" t="b">
+      <c r="C115" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D115" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F115" s="52"/>
@@ -5916,131 +5920,111 @@
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115"/>
-      <c r="L115" s="22"/>
-      <c r="M115"/>
-      <c r="N115"/>
-      <c r="O115"/>
-      <c r="P115"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
       <c r="Q115" s="22"/>
-      <c r="R115"/>
-      <c r="S115"/>
-      <c r="T115"/>
-      <c r="U115"/>
-    </row>
-    <row r="116" spans="1:23" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A116" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B116" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C116" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D116" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E116" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F116" s="53" t="s">
-        <v>19</v>
-      </c>
+      <c r="R115" s="31"/>
+      <c r="S115" s="38"/>
+      <c r="T115" s="31"/>
+      <c r="U115" s="31"/>
+    </row>
+    <row r="116" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D116" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" s="52"/>
       <c r="G116" s="46"/>
       <c r="H116" s="45"/>
-      <c r="I116" s="59" t="s">
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116" s="22"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116" s="22"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+    </row>
+    <row r="117" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A117" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" s="46"/>
+      <c r="H117" s="45"/>
+      <c r="I117" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="J116" s="59" t="s">
+      <c r="J117" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="K116" s="59" t="s">
+      <c r="K117" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="L116" s="15"/>
-      <c r="M116" s="38"/>
-      <c r="N116" s="38" t="s">
+      <c r="L117" s="15"/>
+      <c r="M117" s="38"/>
+      <c r="N117" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="O116" s="59" t="s">
+      <c r="O117" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="P116" s="59" t="s">
+      <c r="P117" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="Q116" s="22"/>
-      <c r="S116" s="38" t="s">
+      <c r="Q117" s="22"/>
+      <c r="S117" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="T116" s="59" t="s">
+      <c r="T117" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="U116" s="59" t="s">
+      <c r="U117" s="59" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="117" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="60" t="s">
+    <row r="118" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="60" t="s">
         <v>126</v>
-      </c>
-      <c r="B117" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="D117" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E117" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F117" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" s="15"/>
-      <c r="H117" s="45"/>
-      <c r="I117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L117" s="15"/>
-      <c r="M117" s="45"/>
-      <c r="N117" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="O117" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="P117" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q117" s="22"/>
-      <c r="R117" s="45"/>
-      <c r="S117" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="T117" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="U117" s="59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="60" t="s">
-        <v>232</v>
       </c>
       <c r="B118" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D118" s="60" t="b">
         <v>1</v>
@@ -6048,18 +6032,18 @@
       <c r="E118" s="60" t="b">
         <v>1</v>
       </c>
-      <c r="F118" s="62" t="s">
+      <c r="F118" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G118" s="46"/>
+      <c r="G118" s="15"/>
       <c r="H118" s="45"/>
-      <c r="I118" s="59" t="s">
+      <c r="I118" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J118" s="59" t="s">
+      <c r="J118" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K118" s="59" t="s">
+      <c r="K118" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L118" s="15"/>
@@ -6085,188 +6069,229 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A119" s="60" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="B119" s="60" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C119" s="60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D119" s="60" t="b">
         <v>1</v>
       </c>
       <c r="E119" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F119" s="51" t="s">
-        <v>300</v>
+        <v>1</v>
+      </c>
+      <c r="F119" s="62" t="s">
+        <v>16</v>
       </c>
       <c r="G119" s="46"/>
       <c r="H119" s="45"/>
+      <c r="I119" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="J119" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="K119" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="L119" s="15"/>
       <c r="M119" s="45"/>
-      <c r="N119" s="45"/>
-      <c r="O119" s="12"/>
-      <c r="P119" s="12"/>
+      <c r="N119" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="O119" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="P119" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="Q119" s="22"/>
-      <c r="R119" s="31"/>
-      <c r="S119" s="45"/>
-      <c r="T119" s="31"/>
-      <c r="U119" s="31"/>
-    </row>
-    <row r="120" spans="1:23" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="72" t="s">
+      <c r="R119" s="45"/>
+      <c r="S119" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="T119" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="U119" s="59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D120" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="G120" s="46"/>
+      <c r="H120" s="45"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="45"/>
+      <c r="N120" s="45"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="22"/>
+      <c r="R120" s="31"/>
+      <c r="S120" s="45"/>
+      <c r="T120" s="31"/>
+      <c r="U120" s="31"/>
+    </row>
+    <row r="121" spans="1:23" s="71" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="72" t="s">
         <v>417</v>
       </c>
-      <c r="B120" s="72" t="s">
+      <c r="B121" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="72" t="s">
+      <c r="C121" s="72" t="s">
         <v>418</v>
       </c>
-      <c r="D120" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="E120" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="F120" s="72"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="45" t="s">
+      <c r="D121" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" s="72"/>
+      <c r="G121" s="73"/>
+      <c r="H121" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="I120" s="45" t="s">
+      <c r="I121" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="J120" s="45" t="s">
+      <c r="J121" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="K120" s="45" t="s">
+      <c r="K121" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="L120" s="73"/>
-      <c r="M120" s="72" t="s">
+      <c r="L121" s="73"/>
+      <c r="M121" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="N120" s="72" t="s">
+      <c r="N121" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="O120" s="72" t="s">
+      <c r="O121" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="P120" s="72" t="s">
+      <c r="P121" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="Q120" s="73"/>
-      <c r="R120" s="72" t="s">
+      <c r="Q121" s="73"/>
+      <c r="R121" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="S120" s="72" t="s">
+      <c r="S121" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="T120" s="72" t="s">
+      <c r="T121" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="U120" s="72" t="s">
+      <c r="U121" s="72" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="121" spans="1:23" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A121" s="60" t="s">
+    <row r="122" spans="1:23" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A122" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="B121" s="60" t="s">
+      <c r="B122" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C121" s="60" t="s">
+      <c r="C122" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="D121" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E121" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F121" s="51" t="s">
+      <c r="D122" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" s="51" t="s">
         <v>249</v>
-      </c>
-      <c r="G121" s="46"/>
-      <c r="H121" s="45"/>
-      <c r="I121" s="21"/>
-      <c r="J121" s="21"/>
-      <c r="K121" s="21"/>
-      <c r="L121" s="22"/>
-      <c r="M121" s="21"/>
-      <c r="N121" s="38"/>
-      <c r="Q121" s="22"/>
-      <c r="R121" s="31"/>
-      <c r="S121" s="31"/>
-      <c r="T121" s="31"/>
-      <c r="U121" s="31"/>
-      <c r="V121" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="W121" s="20" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A122" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="B122" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="C122" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D122" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E122" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F122" s="51" t="s">
-        <v>220</v>
       </c>
       <c r="G122" s="46"/>
       <c r="H122" s="45"/>
-      <c r="I122" s="59"/>
-      <c r="J122" s="59"/>
-      <c r="K122" s="59"/>
-      <c r="L122" s="15"/>
-      <c r="M122" s="45"/>
-      <c r="N122" s="59"/>
-      <c r="O122" s="59"/>
-      <c r="P122" s="59"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="38"/>
       <c r="Q122" s="22"/>
       <c r="R122" s="31"/>
       <c r="S122" s="31"/>
       <c r="T122" s="31"/>
       <c r="U122" s="31"/>
-      <c r="V122" s="47" t="s">
+      <c r="V122" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="W122" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A123" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D123" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="G123" s="46"/>
+      <c r="H123" s="45"/>
+      <c r="I123" s="59"/>
+      <c r="J123" s="59"/>
+      <c r="K123" s="59"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="45"/>
+      <c r="N123" s="59"/>
+      <c r="O123" s="59"/>
+      <c r="P123" s="59"/>
+      <c r="Q123" s="22"/>
+      <c r="R123" s="31"/>
+      <c r="S123" s="31"/>
+      <c r="T123" s="31"/>
+      <c r="U123" s="31"/>
+      <c r="V123" s="47" t="s">
         <v>365</v>
       </c>
-      <c r="W122" s="1" t="s">
+      <c r="W123" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A123" s="41"/>
-      <c r="B123" s="41"/>
-      <c r="C123" s="41"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="39"/>
-      <c r="M123" s="45"/>
-      <c r="Q123" s="22"/>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A124" s="41"/>
       <c r="B124" s="41"/>
       <c r="C124" s="41"/>
@@ -6275,9 +6300,10 @@
       <c r="F124" s="41"/>
       <c r="G124" s="48"/>
       <c r="H124" s="39"/>
+      <c r="M124" s="45"/>
       <c r="Q124" s="22"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -6288,7 +6314,7 @@
       <c r="H125" s="39"/>
       <c r="Q125" s="22"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A126" s="41"/>
       <c r="B126" s="41"/>
       <c r="C126" s="41"/>
@@ -6299,7 +6325,7 @@
       <c r="H126" s="39"/>
       <c r="Q126" s="22"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A127" s="41"/>
       <c r="B127" s="41"/>
       <c r="C127" s="41"/>
@@ -6310,7 +6336,7 @@
       <c r="H127" s="39"/>
       <c r="Q127" s="22"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A128" s="41"/>
       <c r="B128" s="41"/>
       <c r="C128" s="41"/>
@@ -6321,7 +6347,7 @@
       <c r="H128" s="39"/>
       <c r="Q128" s="22"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A129" s="41"/>
       <c r="B129" s="41"/>
       <c r="C129" s="41"/>
@@ -6332,7 +6358,7 @@
       <c r="H129" s="39"/>
       <c r="Q129" s="22"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A130" s="41"/>
       <c r="B130" s="41"/>
       <c r="C130" s="41"/>
@@ -6343,7 +6369,7 @@
       <c r="H130" s="39"/>
       <c r="Q130" s="22"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A131" s="41"/>
       <c r="B131" s="41"/>
       <c r="C131" s="41"/>
@@ -6354,17 +6380,18 @@
       <c r="H131" s="39"/>
       <c r="Q131" s="22"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A132" s="41"/>
       <c r="B132" s="41"/>
       <c r="C132" s="41"/>
       <c r="D132" s="41"/>
       <c r="E132" s="41"/>
-      <c r="F132" s="49"/>
+      <c r="F132" s="41"/>
       <c r="G132" s="48"/>
+      <c r="H132" s="39"/>
       <c r="Q132" s="22"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
@@ -6374,7 +6401,7 @@
       <c r="G133" s="48"/>
       <c r="Q133" s="22"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A134" s="41"/>
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
@@ -6384,7 +6411,7 @@
       <c r="G134" s="48"/>
       <c r="Q134" s="22"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A135" s="41"/>
       <c r="B135" s="41"/>
       <c r="C135" s="41"/>
@@ -6394,7 +6421,7 @@
       <c r="G135" s="48"/>
       <c r="Q135" s="22"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A136" s="41"/>
       <c r="B136" s="41"/>
       <c r="C136" s="41"/>
@@ -6404,7 +6431,7 @@
       <c r="G136" s="48"/>
       <c r="Q136" s="22"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A137" s="41"/>
       <c r="B137" s="41"/>
       <c r="C137" s="41"/>
@@ -6414,7 +6441,7 @@
       <c r="G137" s="48"/>
       <c r="Q137" s="22"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A138" s="41"/>
       <c r="B138" s="41"/>
       <c r="C138" s="41"/>
@@ -6424,7 +6451,7 @@
       <c r="G138" s="48"/>
       <c r="Q138" s="22"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A139" s="41"/>
       <c r="B139" s="41"/>
       <c r="C139" s="41"/>
@@ -6434,7 +6461,7 @@
       <c r="G139" s="48"/>
       <c r="Q139" s="22"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A140" s="41"/>
       <c r="B140" s="41"/>
       <c r="C140" s="41"/>
@@ -6444,7 +6471,7 @@
       <c r="G140" s="48"/>
       <c r="Q140" s="22"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A141" s="41"/>
       <c r="B141" s="41"/>
       <c r="C141" s="41"/>
@@ -6454,7 +6481,7 @@
       <c r="G141" s="48"/>
       <c r="Q141" s="22"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A142" s="41"/>
       <c r="B142" s="41"/>
       <c r="C142" s="41"/>
@@ -6464,7 +6491,7 @@
       <c r="G142" s="48"/>
       <c r="Q142" s="22"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A143" s="41"/>
       <c r="B143" s="41"/>
       <c r="C143" s="41"/>
@@ -6474,27 +6501,27 @@
       <c r="G143" s="48"/>
       <c r="Q143" s="22"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A144" s="41"/>
       <c r="B144" s="41"/>
       <c r="C144" s="41"/>
       <c r="D144" s="41"/>
       <c r="E144" s="41"/>
-      <c r="F144" s="41"/>
+      <c r="F144" s="49"/>
       <c r="G144" s="48"/>
       <c r="Q144" s="22"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A145" s="41"/>
       <c r="B145" s="41"/>
       <c r="C145" s="41"/>
       <c r="D145" s="41"/>
       <c r="E145" s="41"/>
-      <c r="F145" s="49"/>
+      <c r="F145" s="41"/>
       <c r="G145" s="48"/>
       <c r="Q145" s="22"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A146" s="41"/>
       <c r="B146" s="41"/>
       <c r="C146" s="41"/>
@@ -6504,7 +6531,7 @@
       <c r="G146" s="48"/>
       <c r="Q146" s="22"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A147" s="41"/>
       <c r="B147" s="41"/>
       <c r="C147" s="41"/>
@@ -6514,7 +6541,7 @@
       <c r="G147" s="48"/>
       <c r="Q147" s="22"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A148" s="41"/>
       <c r="B148" s="41"/>
       <c r="C148" s="41"/>
@@ -6524,7 +6551,7 @@
       <c r="G148" s="48"/>
       <c r="Q148" s="22"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A149" s="41"/>
       <c r="B149" s="41"/>
       <c r="C149" s="41"/>
@@ -6534,7 +6561,7 @@
       <c r="G149" s="48"/>
       <c r="Q149" s="22"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A150" s="41"/>
       <c r="B150" s="41"/>
       <c r="C150" s="41"/>
@@ -6544,17 +6571,17 @@
       <c r="G150" s="48"/>
       <c r="Q150" s="22"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A151" s="41"/>
       <c r="B151" s="41"/>
       <c r="C151" s="41"/>
       <c r="D151" s="41"/>
       <c r="E151" s="41"/>
-      <c r="F151" s="41"/>
+      <c r="F151" s="49"/>
       <c r="G151" s="48"/>
       <c r="Q151" s="22"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A152" s="41"/>
       <c r="B152" s="41"/>
       <c r="C152" s="41"/>
@@ -6564,7 +6591,7 @@
       <c r="G152" s="48"/>
       <c r="Q152" s="22"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A153" s="41"/>
       <c r="B153" s="41"/>
       <c r="C153" s="41"/>
@@ -6572,25 +6599,35 @@
       <c r="E153" s="41"/>
       <c r="F153" s="41"/>
       <c r="G153" s="48"/>
+      <c r="Q153" s="22"/>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A154" s="41"/>
+      <c r="B154" s="41"/>
+      <c r="C154" s="41"/>
+      <c r="D154" s="41"/>
+      <c r="E154" s="41"/>
+      <c r="F154" s="41"/>
+      <c r="G154" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H20" r:id="rId1" display="standaarden.ondersteuning@vng.nl" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F45" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H20" r:id="rId1" display="standaarden.ondersteuning@vng.nl"/>
+    <hyperlink ref="F20" r:id="rId2"/>
+    <hyperlink ref="F45" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId4"/>
@@ -6598,25 +6635,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="52.19921875" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" customWidth="1"/>
+    <col min="2" max="2" width="52.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>229</v>
       </c>
@@ -6624,7 +6661,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>230</v>
       </c>
@@ -6632,8 +6669,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>208</v>
       </c>
@@ -6641,7 +6678,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>209</v>
       </c>
@@ -6649,7 +6686,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>210</v>
       </c>
@@ -6657,7 +6694,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/input/KING/props/KING.xlsx
+++ b/src/main/resources/input/KING/props/KING.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\KING\props\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\KING\Kern-taken\Imvertor\Imvertor-Maven\src\main\resources\input\KING\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AD89AA-13E0-4169-A541-5349D454DB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KING" sheetId="3" r:id="rId1"/>
@@ -1320,7 +1321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1726,13 +1727,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Controlecel" xfId="1" builtinId="23"/>
+    <cellStyle name="Goed" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Neutral 2" xfId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutral 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Verklarende tekst" xfId="3" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2009,7 +2010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2020,35 +2021,35 @@
       <selection activeCell="E64" sqref="E64"/>
       <selection pane="topRight" activeCell="E64" sqref="E64"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
-      <selection pane="bottomRight" activeCell="A76" sqref="A76:F76"/>
+      <selection pane="bottomRight" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.84375" customWidth="1"/>
-    <col min="2" max="2" width="20.15234375" customWidth="1"/>
-    <col min="3" max="3" width="50.69140625" customWidth="1"/>
-    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="50.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="2.69140625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.61328125" customWidth="1"/>
-    <col min="9" max="9" width="14.69140625" customWidth="1"/>
-    <col min="10" max="10" width="14.3046875" customWidth="1"/>
-    <col min="11" max="11" width="15.69140625" customWidth="1"/>
-    <col min="12" max="12" width="2.3828125" style="18" customWidth="1"/>
-    <col min="13" max="13" width="18.69140625" customWidth="1"/>
-    <col min="14" max="14" width="16.07421875" customWidth="1"/>
-    <col min="15" max="16" width="15.69140625" customWidth="1"/>
-    <col min="17" max="17" width="2.3828125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="19.921875" customWidth="1"/>
-    <col min="19" max="19" width="19.61328125" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="2.36328125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="18.7265625" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" customWidth="1"/>
+    <col min="15" max="16" width="15.7265625" customWidth="1"/>
+    <col min="17" max="17" width="2.36328125" style="18" customWidth="1"/>
+    <col min="18" max="18" width="19.90625" customWidth="1"/>
+    <col min="19" max="19" width="19.6328125" customWidth="1"/>
     <col min="20" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="63.61328125" customWidth="1"/>
-    <col min="23" max="23" width="30.07421875" customWidth="1"/>
+    <col min="22" max="22" width="63.6328125" customWidth="1"/>
+    <col min="23" max="23" width="30.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="38" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F2" s="57"/>
       <c r="G2" s="14"/>
       <c r="H2" s="2" t="s">
@@ -2152,7 +2153,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="44" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -2181,7 +2182,7 @@
       <c r="T3" s="31"/>
       <c r="U3" s="31"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2212,7 +2213,7 @@
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2243,7 +2244,7 @@
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -2264,7 +2265,7 @@
       <c r="L6" s="15"/>
       <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="76" t="s">
         <v>9</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
@@ -2318,7 +2319,7 @@
       <c r="U8" s="31"/>
       <c r="V8" s="75"/>
     </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>159</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2378,7 +2379,7 @@
       <c r="T10" s="31"/>
       <c r="U10" s="31"/>
     </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>161</v>
       </c>
@@ -2399,7 +2400,7 @@
       <c r="L11" s="15"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>134</v>
       </c>
@@ -2428,7 +2429,7 @@
       <c r="T12" s="31"/>
       <c r="U12" s="31"/>
     </row>
-    <row r="13" spans="1:23" s="8" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2494,7 +2495,7 @@
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2566,7 +2567,7 @@
       </c>
       <c r="W16" s="59"/>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" s="1" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>215</v>
       </c>
@@ -2597,7 +2598,7 @@
       <c r="T17" s="31"/>
       <c r="U17" s="31"/>
     </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>217</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>163</v>
       </c>
@@ -2693,7 +2694,7 @@
       <c r="T19" s="31"/>
       <c r="U19" s="31"/>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>139</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>25</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>165</v>
       </c>
@@ -2866,7 +2867,7 @@
       <c r="T24" s="31"/>
       <c r="U24" s="31"/>
     </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="70" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="70" t="s">
         <v>416</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>144</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="37" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" s="37" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>288</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="23" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>250</v>
       </c>
@@ -3107,7 +3108,7 @@
       </c>
       <c r="W31" s="50"/>
     </row>
-    <row r="32" spans="1:23" s="25" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>255</v>
       </c>
@@ -3146,7 +3147,7 @@
       </c>
       <c r="W32" s="50"/>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -3186,7 +3187,7 @@
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>167</v>
       </c>
@@ -3217,7 +3218,7 @@
       <c r="T34" s="31"/>
       <c r="U34" s="31"/>
     </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
@@ -3249,7 +3250,7 @@
       <c r="U35" s="31"/>
       <c r="V35" s="43"/>
     </row>
-    <row r="36" spans="1:23" s="30" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
         <v>260</v>
       </c>
@@ -3278,7 +3279,7 @@
       <c r="U36" s="31"/>
       <c r="V36" s="43"/>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -3308,7 +3309,7 @@
       <c r="T37" s="31"/>
       <c r="U37" s="31"/>
     </row>
-    <row r="38" spans="1:23" s="32" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" s="32" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>272</v>
       </c>
@@ -3334,7 +3335,7 @@
       </c>
       <c r="W38" s="50"/>
     </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -3366,7 +3367,7 @@
       <c r="T39" s="31"/>
       <c r="U39" s="31"/>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -3436,7 +3437,7 @@
       <c r="T41" s="31"/>
       <c r="U41" s="31"/>
     </row>
-    <row r="42" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>254</v>
       </c>
@@ -3471,7 +3472,7 @@
       <c r="T42" s="59"/>
       <c r="U42" s="59"/>
     </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>173</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:23" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>45</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:23" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44" t="s">
         <v>47</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="76" t="s">
         <v>50</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="76"/>
       <c r="B47" s="76"/>
       <c r="C47" s="76"/>
@@ -3634,7 +3635,7 @@
       <c r="U47" s="31"/>
       <c r="V47" s="75"/>
     </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -3663,7 +3664,7 @@
       <c r="T48" s="31"/>
       <c r="U48" s="31"/>
     </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -3694,7 +3695,7 @@
       <c r="T49" s="31"/>
       <c r="U49" s="31"/>
     </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:23" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:23" s="1" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>213</v>
       </c>
@@ -3794,7 +3795,7 @@
       </c>
       <c r="W51"/>
     </row>
-    <row r="52" spans="1:23" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:23" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>178</v>
       </c>
@@ -3820,7 +3821,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="4" customFormat="1" ht="86.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" s="4" customFormat="1" ht="86.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>180</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
@@ -3886,7 +3887,7 @@
       <c r="U54" s="31"/>
       <c r="V54" s="43"/>
     </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
@@ -3921,7 +3922,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:23" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>61</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>183</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="65" t="s">
         <v>278</v>
       </c>
@@ -4017,7 +4018,7 @@
       </c>
       <c r="W58" s="50"/>
     </row>
-    <row r="59" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>280</v>
       </c>
@@ -4042,7 +4043,7 @@
       </c>
       <c r="W59" s="50"/>
     </row>
-    <row r="60" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>185</v>
       </c>
@@ -4065,7 +4066,7 @@
       <c r="V60" s="43"/>
       <c r="W60" s="50"/>
     </row>
-    <row r="61" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>283</v>
       </c>
@@ -4098,7 +4099,7 @@
       </c>
       <c r="W61" s="50"/>
     </row>
-    <row r="62" spans="1:23" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>233</v>
       </c>
@@ -4137,7 +4138,7 @@
       </c>
       <c r="W62" s="50"/>
     </row>
-    <row r="63" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:23" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
@@ -4163,7 +4164,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="37" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:23" s="37" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>295</v>
       </c>
@@ -4224,7 +4225,7 @@
       </c>
       <c r="W65" s="61"/>
     </row>
-    <row r="66" spans="1:23" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:23" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:23" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>297</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="65" t="s">
         <v>252</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -4326,7 +4327,7 @@
       <c r="T69" s="31"/>
       <c r="U69" s="31"/>
     </row>
-    <row r="70" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -4358,7 +4359,7 @@
       <c r="T70" s="31"/>
       <c r="U70" s="31"/>
     </row>
-    <row r="71" spans="1:23" s="19" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:23" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="19" t="s">
         <v>244</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>189</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
         <v>192</v>
       </c>
@@ -4516,7 +4517,7 @@
       <c r="T74" s="59"/>
       <c r="U74" s="59"/>
     </row>
-    <row r="75" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
         <v>74</v>
       </c>
@@ -4549,7 +4550,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>419</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="53" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G76" s="73"/>
       <c r="H76" s="32"/>
@@ -4578,7 +4579,7 @@
       <c r="V76" s="42"/>
       <c r="W76" s="73"/>
     </row>
-    <row r="77" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>211</v>
       </c>
@@ -4609,7 +4610,7 @@
       <c r="T77" s="31"/>
       <c r="U77" s="31"/>
     </row>
-    <row r="78" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -4641,7 +4642,7 @@
       <c r="T78" s="31"/>
       <c r="U78" s="31"/>
     </row>
-    <row r="79" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -4732,7 +4733,7 @@
       <c r="T80" s="31"/>
       <c r="U80" s="31"/>
     </row>
-    <row r="81" spans="1:23" s="4" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:23" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>83</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:23" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:23" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>301</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="83" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>193</v>
       </c>
@@ -4822,7 +4823,7 @@
       </c>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>303</v>
       </c>
@@ -4845,7 +4846,7 @@
       </c>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>306</v>
       </c>
@@ -4868,7 +4869,7 @@
       </c>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>309</v>
       </c>
@@ -4891,7 +4892,7 @@
       </c>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>312</v>
       </c>
@@ -4914,7 +4915,7 @@
       </c>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="1:23" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:23" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>196</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="90" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>91</v>
       </c>
@@ -5073,7 +5074,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:23" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>147</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="93" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:23" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -5131,7 +5132,7 @@
       <c r="T93" s="31"/>
       <c r="U93" s="31"/>
     </row>
-    <row r="94" spans="1:23" s="38" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:23" s="38" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A94" s="60" t="s">
         <v>314</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="95" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" s="60" t="s">
         <v>218</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="96" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>149</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="97" spans="1:23" s="26" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:23" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="s">
         <v>98</v>
       </c>
@@ -5264,7 +5265,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>198</v>
       </c>
@@ -5298,7 +5299,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="99" spans="1:23" s="9" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:23" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>240</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:23" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>214</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="101" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -5398,7 +5399,7 @@
       <c r="T101" s="31"/>
       <c r="U101" s="31"/>
     </row>
-    <row r="102" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>274</v>
       </c>
@@ -5422,7 +5423,7 @@
       <c r="L102" s="22"/>
       <c r="Q102" s="22"/>
     </row>
-    <row r="103" spans="1:23" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:23" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -5460,7 +5461,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="104" spans="1:23" s="38" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:23" s="38" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A104" s="61" t="s">
         <v>318</v>
       </c>
@@ -5501,7 +5502,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="105" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -5532,7 +5533,7 @@
       <c r="T105" s="31"/>
       <c r="U105" s="31"/>
     </row>
-    <row r="106" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>201</v>
       </c>
@@ -5563,7 +5564,7 @@
       <c r="T106" s="31"/>
       <c r="U106" s="31"/>
     </row>
-    <row r="107" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -5594,7 +5595,7 @@
       <c r="T107" s="31"/>
       <c r="U107" s="31"/>
     </row>
-    <row r="108" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
@@ -5653,7 +5654,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>112</v>
       </c>
@@ -5686,7 +5687,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="110" spans="1:23" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:23" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>114</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="111" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -5748,7 +5749,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="112" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>118</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="60" t="s">
         <v>120</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="60" t="s">
         <v>121</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>151</v>
       </c>
@@ -5931,7 +5932,7 @@
       <c r="T115" s="31"/>
       <c r="U115" s="31"/>
     </row>
-    <row r="116" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>276</v>
       </c>
@@ -5964,7 +5965,7 @@
       <c r="T116"/>
       <c r="U116"/>
     </row>
-    <row r="117" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="44" t="s">
         <v>123</v>
       </c>
@@ -6016,7 +6017,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="60" t="s">
         <v>126</v>
       </c>
@@ -6069,7 +6070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="60" t="s">
         <v>232</v>
       </c>
@@ -6122,7 +6123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="60" t="s">
         <v>129</v>
       </c>
@@ -6154,7 +6155,7 @@
       <c r="T120" s="31"/>
       <c r="U120" s="31"/>
     </row>
-    <row r="121" spans="1:23" s="71" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:23" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="72" t="s">
         <v>417</v>
       </c>
@@ -6211,7 +6212,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="122" spans="1:23" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:23" s="20" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A122" s="60" t="s">
         <v>247</v>
       </c>
@@ -6250,7 +6251,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="60" t="s">
         <v>131</v>
       </c>
@@ -6291,7 +6292,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A124" s="41"/>
       <c r="B124" s="41"/>
       <c r="C124" s="41"/>
@@ -6303,7 +6304,7 @@
       <c r="M124" s="45"/>
       <c r="Q124" s="22"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -6314,7 +6315,7 @@
       <c r="H125" s="39"/>
       <c r="Q125" s="22"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A126" s="41"/>
       <c r="B126" s="41"/>
       <c r="C126" s="41"/>
@@ -6325,7 +6326,7 @@
       <c r="H126" s="39"/>
       <c r="Q126" s="22"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A127" s="41"/>
       <c r="B127" s="41"/>
       <c r="C127" s="41"/>
@@ -6336,7 +6337,7 @@
       <c r="H127" s="39"/>
       <c r="Q127" s="22"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A128" s="41"/>
       <c r="B128" s="41"/>
       <c r="C128" s="41"/>
@@ -6347,7 +6348,7 @@
       <c r="H128" s="39"/>
       <c r="Q128" s="22"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="41"/>
       <c r="B129" s="41"/>
       <c r="C129" s="41"/>
@@ -6358,7 +6359,7 @@
       <c r="H129" s="39"/>
       <c r="Q129" s="22"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="41"/>
       <c r="B130" s="41"/>
       <c r="C130" s="41"/>
@@ -6369,7 +6370,7 @@
       <c r="H130" s="39"/>
       <c r="Q130" s="22"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="41"/>
       <c r="B131" s="41"/>
       <c r="C131" s="41"/>
@@ -6380,7 +6381,7 @@
       <c r="H131" s="39"/>
       <c r="Q131" s="22"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="41"/>
       <c r="B132" s="41"/>
       <c r="C132" s="41"/>
@@ -6391,7 +6392,7 @@
       <c r="H132" s="39"/>
       <c r="Q132" s="22"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
@@ -6401,7 +6402,7 @@
       <c r="G133" s="48"/>
       <c r="Q133" s="22"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="41"/>
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
@@ -6411,7 +6412,7 @@
       <c r="G134" s="48"/>
       <c r="Q134" s="22"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="41"/>
       <c r="B135" s="41"/>
       <c r="C135" s="41"/>
@@ -6421,7 +6422,7 @@
       <c r="G135" s="48"/>
       <c r="Q135" s="22"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="41"/>
       <c r="B136" s="41"/>
       <c r="C136" s="41"/>
@@ -6431,7 +6432,7 @@
       <c r="G136" s="48"/>
       <c r="Q136" s="22"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="41"/>
       <c r="B137" s="41"/>
       <c r="C137" s="41"/>
@@ -6441,7 +6442,7 @@
       <c r="G137" s="48"/>
       <c r="Q137" s="22"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="41"/>
       <c r="B138" s="41"/>
       <c r="C138" s="41"/>
@@ -6451,7 +6452,7 @@
       <c r="G138" s="48"/>
       <c r="Q138" s="22"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="41"/>
       <c r="B139" s="41"/>
       <c r="C139" s="41"/>
@@ -6461,7 +6462,7 @@
       <c r="G139" s="48"/>
       <c r="Q139" s="22"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="41"/>
       <c r="B140" s="41"/>
       <c r="C140" s="41"/>
@@ -6471,7 +6472,7 @@
       <c r="G140" s="48"/>
       <c r="Q140" s="22"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="41"/>
       <c r="B141" s="41"/>
       <c r="C141" s="41"/>
@@ -6481,7 +6482,7 @@
       <c r="G141" s="48"/>
       <c r="Q141" s="22"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="41"/>
       <c r="B142" s="41"/>
       <c r="C142" s="41"/>
@@ -6491,7 +6492,7 @@
       <c r="G142" s="48"/>
       <c r="Q142" s="22"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="41"/>
       <c r="B143" s="41"/>
       <c r="C143" s="41"/>
@@ -6501,7 +6502,7 @@
       <c r="G143" s="48"/>
       <c r="Q143" s="22"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="41"/>
       <c r="B144" s="41"/>
       <c r="C144" s="41"/>
@@ -6511,7 +6512,7 @@
       <c r="G144" s="48"/>
       <c r="Q144" s="22"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="41"/>
       <c r="B145" s="41"/>
       <c r="C145" s="41"/>
@@ -6521,7 +6522,7 @@
       <c r="G145" s="48"/>
       <c r="Q145" s="22"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="41"/>
       <c r="B146" s="41"/>
       <c r="C146" s="41"/>
@@ -6531,7 +6532,7 @@
       <c r="G146" s="48"/>
       <c r="Q146" s="22"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="41"/>
       <c r="B147" s="41"/>
       <c r="C147" s="41"/>
@@ -6541,7 +6542,7 @@
       <c r="G147" s="48"/>
       <c r="Q147" s="22"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="41"/>
       <c r="B148" s="41"/>
       <c r="C148" s="41"/>
@@ -6551,7 +6552,7 @@
       <c r="G148" s="48"/>
       <c r="Q148" s="22"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="41"/>
       <c r="B149" s="41"/>
       <c r="C149" s="41"/>
@@ -6561,7 +6562,7 @@
       <c r="G149" s="48"/>
       <c r="Q149" s="22"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="41"/>
       <c r="B150" s="41"/>
       <c r="C150" s="41"/>
@@ -6571,7 +6572,7 @@
       <c r="G150" s="48"/>
       <c r="Q150" s="22"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="41"/>
       <c r="B151" s="41"/>
       <c r="C151" s="41"/>
@@ -6581,7 +6582,7 @@
       <c r="G151" s="48"/>
       <c r="Q151" s="22"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="41"/>
       <c r="B152" s="41"/>
       <c r="C152" s="41"/>
@@ -6591,7 +6592,7 @@
       <c r="G152" s="48"/>
       <c r="Q152" s="22"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="41"/>
       <c r="B153" s="41"/>
       <c r="C153" s="41"/>
@@ -6601,7 +6602,7 @@
       <c r="G153" s="48"/>
       <c r="Q153" s="22"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="41"/>
       <c r="B154" s="41"/>
       <c r="C154" s="41"/>
@@ -6612,22 +6613,22 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="V46:V47"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H20" r:id="rId1" display="standaarden.ondersteuning@vng.nl"/>
-    <hyperlink ref="F20" r:id="rId2"/>
-    <hyperlink ref="F45" r:id="rId3"/>
+    <hyperlink ref="H20" r:id="rId1" display="standaarden.ondersteuning@vng.nl" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F45" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId4"/>
@@ -6635,25 +6636,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" customWidth="1"/>
-    <col min="2" max="2" width="52.23046875" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>229</v>
       </c>
@@ -6661,7 +6662,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>230</v>
       </c>
@@ -6669,8 +6670,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:2" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>208</v>
       </c>
@@ -6678,7 +6679,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>209</v>
       </c>
@@ -6686,7 +6687,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>210</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/input/KING/props/KING.xlsx
+++ b/src/main/resources/input/KING/props/KING.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\KING\Kern-taken\Imvertor\Imvertor-Maven\src\main\resources\input\KING\props\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\KING\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AD89AA-13E0-4169-A541-5349D454DB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="KING" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="426">
   <si>
     <t>Name</t>
   </si>
@@ -1317,11 +1316,26 @@
   <si>
     <t>Yes if scalar types may be entered without reference to a UML datatype</t>
   </si>
+  <si>
+    <t>SIM: regtest</t>
+  </si>
+  <si>
+    <t>UGM: regtest</t>
+  </si>
+  <si>
+    <t>BSM: regtest</t>
+  </si>
+  <si>
+    <t>regression</t>
+  </si>
+  <si>
+    <t>Should a regression test be performed on the results of this run?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1515,7 +1529,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1719,6 +1733,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1727,13 +1744,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Controlecel" xfId="1" builtinId="23"/>
-    <cellStyle name="Goed" xfId="4" builtinId="26"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Neutral 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Verklarende tekst" xfId="3" builtinId="53"/>
+    <cellStyle name="Neutral 2" xfId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2010,46 +2027,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W154"/>
+  <dimension ref="A1:Z155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I84" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E64" sqref="E64"/>
       <selection pane="topRight" activeCell="E64" sqref="E64"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
-      <selection pane="bottomRight" activeCell="H81" sqref="H81"/>
+      <selection pane="bottomRight" activeCell="Y93" sqref="Y93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" customWidth="1"/>
-    <col min="3" max="3" width="50.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.84375" customWidth="1"/>
+    <col min="2" max="2" width="20.15234375" customWidth="1"/>
+    <col min="3" max="3" width="50.69140625" customWidth="1"/>
+    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" customWidth="1"/>
-    <col min="11" max="11" width="15.7265625" customWidth="1"/>
-    <col min="12" max="12" width="2.36328125" style="18" customWidth="1"/>
-    <col min="13" max="13" width="18.7265625" customWidth="1"/>
-    <col min="14" max="14" width="16.08984375" customWidth="1"/>
-    <col min="15" max="16" width="15.7265625" customWidth="1"/>
-    <col min="17" max="17" width="2.36328125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="19.90625" customWidth="1"/>
-    <col min="19" max="19" width="19.6328125" customWidth="1"/>
-    <col min="20" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="63.6328125" customWidth="1"/>
-    <col min="23" max="23" width="30.08984375" customWidth="1"/>
+    <col min="7" max="7" width="2.69140625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.61328125" customWidth="1"/>
+    <col min="9" max="9" width="14.69140625" customWidth="1"/>
+    <col min="10" max="10" width="14.23046875" customWidth="1"/>
+    <col min="11" max="11" width="15.69140625" customWidth="1"/>
+    <col min="12" max="12" width="12.765625" customWidth="1"/>
+    <col min="13" max="13" width="2.3828125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="18.69140625" customWidth="1"/>
+    <col min="15" max="15" width="16.07421875" customWidth="1"/>
+    <col min="16" max="17" width="15.69140625" customWidth="1"/>
+    <col min="18" max="18" width="12.921875" customWidth="1"/>
+    <col min="19" max="19" width="2.3828125" style="18" customWidth="1"/>
+    <col min="20" max="20" width="19.921875" customWidth="1"/>
+    <col min="21" max="21" width="19.61328125" customWidth="1"/>
+    <col min="22" max="23" width="18" customWidth="1"/>
+    <col min="24" max="24" width="19.61328125" customWidth="1"/>
+    <col min="25" max="25" width="63.61328125" customWidth="1"/>
+    <col min="26" max="26" width="30.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="38" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2081,10 +2101,10 @@
       <c r="K1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>243</v>
       </c>
+      <c r="M1" s="13"/>
       <c r="N1" s="3" t="s">
         <v>243</v>
       </c>
@@ -2094,13 +2114,13 @@
       <c r="P1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="Q1" s="13"/>
+      <c r="Q1" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="R1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="S1" s="13"/>
       <c r="T1" s="3" t="s">
         <v>243</v>
       </c>
@@ -2108,10 +2128,19 @@
         <v>243</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F2" s="57"/>
       <c r="G2" s="14"/>
       <c r="H2" s="2" t="s">
@@ -2126,34 +2155,43 @@
       <c r="K2" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="Q2" s="14"/>
       <c r="R2" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="S2" s="14"/>
+      <c r="T2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="X2" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -2171,18 +2209,21 @@
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="12"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="15"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="22"/>
       <c r="T3" s="31"/>
       <c r="U3" s="31"/>
-    </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="75"/>
+    </row>
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2202,18 +2243,21 @@
         <v>4</v>
       </c>
       <c r="G4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="12"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="38"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="38"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="22"/>
       <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-    </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U4" s="38"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="75"/>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2233,18 +2277,21 @@
         <v>4</v>
       </c>
       <c r="G5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="12"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="38"/>
       <c r="P5" s="12"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="38"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="22"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-    </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U5" s="38"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="75"/>
+    </row>
+    <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -2262,20 +2309,20 @@
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="Q6" s="22"/>
-    </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="76" t="s">
+      <c r="M6" s="15"/>
+      <c r="S6" s="22"/>
+    </row>
+    <row r="7" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A7" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="76" t="b">
+      <c r="D7" s="77" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
@@ -2283,43 +2330,49 @@
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="12"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="22"/>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="75" t="s">
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="76" t="s">
         <v>351</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
+    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
       <c r="F8" s="51"/>
       <c r="G8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="22"/>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
-      <c r="V8" s="75"/>
-    </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="76"/>
+    </row>
+    <row r="9" spans="1:26" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>159</v>
       </c>
@@ -2339,16 +2392,16 @@
         <v>16</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="Q9" s="22"/>
-      <c r="V9" s="42" t="s">
+      <c r="M9" s="15"/>
+      <c r="S9" s="22"/>
+      <c r="Y9" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2368,18 +2421,21 @@
         <v>4</v>
       </c>
       <c r="G10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="38"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="12"/>
       <c r="O10" s="38"/>
       <c r="P10" s="38"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="22"/>
       <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-    </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="U10" s="38"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="75"/>
+    </row>
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>161</v>
       </c>
@@ -2397,10 +2453,10 @@
       </c>
       <c r="F11" s="52"/>
       <c r="G11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="Q11" s="22"/>
-    </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="M11" s="15"/>
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>134</v>
       </c>
@@ -2418,18 +2474,21 @@
       </c>
       <c r="F12" s="52"/>
       <c r="G12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="38"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="12"/>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="22"/>
       <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-    </row>
-    <row r="13" spans="1:23" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="U12" s="38"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="75"/>
+    </row>
+    <row r="13" spans="1:26" s="8" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
@@ -2447,24 +2506,27 @@
       </c>
       <c r="F13" s="52"/>
       <c r="G13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="12"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="22"/>
       <c r="T13" s="31"/>
       <c r="U13" s="31"/>
-      <c r="V13" s="43" t="s">
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="W13" s="8" t="s">
+      <c r="Z13" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2484,18 +2546,21 @@
         <v>16</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="38"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="12"/>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="22"/>
       <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-    </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U14" s="38"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="75"/>
+    </row>
+    <row r="15" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2515,24 +2580,27 @@
         <v>19</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="38"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="12"/>
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="22"/>
       <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="43" t="s">
+      <c r="U15" s="38"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2552,22 +2620,25 @@
         <v>287</v>
       </c>
       <c r="G16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="38"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="22"/>
       <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="43" t="s">
+      <c r="U16" s="38"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="W16" s="59"/>
-    </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z16" s="59"/>
+    </row>
+    <row r="17" spans="1:26" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>215</v>
       </c>
@@ -2587,18 +2658,21 @@
         <v>216</v>
       </c>
       <c r="G17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="38"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="38"/>
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="22"/>
       <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-    </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U17" s="38"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="75"/>
+    </row>
+    <row r="18" spans="1:26" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>217</v>
       </c>
@@ -2630,11 +2704,11 @@
       <c r="K18" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="N18" s="59" t="s">
+      <c r="L18" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="12" t="s">
         <v>348</v>
       </c>
       <c r="O18" s="59" t="s">
@@ -2643,27 +2717,36 @@
       <c r="P18" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="59" t="s">
-        <v>360</v>
-      </c>
-      <c r="S18" s="31" t="s">
-        <v>360</v>
-      </c>
+      <c r="Q18" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="R18" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="S18" s="22"/>
       <c r="T18" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="U18" s="59" t="s">
+      <c r="U18" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="V18" s="43" t="s">
+      <c r="V18" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="W18" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="X18" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y18" s="43" t="s">
         <v>364</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>163</v>
       </c>
@@ -2683,18 +2766,21 @@
         <v>212</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="12"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="22"/>
       <c r="T19" s="31"/>
       <c r="U19" s="31"/>
-    </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="75"/>
+    </row>
+    <row r="20" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
@@ -2717,21 +2803,24 @@
       <c r="H20" s="59"/>
       <c r="J20" s="59"/>
       <c r="K20" s="59"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="59"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="59"/>
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="22"/>
       <c r="T20" s="59"/>
       <c r="U20" s="59"/>
-      <c r="V20" s="43" t="s">
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="43" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>139</v>
       </c>
@@ -2755,21 +2844,24 @@
       <c r="I21" s="59"/>
       <c r="J21" s="59"/>
       <c r="K21" s="59"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="59"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="59"/>
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="22"/>
       <c r="T21" s="59"/>
       <c r="U21" s="59"/>
-      <c r="V21" s="43" t="s">
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="43" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
@@ -2789,24 +2881,27 @@
         <v>4</v>
       </c>
       <c r="G22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="12"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="38"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="22"/>
       <c r="T22" s="31"/>
       <c r="U22" s="31"/>
-      <c r="V22" s="43" t="s">
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A23" s="32" t="s">
         <v>25</v>
       </c>
@@ -2827,18 +2922,19 @@
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="37"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="38"/>
+      <c r="M23" s="15"/>
       <c r="N23" s="38"/>
-      <c r="Q23" s="22"/>
-      <c r="V23" s="42" t="s">
+      <c r="O23" s="38"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="22"/>
+      <c r="Y23" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="Z23" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>165</v>
       </c>
@@ -2856,18 +2952,21 @@
       </c>
       <c r="F24" s="52"/>
       <c r="G24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="12"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="38"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="22"/>
       <c r="T24" s="31"/>
       <c r="U24" s="31"/>
-    </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="75"/>
+    </row>
+    <row r="25" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2887,24 +2986,27 @@
         <v>16</v>
       </c>
       <c r="G25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="38"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="38"/>
       <c r="O25" s="38"/>
       <c r="P25" s="38"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="22"/>
       <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="43" t="s">
+      <c r="U25" s="38"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="Z25" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2927,25 +3029,34 @@
       <c r="I26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="38"/>
+      <c r="L26" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="P26" s="38"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="43" t="s">
+      <c r="Q26" s="38"/>
+      <c r="R26" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="22"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="43" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" s="70" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A27" s="70" t="s">
         <v>416</v>
       </c>
@@ -2968,19 +3079,28 @@
       <c r="I27" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="N27" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="22"/>
-      <c r="S27" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="58" t="s">
+      <c r="L27" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="22"/>
+      <c r="O27" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="22"/>
+      <c r="U27" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="58" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3000,21 +3120,24 @@
         <v>16</v>
       </c>
       <c r="G28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="38"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="15"/>
       <c r="N28" s="38"/>
       <c r="O28" s="38"/>
       <c r="P28" s="38"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="22"/>
       <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="43" t="s">
+      <c r="U28" s="38"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="43" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>144</v>
       </c>
@@ -3034,21 +3157,24 @@
         <v>4</v>
       </c>
       <c r="G29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="38"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="12"/>
       <c r="O29" s="38"/>
       <c r="P29" s="38"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="22"/>
       <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="43" t="s">
+      <c r="U29" s="38"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="43" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="37" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" s="37" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>288</v>
       </c>
@@ -3066,14 +3192,17 @@
       </c>
       <c r="F30" s="52"/>
       <c r="G30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="N30" s="38"/>
-      <c r="Q30" s="22"/>
-      <c r="V30" s="43" t="s">
+      <c r="L30" s="75"/>
+      <c r="M30" s="22"/>
+      <c r="O30" s="38"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="22"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="43" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" s="23" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>250</v>
       </c>
@@ -3094,21 +3223,24 @@
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
-      <c r="L31" s="22"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="36"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="22"/>
+      <c r="O31" s="38"/>
       <c r="P31" s="36"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="22"/>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
-      <c r="V31" s="43" t="s">
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="75"/>
+      <c r="Y31" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="W31" s="50"/>
-    </row>
-    <row r="32" spans="1:23" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="Z31" s="50"/>
+    </row>
+    <row r="32" spans="1:26" s="25" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>255</v>
       </c>
@@ -3132,22 +3264,25 @@
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="27"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="38"/>
       <c r="P32" s="27"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="40"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="22"/>
       <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="43" t="s">
+      <c r="U32" s="40"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="W32" s="50"/>
-    </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="Z32" s="50"/>
+    </row>
+    <row r="33" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -3176,18 +3311,23 @@
       <c r="K33" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="L33" s="15"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="59"/>
+      <c r="L33" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="15"/>
+      <c r="N33" s="12"/>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="22"/>
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
-    </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="75"/>
+    </row>
+    <row r="34" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>167</v>
       </c>
@@ -3207,18 +3347,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="12"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="22"/>
       <c r="T34" s="31"/>
       <c r="U34" s="31"/>
-    </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="75"/>
+    </row>
+    <row r="35" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
@@ -3238,19 +3381,22 @@
         <v>291</v>
       </c>
       <c r="G35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="12"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="38"/>
       <c r="P35" s="12"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="45"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="22"/>
       <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="43"/>
-    </row>
-    <row r="36" spans="1:23" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="U35" s="45"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="43"/>
+    </row>
+    <row r="36" spans="1:26" s="30" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A36" s="30" t="s">
         <v>260</v>
       </c>
@@ -3270,16 +3416,19 @@
         <v>292</v>
       </c>
       <c r="G36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="38"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="45"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="38"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="22"/>
       <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="43"/>
-    </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U36" s="45"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="43"/>
+    </row>
+    <row r="37" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -3298,18 +3447,21 @@
       <c r="F37" s="52"/>
       <c r="G37" s="15"/>
       <c r="H37" s="37"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="38"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="12"/>
       <c r="O37" s="38"/>
       <c r="P37" s="38"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="22"/>
       <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-    </row>
-    <row r="38" spans="1:23" s="32" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="U37" s="38"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="75"/>
+    </row>
+    <row r="38" spans="1:26" s="32" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>272</v>
       </c>
@@ -3328,14 +3480,14 @@
       <c r="F38" s="52"/>
       <c r="G38" s="33"/>
       <c r="H38" s="37"/>
-      <c r="L38" s="33"/>
-      <c r="Q38" s="22"/>
-      <c r="V38" s="42" t="s">
+      <c r="M38" s="33"/>
+      <c r="S38" s="22"/>
+      <c r="Y38" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="W38" s="50"/>
-    </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="Z38" s="50"/>
+    </row>
+    <row r="39" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -3356,18 +3508,21 @@
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="37"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="38"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="12"/>
       <c r="O39" s="38"/>
       <c r="P39" s="38"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="22"/>
       <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-    </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="U39" s="38"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="75"/>
+    </row>
+    <row r="40" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -3388,24 +3543,27 @@
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="37"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="38"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="12"/>
       <c r="O40" s="38"/>
       <c r="P40" s="38"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="22"/>
       <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="43" t="s">
+      <c r="U40" s="38"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="Z40" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -3426,18 +3584,21 @@
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="37"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="38"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="12"/>
       <c r="O41" s="38"/>
       <c r="P41" s="38"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="22"/>
       <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-    </row>
-    <row r="42" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U41" s="38"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="75"/>
+    </row>
+    <row r="42" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>254</v>
       </c>
@@ -3461,18 +3622,21 @@
       <c r="I42" s="59"/>
       <c r="J42" s="59"/>
       <c r="K42" s="59"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="59"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="61"/>
       <c r="N42" s="59"/>
       <c r="O42" s="59"/>
       <c r="P42" s="59"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="61"/>
       <c r="T42" s="59"/>
       <c r="U42" s="59"/>
-    </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="75"/>
+    </row>
+    <row r="43" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>173</v>
       </c>
@@ -3492,27 +3656,32 @@
         <v>16</v>
       </c>
       <c r="G43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="38"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="15"/>
       <c r="N43" s="38"/>
       <c r="O43" s="38"/>
       <c r="P43" s="38"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="38" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="75"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="38"/>
       <c r="U43" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="43" t="s">
+      <c r="V43" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="43" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A44" s="32" t="s">
         <v>45</v>
       </c>
@@ -3533,21 +3702,23 @@
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="32"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="32"/>
+      <c r="M44" s="15"/>
       <c r="N44" s="32"/>
       <c r="O44" s="32"/>
       <c r="P44" s="32"/>
-      <c r="Q44" s="22"/>
+      <c r="Q44" s="32"/>
       <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
+      <c r="S44" s="22"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
-      <c r="V44" s="42" t="s">
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="42" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="44" t="s">
         <v>47</v>
       </c>
@@ -3568,28 +3739,30 @@
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="28"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="28"/>
+      <c r="M45" s="15"/>
       <c r="N45" s="28"/>
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
-      <c r="Q45" s="22"/>
-      <c r="S45" s="28"/>
-      <c r="V45" s="42" t="s">
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="22"/>
+      <c r="U45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="42" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="76" t="s">
+    <row r="46" spans="1:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="76" t="b">
+      <c r="D46" s="77" t="b">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="b">
@@ -3599,43 +3772,49 @@
         <v>16</v>
       </c>
       <c r="G46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="45"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="15"/>
       <c r="N46" s="45"/>
       <c r="O46" s="45"/>
       <c r="P46" s="45"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="22"/>
       <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="75" t="s">
+      <c r="U46" s="45"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="76" t="s">
         <v>351</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="Z46" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="76"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
+    <row r="47" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="77"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
       <c r="F47" s="51"/>
       <c r="G47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="12"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="15"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="75"/>
+      <c r="S47" s="22"/>
       <c r="T47" s="31"/>
       <c r="U47" s="31"/>
-      <c r="V47" s="75"/>
-    </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="75"/>
+      <c r="Y47" s="76"/>
+    </row>
+    <row r="48" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -3653,18 +3832,21 @@
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="12"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="15"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="75"/>
+      <c r="S48" s="22"/>
       <c r="T48" s="31"/>
       <c r="U48" s="31"/>
-    </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="75"/>
+    </row>
+    <row r="49" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -3684,18 +3866,21 @@
         <v>16</v>
       </c>
       <c r="G49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="12"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="38"/>
       <c r="P49" s="12"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="38"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="75"/>
+      <c r="S49" s="22"/>
       <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-    </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="U49" s="38"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="75"/>
+    </row>
+    <row r="50" spans="1:26" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -3715,24 +3900,27 @@
         <v>203</v>
       </c>
       <c r="G50" s="68"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="12"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="38"/>
       <c r="P50" s="12"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="38"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="75"/>
+      <c r="S50" s="22"/>
       <c r="T50" s="31"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="43" t="s">
+      <c r="U50" s="38"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="75"/>
+      <c r="Y50" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="Z50" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="1" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>213</v>
       </c>
@@ -3764,11 +3952,11 @@
       <c r="K51" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="L51" s="22"/>
-      <c r="M51" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="N51" s="59" t="s">
+      <c r="L51" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="M51" s="22"/>
+      <c r="N51" s="34" t="s">
         <v>348</v>
       </c>
       <c r="O51" s="59" t="s">
@@ -3777,25 +3965,34 @@
       <c r="P51" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="59" t="s">
-        <v>360</v>
-      </c>
-      <c r="S51" s="34" t="s">
-        <v>360</v>
-      </c>
+      <c r="Q51" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="R51" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="S51" s="22"/>
       <c r="T51" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="U51" s="59" t="s">
+      <c r="U51" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="V51" s="56" t="s">
+      <c r="V51" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="W51" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="X51" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y51" s="56" t="s">
         <v>357</v>
       </c>
-      <c r="W51"/>
-    </row>
-    <row r="52" spans="1:23" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z51"/>
+    </row>
+    <row r="52" spans="1:26" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="32" t="s">
         <v>178</v>
       </c>
@@ -3815,13 +4012,13 @@
         <v>4</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="Q52" s="22"/>
-      <c r="V52" s="42" t="s">
+      <c r="M52" s="15"/>
+      <c r="S52" s="22"/>
+      <c r="Y52" s="42" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="4" customFormat="1" ht="86.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" s="4" customFormat="1" ht="86.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="32" t="s">
         <v>180</v>
       </c>
@@ -3839,25 +4036,28 @@
       </c>
       <c r="F53" s="53"/>
       <c r="G53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="Q53" s="22"/>
-      <c r="S53" t="s">
-        <v>361</v>
-      </c>
-      <c r="T53" t="s">
-        <v>361</v>
-      </c>
+      <c r="M53" s="15"/>
+      <c r="S53" s="22"/>
       <c r="U53" t="s">
         <v>361</v>
       </c>
-      <c r="V53" s="42" t="s">
+      <c r="V53" t="s">
+        <v>361</v>
+      </c>
+      <c r="W53" t="s">
+        <v>361</v>
+      </c>
+      <c r="X53" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y53" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="W53" s="4" t="s">
+      <c r="Z53" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
@@ -3875,19 +4075,22 @@
       </c>
       <c r="F54" s="52"/>
       <c r="G54" s="64"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="12"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="38"/>
       <c r="P54" s="12"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="38"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="22"/>
       <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="43"/>
-    </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="U54" s="38"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="75"/>
+      <c r="Y54" s="43"/>
+    </row>
+    <row r="55" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
@@ -3905,24 +4108,27 @@
       </c>
       <c r="F55" s="52"/>
       <c r="G55" s="64"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="12"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="15"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="38"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="22"/>
       <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="43" t="s">
+      <c r="U55" s="38"/>
+      <c r="V55" s="31"/>
+      <c r="W55" s="31"/>
+      <c r="X55" s="75"/>
+      <c r="Y55" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="W55" s="1" t="s">
+      <c r="Z55" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
         <v>61</v>
       </c>
@@ -3943,16 +4149,18 @@
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="32"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="38"/>
+      <c r="M56" s="15"/>
       <c r="N56" s="38"/>
-      <c r="Q56" s="22"/>
-      <c r="S56" s="38"/>
-      <c r="V56" s="42" t="s">
+      <c r="O56" s="38"/>
+      <c r="R56" s="75"/>
+      <c r="S56" s="22"/>
+      <c r="U56" s="38"/>
+      <c r="X56" s="75"/>
+      <c r="Y56" s="42" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>183</v>
       </c>
@@ -3970,21 +4178,24 @@
       </c>
       <c r="F57" s="52"/>
       <c r="G57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="12"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="15"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="75"/>
+      <c r="S57" s="22"/>
       <c r="T57" s="31"/>
       <c r="U57" s="31"/>
-      <c r="V57" s="43" t="s">
+      <c r="V57" s="31"/>
+      <c r="W57" s="31"/>
+      <c r="X57" s="75"/>
+      <c r="Y57" s="43" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A58" s="65" t="s">
         <v>278</v>
       </c>
@@ -4006,19 +4217,22 @@
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="17"/>
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="22"/>
-      <c r="S58" s="11"/>
-      <c r="V58" s="43" t="s">
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="22"/>
+      <c r="U58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="W58" s="50"/>
-    </row>
-    <row r="59" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="Z58" s="50"/>
+    </row>
+    <row r="59" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>280</v>
       </c>
@@ -4036,14 +4250,14 @@
       </c>
       <c r="F59" s="52"/>
       <c r="G59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="V59" s="43" t="s">
+      <c r="M59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="Y59" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="W59" s="50"/>
-    </row>
-    <row r="60" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="Z59" s="50"/>
+    </row>
+    <row r="60" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
         <v>185</v>
       </c>
@@ -4061,12 +4275,12 @@
       </c>
       <c r="F60" s="52"/>
       <c r="G60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="Q60" s="22"/>
-      <c r="V60" s="43"/>
-      <c r="W60" s="50"/>
-    </row>
-    <row r="61" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="M60" s="15"/>
+      <c r="S60" s="22"/>
+      <c r="Y60" s="43"/>
+      <c r="Z60" s="50"/>
+    </row>
+    <row r="61" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
         <v>283</v>
       </c>
@@ -4088,18 +4302,20 @@
       <c r="I61" s="28"/>
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="22"/>
       <c r="N61" s="28"/>
       <c r="O61" s="28"/>
       <c r="P61" s="28"/>
-      <c r="Q61" s="22"/>
-      <c r="V61" s="43" t="s">
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="22"/>
+      <c r="Y61" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="W61" s="50"/>
-    </row>
-    <row r="62" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="Z61" s="50"/>
+    </row>
+    <row r="62" spans="1:26" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>233</v>
       </c>
@@ -4123,22 +4339,25 @@
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="17"/>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
-      <c r="Q62" s="22"/>
+      <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
+      <c r="S62" s="22"/>
       <c r="T62" s="11"/>
       <c r="U62" s="11"/>
-      <c r="V62" s="43" t="s">
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="W62" s="50"/>
-    </row>
-    <row r="63" spans="1:23" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="Z62" s="50"/>
+    </row>
+    <row r="63" spans="1:26" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
@@ -4158,13 +4377,13 @@
         <v>19</v>
       </c>
       <c r="G63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="Q63" s="22"/>
-      <c r="V63" s="43" t="s">
+      <c r="M63" s="15"/>
+      <c r="S63" s="22"/>
+      <c r="Y63" s="43" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
@@ -4183,21 +4402,24 @@
       <c r="F64" s="52"/>
       <c r="G64" s="15"/>
       <c r="H64" s="45"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="45"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="15"/>
       <c r="N64" s="45"/>
-      <c r="O64" s="12"/>
+      <c r="O64" s="45"/>
       <c r="P64" s="12"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="45"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="22"/>
       <c r="T64" s="31"/>
-      <c r="U64" s="31"/>
-      <c r="V64" s="43" t="s">
+      <c r="U64" s="45"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="31"/>
+      <c r="X64" s="45"/>
+      <c r="Y64" s="43" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="37" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" s="37" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
         <v>295</v>
       </c>
@@ -4218,14 +4440,17 @@
       </c>
       <c r="G65" s="22"/>
       <c r="H65" s="45"/>
-      <c r="L65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="V65" s="43" t="s">
+      <c r="L65" s="75"/>
+      <c r="M65" s="22"/>
+      <c r="R65" s="75"/>
+      <c r="S65" s="22"/>
+      <c r="X65" s="75"/>
+      <c r="Y65" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="W65" s="61"/>
-    </row>
-    <row r="66" spans="1:23" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="Z65" s="61"/>
+    </row>
+    <row r="66" spans="1:26" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -4245,13 +4470,13 @@
         <v>212</v>
       </c>
       <c r="G66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="Q66" s="22"/>
-      <c r="V66" s="43" t="s">
+      <c r="M66" s="15"/>
+      <c r="S66" s="22"/>
+      <c r="Y66" s="43" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
         <v>297</v>
       </c>
@@ -4266,13 +4491,13 @@
       </c>
       <c r="F67" s="52"/>
       <c r="G67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="V67" s="43" t="s">
+      <c r="M67" s="22"/>
+      <c r="S67" s="22"/>
+      <c r="Y67" s="43" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A68" s="65" t="s">
         <v>252</v>
       </c>
@@ -4290,13 +4515,13 @@
       </c>
       <c r="F68" s="63"/>
       <c r="G68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="V68" s="43" t="s">
+      <c r="M68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="Y68" s="43" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -4316,18 +4541,21 @@
         <v>205</v>
       </c>
       <c r="G69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="38"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="15"/>
       <c r="N69" s="38"/>
-      <c r="O69" s="12"/>
+      <c r="O69" s="38"/>
       <c r="P69" s="12"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="38"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="75"/>
+      <c r="S69" s="22"/>
       <c r="T69" s="31"/>
-      <c r="U69" s="31"/>
-    </row>
-    <row r="70" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U69" s="38"/>
+      <c r="V69" s="31"/>
+      <c r="W69" s="31"/>
+      <c r="X69" s="75"/>
+    </row>
+    <row r="70" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -4348,18 +4576,21 @@
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="45"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="45"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="15"/>
       <c r="N70" s="45"/>
-      <c r="O70" s="12"/>
+      <c r="O70" s="45"/>
       <c r="P70" s="12"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="31"/>
-      <c r="S70" s="45"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="45"/>
+      <c r="S70" s="22"/>
       <c r="T70" s="31"/>
-      <c r="U70" s="31"/>
-    </row>
-    <row r="71" spans="1:23" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="U70" s="45"/>
+      <c r="V70" s="31"/>
+      <c r="W70" s="31"/>
+      <c r="X70" s="45"/>
+    </row>
+    <row r="71" spans="1:26" s="19" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A71" s="19" t="s">
         <v>244</v>
       </c>
@@ -4380,22 +4611,25 @@
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="45"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="45"/>
+      <c r="L71" s="75"/>
+      <c r="M71" s="15"/>
       <c r="N71" s="45"/>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="31"/>
-      <c r="S71" s="45"/>
+      <c r="O71" s="45"/>
+      <c r="R71" s="45"/>
+      <c r="S71" s="22"/>
       <c r="T71" s="31"/>
-      <c r="U71" s="31"/>
-      <c r="V71" s="43" t="s">
+      <c r="U71" s="45"/>
+      <c r="V71" s="31"/>
+      <c r="W71" s="31"/>
+      <c r="X71" s="45"/>
+      <c r="Y71" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="W71" s="19" t="s">
+      <c r="Z71" s="19" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>189</v>
       </c>
@@ -4415,21 +4649,24 @@
         <v>204</v>
       </c>
       <c r="G72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="12"/>
+      <c r="L72" s="75"/>
+      <c r="M72" s="15"/>
       <c r="N72" s="12"/>
       <c r="O72" s="12"/>
       <c r="P72" s="12"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="31"/>
-      <c r="S72" s="31"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="75"/>
+      <c r="S72" s="22"/>
       <c r="T72" s="31"/>
       <c r="U72" s="31"/>
-      <c r="V72" s="43" t="s">
+      <c r="V72" s="31"/>
+      <c r="W72" s="31"/>
+      <c r="X72" s="75"/>
+      <c r="Y72" s="43" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -4461,10 +4698,10 @@
       <c r="K73" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="L73" s="22"/>
-      <c r="M73" s="45" t="s">
-        <v>348</v>
-      </c>
+      <c r="L73" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="M73" s="22"/>
       <c r="N73" s="45" t="s">
         <v>348</v>
       </c>
@@ -4474,21 +4711,30 @@
       <c r="P73" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="59" t="s">
-        <v>360</v>
-      </c>
-      <c r="S73" s="34" t="s">
-        <v>360</v>
-      </c>
+      <c r="Q73" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="R73" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="S73" s="22"/>
       <c r="T73" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="U73" s="59" t="s">
+      <c r="U73" s="34" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="V73" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="W73" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="X73" s="75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A74" s="35" t="s">
         <v>192</v>
       </c>
@@ -4506,18 +4752,21 @@
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="59"/>
+      <c r="L74" s="75"/>
+      <c r="M74" s="15"/>
       <c r="N74" s="59"/>
       <c r="O74" s="59"/>
       <c r="P74" s="59"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="59"/>
-      <c r="S74" s="59"/>
+      <c r="Q74" s="59"/>
+      <c r="R74" s="75"/>
+      <c r="S74" s="22"/>
       <c r="T74" s="59"/>
       <c r="U74" s="59"/>
-    </row>
-    <row r="75" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V74" s="59"/>
+      <c r="W74" s="59"/>
+      <c r="X74" s="75"/>
+    </row>
+    <row r="75" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="32" t="s">
         <v>74</v>
       </c>
@@ -4538,19 +4787,21 @@
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="32"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="32"/>
+      <c r="M75" s="15"/>
       <c r="N75" s="32"/>
-      <c r="Q75" s="22"/>
-      <c r="S75" s="32"/>
-      <c r="V75" s="42" t="s">
+      <c r="O75" s="32"/>
+      <c r="R75" s="32"/>
+      <c r="S75" s="22"/>
+      <c r="U75" s="32"/>
+      <c r="X75" s="32"/>
+      <c r="Y75" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="W75" s="22" t="s">
+      <c r="Z75" s="22" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A76" s="32" t="s">
         <v>419</v>
       </c>
@@ -4571,15 +4822,17 @@
       </c>
       <c r="G76" s="73"/>
       <c r="H76" s="32"/>
-      <c r="L76" s="73"/>
-      <c r="M76" s="32"/>
+      <c r="M76" s="73"/>
       <c r="N76" s="32"/>
-      <c r="Q76" s="73"/>
-      <c r="S76" s="32"/>
-      <c r="V76" s="42"/>
-      <c r="W76" s="73"/>
-    </row>
-    <row r="77" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="O76" s="32"/>
+      <c r="R76" s="32"/>
+      <c r="S76" s="73"/>
+      <c r="U76" s="32"/>
+      <c r="X76" s="32"/>
+      <c r="Y76" s="42"/>
+      <c r="Z76" s="73"/>
+    </row>
+    <row r="77" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>211</v>
       </c>
@@ -4599,18 +4852,21 @@
         <v>16</v>
       </c>
       <c r="G77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="38"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="15"/>
       <c r="N77" s="38"/>
-      <c r="O77" s="12"/>
+      <c r="O77" s="38"/>
       <c r="P77" s="12"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="31"/>
-      <c r="S77" s="38"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="75"/>
+      <c r="S77" s="22"/>
       <c r="T77" s="31"/>
-      <c r="U77" s="31"/>
-    </row>
-    <row r="78" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="U77" s="38"/>
+      <c r="V77" s="31"/>
+      <c r="W77" s="31"/>
+      <c r="X77" s="75"/>
+    </row>
+    <row r="78" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -4631,18 +4887,21 @@
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="32"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="32"/>
+      <c r="L78" s="75"/>
+      <c r="M78" s="15"/>
       <c r="N78" s="32"/>
-      <c r="O78" s="12"/>
+      <c r="O78" s="32"/>
       <c r="P78" s="12"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="31"/>
-      <c r="S78" s="32"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="32"/>
+      <c r="S78" s="22"/>
       <c r="T78" s="31"/>
-      <c r="U78" s="31"/>
-    </row>
-    <row r="79" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U78" s="32"/>
+      <c r="V78" s="31"/>
+      <c r="W78" s="31"/>
+      <c r="X78" s="32"/>
+    </row>
+    <row r="79" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -4674,10 +4933,10 @@
       <c r="K79" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="L79" s="22"/>
-      <c r="M79" s="45" t="s">
-        <v>348</v>
-      </c>
+      <c r="L79" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="M79" s="22"/>
       <c r="N79" s="45" t="s">
         <v>348</v>
       </c>
@@ -4687,21 +4946,30 @@
       <c r="P79" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="59" t="s">
-        <v>360</v>
-      </c>
-      <c r="S79" s="59" t="s">
-        <v>360</v>
-      </c>
+      <c r="Q79" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="R79" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="S79" s="22"/>
       <c r="T79" s="59" t="s">
         <v>360</v>
       </c>
       <c r="U79" s="59" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="V79" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="W79" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="X79" s="75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -4722,18 +4990,21 @@
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="45"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="45"/>
+      <c r="L80" s="75"/>
+      <c r="M80" s="15"/>
       <c r="N80" s="45"/>
-      <c r="O80" s="12"/>
+      <c r="O80" s="45"/>
       <c r="P80" s="12"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="31"/>
-      <c r="S80" s="45"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="45"/>
+      <c r="S80" s="22"/>
       <c r="T80" s="31"/>
-      <c r="U80" s="31"/>
-    </row>
-    <row r="81" spans="1:23" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="U80" s="45"/>
+      <c r="V80" s="31"/>
+      <c r="W80" s="31"/>
+      <c r="X80" s="45"/>
+    </row>
+    <row r="81" spans="1:26" s="4" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A81" s="4" t="s">
         <v>83</v>
       </c>
@@ -4754,19 +5025,21 @@
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="32"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="32"/>
+      <c r="M81" s="15"/>
       <c r="N81" s="32"/>
-      <c r="Q81" s="22"/>
-      <c r="S81" s="32"/>
-      <c r="V81" s="42" t="s">
+      <c r="O81" s="32"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="22"/>
+      <c r="U81" s="32"/>
+      <c r="X81" s="32"/>
+      <c r="Y81" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="W81" s="4" t="s">
+      <c r="Z81" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:23" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A82" s="4" t="s">
         <v>301</v>
       </c>
@@ -4782,13 +5055,13 @@
       <c r="F82" s="52"/>
       <c r="G82" s="22"/>
       <c r="H82" s="32"/>
-      <c r="L82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="V82" s="43" t="s">
+      <c r="M82" s="22"/>
+      <c r="S82" s="22"/>
+      <c r="Y82" s="43" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="83" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>193</v>
       </c>
@@ -4808,22 +5081,25 @@
         <v>19</v>
       </c>
       <c r="G83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="12"/>
+      <c r="L83" s="75"/>
+      <c r="M83" s="15"/>
       <c r="N83" s="12"/>
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="31"/>
-      <c r="S83" s="31"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="75"/>
+      <c r="S83" s="22"/>
       <c r="T83" s="31"/>
       <c r="U83" s="31"/>
-      <c r="V83" s="43" t="s">
+      <c r="V83" s="31"/>
+      <c r="W83" s="31"/>
+      <c r="X83" s="75"/>
+      <c r="Y83" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="W83" s="4"/>
-    </row>
-    <row r="84" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="Z83" s="4"/>
+    </row>
+    <row r="84" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
         <v>303</v>
       </c>
@@ -4839,14 +5115,14 @@
       <c r="E84" s="4"/>
       <c r="F84" s="52"/>
       <c r="G84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="V84" s="43" t="s">
+      <c r="M84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="Y84" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="W84" s="4"/>
-    </row>
-    <row r="85" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="Z84" s="4"/>
+    </row>
+    <row r="85" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
         <v>306</v>
       </c>
@@ -4862,14 +5138,14 @@
       <c r="E85" s="4"/>
       <c r="F85" s="52"/>
       <c r="G85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="Q85" s="22"/>
-      <c r="V85" s="43" t="s">
+      <c r="M85" s="22"/>
+      <c r="S85" s="22"/>
+      <c r="Y85" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="W85" s="4"/>
-    </row>
-    <row r="86" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="Z85" s="4"/>
+    </row>
+    <row r="86" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A86" s="4" t="s">
         <v>309</v>
       </c>
@@ -4885,14 +5161,14 @@
       <c r="E86" s="4"/>
       <c r="F86" s="52"/>
       <c r="G86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="Q86" s="22"/>
-      <c r="V86" s="43" t="s">
+      <c r="M86" s="22"/>
+      <c r="S86" s="22"/>
+      <c r="Y86" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="W86" s="4"/>
-    </row>
-    <row r="87" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="Z86" s="4"/>
+    </row>
+    <row r="87" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
         <v>312</v>
       </c>
@@ -4908,14 +5184,14 @@
       <c r="E87" s="4"/>
       <c r="F87" s="52"/>
       <c r="G87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="V87" s="43" t="s">
+      <c r="M87" s="22"/>
+      <c r="S87" s="22"/>
+      <c r="Y87" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="W87" s="4"/>
-    </row>
-    <row r="88" spans="1:23" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="Z87" s="4"/>
+    </row>
+    <row r="88" spans="1:26" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A88" s="4" t="s">
         <v>196</v>
       </c>
@@ -4935,13 +5211,13 @@
         <v>206</v>
       </c>
       <c r="G88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="V88" s="43" t="s">
+      <c r="M88" s="22"/>
+      <c r="S88" s="22"/>
+      <c r="Y88" s="43" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
@@ -4973,11 +5249,11 @@
       <c r="K89" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="L89" s="22"/>
-      <c r="M89" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="N89" s="59" t="s">
+      <c r="L89" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="M89" s="22"/>
+      <c r="N89" s="38" t="s">
         <v>270</v>
       </c>
       <c r="O89" s="59" t="s">
@@ -4986,27 +5262,36 @@
       <c r="P89" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="S89" s="31" t="s">
-        <v>271</v>
-      </c>
+      <c r="Q89" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="R89" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="S89" s="22"/>
       <c r="T89" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="U89" s="59" t="s">
+      <c r="U89" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="V89" s="43" t="s">
+      <c r="V89" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="W89" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="X89" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y89" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="W89" s="1" t="s">
+      <c r="Z89" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="90" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
@@ -5027,24 +5312,27 @@
       </c>
       <c r="G90" s="15"/>
       <c r="H90" s="37"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="38"/>
+      <c r="L90" s="75"/>
+      <c r="M90" s="22"/>
       <c r="N90" s="38"/>
-      <c r="O90" s="12"/>
+      <c r="O90" s="38"/>
       <c r="P90" s="12"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="31"/>
-      <c r="S90" s="38"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="75"/>
+      <c r="S90" s="22"/>
       <c r="T90" s="31"/>
-      <c r="U90" s="31"/>
-      <c r="V90" s="43" t="s">
+      <c r="U90" s="38"/>
+      <c r="V90" s="31"/>
+      <c r="W90" s="31"/>
+      <c r="X90" s="75"/>
+      <c r="Y90" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="W90" s="1" t="s">
+      <c r="Z90" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A91" s="4" t="s">
         <v>91</v>
       </c>
@@ -5065,16 +5353,18 @@
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="37"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="38"/>
+      <c r="M91" s="22"/>
       <c r="N91" s="38"/>
-      <c r="Q91" s="22"/>
-      <c r="S91" s="38"/>
-      <c r="V91" s="42" t="s">
+      <c r="O91" s="38"/>
+      <c r="R91" s="75"/>
+      <c r="S91" s="22"/>
+      <c r="U91" s="38"/>
+      <c r="X91" s="75"/>
+      <c r="Y91" s="42" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4" t="s">
         <v>147</v>
       </c>
@@ -5094,220 +5384,234 @@
         <v>16</v>
       </c>
       <c r="G92" s="15"/>
-      <c r="L92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="V92" s="43" t="s">
+      <c r="M92" s="22"/>
+      <c r="S92" s="22"/>
+      <c r="Y92" s="43" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="93" spans="1:23" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:26" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="D93" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="73"/>
+      <c r="L93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M93" s="73"/>
+      <c r="R93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S93" s="73"/>
+      <c r="X93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y93" s="58"/>
+    </row>
+    <row r="94" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D93" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F93" s="51" t="s">
+      <c r="D94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="G93" s="15"/>
-      <c r="H93" s="45"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="45"/>
-      <c r="N93" s="45"/>
-      <c r="O93" s="12"/>
-      <c r="P93" s="12"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="31"/>
-      <c r="S93" s="45"/>
-      <c r="T93" s="31"/>
-      <c r="U93" s="31"/>
-    </row>
-    <row r="94" spans="1:23" s="38" customFormat="1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A94" s="60" t="s">
+      <c r="G94" s="15"/>
+      <c r="H94" s="45"/>
+      <c r="L94" s="75"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="45"/>
+      <c r="O94" s="45"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="45"/>
+      <c r="S94" s="22"/>
+      <c r="T94" s="31"/>
+      <c r="U94" s="45"/>
+      <c r="V94" s="31"/>
+      <c r="W94" s="31"/>
+      <c r="X94" s="45"/>
+    </row>
+    <row r="95" spans="1:26" s="38" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+      <c r="A95" s="60" t="s">
         <v>314</v>
-      </c>
-      <c r="B94" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="D94" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F94" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="22"/>
-      <c r="H94" s="45"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="45"/>
-      <c r="N94" s="45"/>
-      <c r="Q94" s="22"/>
-      <c r="V94" s="47" t="s">
-        <v>400</v>
-      </c>
-      <c r="W94" s="38" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="60" t="s">
-        <v>218</v>
       </c>
       <c r="B95" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C95" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="D95" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" s="22"/>
+      <c r="H95" s="45"/>
+      <c r="L95" s="75"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="45"/>
+      <c r="O95" s="45"/>
+      <c r="R95" s="45"/>
+      <c r="S95" s="22"/>
+      <c r="X95" s="75"/>
+      <c r="Y95" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z95" s="38" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A96" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B96" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="D95" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E95" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F95" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G95" s="15"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="22"/>
-      <c r="R95" s="31"/>
-      <c r="S95" s="31"/>
-      <c r="T95" s="31"/>
-      <c r="U95" s="31"/>
-      <c r="W95" s="22" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D96" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96" s="1" t="b">
+      <c r="D96" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" s="60" t="b">
         <v>1</v>
       </c>
       <c r="F96" s="51" t="s">
         <v>4</v>
       </c>
       <c r="G96" s="15"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="12"/>
+      <c r="L96" s="75"/>
+      <c r="M96" s="22"/>
       <c r="N96" s="12"/>
       <c r="O96" s="12"/>
       <c r="P96" s="12"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="31"/>
-      <c r="S96" s="31"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="75"/>
+      <c r="S96" s="22"/>
       <c r="T96" s="31"/>
       <c r="U96" s="31"/>
-      <c r="V96" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="W96" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A97" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D97" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97" s="26" t="b">
-        <v>0</v>
+      <c r="V96" s="31"/>
+      <c r="W96" s="31"/>
+      <c r="X96" s="75"/>
+      <c r="Z96" s="22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="F97" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="G97" s="22"/>
-      <c r="L97" s="22"/>
-      <c r="Q97" s="22"/>
-      <c r="R97" s="31"/>
-      <c r="S97" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="G97" s="15"/>
+      <c r="L97" s="75"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="75"/>
+      <c r="S97" s="22"/>
       <c r="T97" s="31"/>
       <c r="U97" s="31"/>
-      <c r="V97" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="W97" s="26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D98" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F98" s="52" t="s">
-        <v>405</v>
-      </c>
-      <c r="G98" s="15"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="22"/>
-      <c r="R98" s="31"/>
-      <c r="S98" s="31"/>
+      <c r="V97" s="31"/>
+      <c r="W97" s="31"/>
+      <c r="X97" s="75"/>
+      <c r="Y97" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z97" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" s="26" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A98" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="G98" s="22"/>
+      <c r="L98" s="75"/>
+      <c r="M98" s="22"/>
+      <c r="R98" s="75"/>
+      <c r="S98" s="22"/>
       <c r="T98" s="31"/>
       <c r="U98" s="31"/>
-      <c r="V98" s="43" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="V98" s="31"/>
+      <c r="W98" s="31"/>
+      <c r="X98" s="75"/>
+      <c r="Y98" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z98" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A99" s="4" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="D99" s="4" t="b">
         <v>0</v>
@@ -5315,387 +5619,424 @@
       <c r="E99" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F99" s="67"/>
+      <c r="F99" s="52" t="s">
+        <v>405</v>
+      </c>
       <c r="G99" s="15"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="12"/>
+      <c r="L99" s="75"/>
+      <c r="M99" s="22"/>
       <c r="N99" s="12"/>
       <c r="O99" s="12"/>
       <c r="P99" s="12"/>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="31"/>
-      <c r="S99" s="31"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="75"/>
+      <c r="S99" s="22"/>
       <c r="T99" s="31"/>
       <c r="U99" s="31"/>
-      <c r="V99" s="43" t="s">
+      <c r="V99" s="31"/>
+      <c r="W99" s="31"/>
+      <c r="X99" s="75"/>
+      <c r="Y99" s="43" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" s="9" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A100" s="4" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>317</v>
+        <v>242</v>
       </c>
       <c r="D100" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F100" s="52" t="s">
-        <v>212</v>
-      </c>
+      <c r="F100" s="67"/>
       <c r="G100" s="15"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="29"/>
-      <c r="O100" s="29"/>
-      <c r="P100" s="29"/>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="31"/>
-      <c r="S100" s="31"/>
+      <c r="L100" s="75"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="75"/>
+      <c r="S100" s="22"/>
       <c r="T100" s="31"/>
       <c r="U100" s="31"/>
-      <c r="V100" s="47" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D101" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F101" s="51" t="s">
-        <v>16</v>
+      <c r="V100" s="31"/>
+      <c r="W100" s="31"/>
+      <c r="X100" s="75"/>
+      <c r="Y100" s="43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A101" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" s="52" t="s">
+        <v>212</v>
       </c>
       <c r="G101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="38"/>
-      <c r="N101" s="38"/>
-      <c r="O101" s="12"/>
-      <c r="P101" s="12"/>
-      <c r="Q101" s="22"/>
-      <c r="R101" s="31"/>
-      <c r="S101" s="38"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="75"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="29"/>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="29"/>
+      <c r="R101" s="75"/>
+      <c r="S101" s="22"/>
       <c r="T101" s="31"/>
       <c r="U101" s="31"/>
-    </row>
-    <row r="102" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
+      <c r="V101" s="31"/>
+      <c r="W101" s="31"/>
+      <c r="X101" s="75"/>
+      <c r="Y101" s="47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D102" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="15"/>
+      <c r="L102" s="75"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="38"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="75"/>
+      <c r="S102" s="22"/>
+      <c r="T102" s="31"/>
+      <c r="U102" s="38"/>
+      <c r="V102" s="31"/>
+      <c r="W102" s="31"/>
+      <c r="X102" s="75"/>
+    </row>
+    <row r="103" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B103" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C103" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D102" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E102" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" s="63" t="s">
+      <c r="D103" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="G102" s="22"/>
-      <c r="H102" s="37"/>
-      <c r="L102" s="22"/>
-      <c r="Q102" s="22"/>
-    </row>
-    <row r="103" spans="1:23" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+      <c r="G103" s="22"/>
+      <c r="H103" s="37"/>
+      <c r="M103" s="22"/>
+      <c r="S103" s="22"/>
+    </row>
+    <row r="104" spans="1:26" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D103" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F103" s="54" t="s">
+      <c r="D104" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" s="54" t="s">
         <v>406</v>
       </c>
-      <c r="G103" s="15"/>
-      <c r="H103" s="37"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="45"/>
-      <c r="N103" s="45"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="31"/>
-      <c r="S103" s="45"/>
-      <c r="T103" s="31"/>
-      <c r="U103" s="31"/>
-      <c r="V103" s="43" t="s">
+      <c r="G104" s="15"/>
+      <c r="H104" s="37"/>
+      <c r="L104" s="75"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="45"/>
+      <c r="O104" s="45"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="45"/>
+      <c r="S104" s="22"/>
+      <c r="T104" s="31"/>
+      <c r="U104" s="45"/>
+      <c r="V104" s="31"/>
+      <c r="W104" s="31"/>
+      <c r="X104" s="45"/>
+      <c r="Y104" s="43" t="s">
         <v>402</v>
       </c>
-      <c r="W103" s="22" t="s">
+      <c r="Z104" s="22" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="104" spans="1:23" s="38" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="61" t="s">
+    <row r="105" spans="1:26" s="38" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A105" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="B104" s="47" t="s">
+      <c r="B105" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C104" s="47" t="s">
+      <c r="C105" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="D104" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F104" s="54" t="s">
+      <c r="D105" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G104" s="22"/>
-      <c r="H104" s="59"/>
-      <c r="I104" s="59"/>
-      <c r="J104" s="59"/>
-      <c r="K104" s="59"/>
-      <c r="L104" s="22"/>
-      <c r="M104" s="45"/>
-      <c r="N104" s="45"/>
-      <c r="O104" s="59"/>
-      <c r="P104" s="59"/>
-      <c r="Q104" s="22"/>
-      <c r="R104" s="59"/>
-      <c r="S104" s="45"/>
-      <c r="T104" s="59"/>
-      <c r="U104" s="59"/>
-      <c r="V104" s="47" t="s">
+      <c r="G105" s="22"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
+      <c r="K105" s="59"/>
+      <c r="L105" s="75"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="45"/>
+      <c r="O105" s="45"/>
+      <c r="P105" s="59"/>
+      <c r="Q105" s="59"/>
+      <c r="R105" s="45"/>
+      <c r="S105" s="22"/>
+      <c r="T105" s="59"/>
+      <c r="U105" s="45"/>
+      <c r="V105" s="59"/>
+      <c r="W105" s="59"/>
+      <c r="X105" s="45"/>
+      <c r="Y105" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="W104" s="22" t="s">
+      <c r="Z105" s="22" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="105" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D105" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F105" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="38"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="22"/>
-      <c r="R105" s="31"/>
-      <c r="S105" s="38"/>
-      <c r="T105" s="31"/>
-      <c r="U105" s="31"/>
-    </row>
-    <row r="106" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="15"/>
+      <c r="L106" s="75"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="38"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="75"/>
+      <c r="S106" s="22"/>
+      <c r="T106" s="31"/>
+      <c r="U106" s="38"/>
+      <c r="V106" s="31"/>
+      <c r="W106" s="31"/>
+      <c r="X106" s="75"/>
+    </row>
+    <row r="107" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D106" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F106" s="51" t="s">
+      <c r="D107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G106" s="15"/>
-      <c r="L106" s="15"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="12"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="22"/>
-      <c r="R106" s="31"/>
-      <c r="S106" s="31"/>
-      <c r="T106" s="31"/>
-      <c r="U106" s="31"/>
-    </row>
-    <row r="107" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D107" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F107" s="51" t="s">
-        <v>107</v>
-      </c>
       <c r="G107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="38"/>
-      <c r="N107" s="38"/>
+      <c r="L107" s="75"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="12"/>
       <c r="O107" s="12"/>
       <c r="P107" s="12"/>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="31"/>
-      <c r="S107" s="38"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="75"/>
+      <c r="S107" s="22"/>
       <c r="T107" s="31"/>
       <c r="U107" s="31"/>
-    </row>
-    <row r="108" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="V107" s="31"/>
+      <c r="W107" s="31"/>
+      <c r="X107" s="75"/>
+    </row>
+    <row r="108" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G108" s="15"/>
+      <c r="L108" s="75"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="38"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="75"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="31"/>
+      <c r="U108" s="38"/>
+      <c r="V108" s="31"/>
+      <c r="W108" s="31"/>
+      <c r="X108" s="75"/>
+    </row>
+    <row r="109" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D108" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E108" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F108" s="51" t="s">
+      <c r="D109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="G108" s="15"/>
-      <c r="H108" s="45" t="s">
+      <c r="G109" s="15"/>
+      <c r="H109" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="I108" s="45" t="s">
+      <c r="I109" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="J108" s="45" t="s">
+      <c r="J109" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="K108" s="45" t="s">
+      <c r="K109" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="L108" s="22"/>
-      <c r="M108" s="38" t="s">
+      <c r="L109" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="M109" s="22"/>
+      <c r="N109" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="N108" s="59" t="s">
+      <c r="O109" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="O108" s="59" t="s">
+      <c r="P109" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="P108" s="59" t="s">
+      <c r="Q109" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="59" t="s">
+      <c r="R109" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="S109" s="22"/>
+      <c r="T109" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="S108" s="38" t="s">
+      <c r="U109" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="T108" s="59" t="s">
+      <c r="V109" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="U108" s="59" t="s">
+      <c r="W109" s="59" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A109" s="4" t="s">
+      <c r="X109" s="75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A110" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D109" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="G109" s="15"/>
-      <c r="H109" s="45"/>
-      <c r="L109" s="15"/>
-      <c r="M109" s="45"/>
-      <c r="N109" s="45"/>
-      <c r="Q109" s="22"/>
-      <c r="S109" s="45"/>
-      <c r="V109" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="W109" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D110" s="4" t="b">
         <v>1</v>
@@ -5708,120 +6049,103 @@
       </c>
       <c r="G110" s="15"/>
       <c r="H110" s="45"/>
-      <c r="L110" s="15"/>
-      <c r="Q110" s="22"/>
-      <c r="V110" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="W110" s="4" t="s">
+      <c r="M110" s="15"/>
+      <c r="N110" s="45"/>
+      <c r="O110" s="45"/>
+      <c r="R110" s="45"/>
+      <c r="S110" s="22"/>
+      <c r="U110" s="45"/>
+      <c r="X110" s="45"/>
+      <c r="Y110" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z110" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="111" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" t="s">
-        <v>117</v>
-      </c>
-      <c r="D111" t="b">
-        <v>1</v>
-      </c>
-      <c r="E111" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" s="53" t="s">
-        <v>16</v>
+    <row r="111" spans="1:26" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A111" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="52" t="s">
+        <v>212</v>
       </c>
       <c r="G111" s="15"/>
       <c r="H111" s="45"/>
-      <c r="L111" s="15"/>
-      <c r="M111" s="45"/>
-      <c r="N111" s="45"/>
-      <c r="Q111" s="22"/>
-      <c r="V111" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="W111" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="M111" s="15"/>
+      <c r="S111" s="22"/>
+      <c r="Y111" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z111" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
         <v>5</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D112" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F112" s="62" t="s">
+      <c r="C112" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" s="53" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="15"/>
       <c r="H112" s="45"/>
-      <c r="I112" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="J112" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="K112" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="L112" s="15"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O112" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="P112" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q112" s="22"/>
-      <c r="R112" s="31"/>
-      <c r="S112" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="T112" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="U112" s="59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A113" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="B113" s="60" t="s">
+      <c r="M112" s="15"/>
+      <c r="N112" s="45"/>
+      <c r="O112" s="45"/>
+      <c r="R112" s="45"/>
+      <c r="S112" s="22"/>
+      <c r="Y112" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z112" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="60" t="s">
-        <v>320</v>
-      </c>
-      <c r="D113" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113" s="60" t="b">
+      <c r="C113" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F113" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G113" s="46"/>
+      <c r="G113" s="15"/>
       <c r="H113" s="45"/>
       <c r="I113" s="59" t="s">
         <v>4</v>
@@ -5832,41 +6156,50 @@
       <c r="K113" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="L113" s="15"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O113" s="59" t="s">
+      <c r="L113" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="M113" s="15"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12" t="s">
         <v>4</v>
       </c>
       <c r="P113" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="Q113" s="22"/>
-      <c r="R113" s="31"/>
-      <c r="S113" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="T113" s="59" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q113" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="R113" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="S113" s="22"/>
+      <c r="T113" s="31"/>
       <c r="U113" s="59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V113" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="W113" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="X113" s="75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A114" s="60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B114" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="60" t="s">
-        <v>122</v>
+        <v>320</v>
       </c>
       <c r="D114" s="60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" s="60" t="b">
         <v>1</v>
@@ -5876,76 +6209,112 @@
       </c>
       <c r="G114" s="46"/>
       <c r="H114" s="45"/>
-      <c r="L114" s="15"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="I114" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="J114" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="K114" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="L114" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="M114" s="15"/>
+      <c r="N114" s="12"/>
       <c r="O114" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P114" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q114" s="22"/>
-      <c r="R114" s="31"/>
-      <c r="S114" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="T114" s="59" t="s">
-        <v>4</v>
-      </c>
+      <c r="P114" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q114" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="R114" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="S114" s="22"/>
+      <c r="T114" s="31"/>
       <c r="U114" s="59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A115" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B115" s="4" t="s">
+      <c r="V114" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="W114" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="X114" s="75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D115" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E115" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F115" s="52"/>
+      <c r="C115" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D115" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" s="62" t="s">
+        <v>16</v>
+      </c>
       <c r="G115" s="46"/>
       <c r="H115" s="45"/>
-      <c r="I115"/>
-      <c r="J115"/>
-      <c r="K115"/>
-      <c r="L115" s="15"/>
-      <c r="M115" s="12"/>
+      <c r="L115" s="75"/>
+      <c r="M115" s="15"/>
       <c r="N115" s="12"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="22"/>
-      <c r="R115" s="31"/>
-      <c r="S115" s="38"/>
+      <c r="O115" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P115" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q115" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R115" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="S115" s="22"/>
       <c r="T115" s="31"/>
-      <c r="U115" s="31"/>
-    </row>
-    <row r="116" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B116" s="5" t="s">
+      <c r="U115" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="V115" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="W115" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="X115" s="75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A116" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D116" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E116" s="5" t="b">
+      <c r="C116" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D116" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F116" s="52"/>
@@ -5954,357 +6323,429 @@
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
-      <c r="L116" s="22"/>
-      <c r="M116"/>
-      <c r="N116"/>
-      <c r="O116"/>
-      <c r="P116"/>
-      <c r="Q116" s="22"/>
-      <c r="R116"/>
-      <c r="S116"/>
-      <c r="T116"/>
-      <c r="U116"/>
-    </row>
-    <row r="117" spans="1:23" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A117" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B117" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C117" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D117" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E117" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F117" s="53" t="s">
-        <v>19</v>
-      </c>
+      <c r="L116"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="75"/>
+      <c r="S116" s="22"/>
+      <c r="T116" s="31"/>
+      <c r="U116" s="38"/>
+      <c r="V116" s="31"/>
+      <c r="W116" s="31"/>
+      <c r="X116" s="75"/>
+    </row>
+    <row r="117" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D117" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" s="52"/>
       <c r="G117" s="46"/>
       <c r="H117" s="45"/>
-      <c r="I117" s="59" t="s">
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117" s="22"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117" s="22"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117"/>
+    </row>
+    <row r="118" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A118" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" s="46"/>
+      <c r="H118" s="45"/>
+      <c r="I118" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="J117" s="59" t="s">
+      <c r="J118" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="K117" s="59" t="s">
+      <c r="K118" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="L117" s="15"/>
-      <c r="M117" s="38"/>
-      <c r="N117" s="38" t="s">
+      <c r="L118" s="75" t="s">
         <v>355</v>
       </c>
-      <c r="O117" s="59" t="s">
+      <c r="M118" s="15"/>
+      <c r="N118" s="38"/>
+      <c r="O118" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="P117" s="59" t="s">
+      <c r="P118" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="Q117" s="22"/>
-      <c r="S117" s="38" t="s">
+      <c r="Q118" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="T117" s="59" t="s">
+      <c r="R118" s="75" t="s">
         <v>355</v>
       </c>
-      <c r="U117" s="59" t="s">
+      <c r="S118" s="22"/>
+      <c r="U118" s="38" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="60" t="s">
+      <c r="V118" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="W118" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="X118" s="75" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="60" t="s">
         <v>126</v>
-      </c>
-      <c r="B118" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="D118" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E118" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F118" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" s="15"/>
-      <c r="H118" s="45"/>
-      <c r="I118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L118" s="15"/>
-      <c r="M118" s="45"/>
-      <c r="N118" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="O118" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="P118" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q118" s="22"/>
-      <c r="R118" s="45"/>
-      <c r="S118" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="T118" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="U118" s="59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="60" t="s">
-        <v>232</v>
       </c>
       <c r="B119" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" s="15"/>
+      <c r="H119" s="45"/>
+      <c r="I119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L119" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="M119" s="15"/>
+      <c r="N119" s="45"/>
+      <c r="O119" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="P119" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q119" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="R119" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="S119" s="22"/>
+      <c r="T119" s="45"/>
+      <c r="U119" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="V119" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="W119" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="X119" s="75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="B120" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="D119" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E119" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F119" s="62" t="s">
+      <c r="D120" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" s="62" t="s">
         <v>16</v>
-      </c>
-      <c r="G119" s="46"/>
-      <c r="H119" s="45"/>
-      <c r="I119" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="J119" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="K119" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="L119" s="15"/>
-      <c r="M119" s="45"/>
-      <c r="N119" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="O119" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="P119" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q119" s="22"/>
-      <c r="R119" s="45"/>
-      <c r="S119" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="T119" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="U119" s="59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="B120" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="D120" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E120" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F120" s="51" t="s">
-        <v>300</v>
       </c>
       <c r="G120" s="46"/>
       <c r="H120" s="45"/>
-      <c r="L120" s="15"/>
-      <c r="M120" s="45"/>
+      <c r="I120" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="J120" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="K120" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="L120" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="M120" s="15"/>
       <c r="N120" s="45"/>
-      <c r="O120" s="12"/>
-      <c r="P120" s="12"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="31"/>
-      <c r="S120" s="45"/>
-      <c r="T120" s="31"/>
-      <c r="U120" s="31"/>
-    </row>
-    <row r="121" spans="1:23" s="71" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="72" t="s">
+      <c r="O120" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="P120" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q120" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="R120" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="S120" s="22"/>
+      <c r="T120" s="45"/>
+      <c r="U120" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="V120" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="W120" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="X120" s="75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="G121" s="46"/>
+      <c r="H121" s="45"/>
+      <c r="L121" s="75"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="45"/>
+      <c r="O121" s="45"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="45"/>
+      <c r="S121" s="22"/>
+      <c r="T121" s="31"/>
+      <c r="U121" s="45"/>
+      <c r="V121" s="31"/>
+      <c r="W121" s="31"/>
+      <c r="X121" s="45"/>
+    </row>
+    <row r="122" spans="1:26" s="71" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="72" t="s">
         <v>417</v>
       </c>
-      <c r="B121" s="72" t="s">
+      <c r="B122" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="72" t="s">
+      <c r="C122" s="72" t="s">
         <v>418</v>
       </c>
-      <c r="D121" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="E121" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="F121" s="72"/>
-      <c r="G121" s="73"/>
-      <c r="H121" s="45" t="s">
+      <c r="D122" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" s="72"/>
+      <c r="G122" s="73"/>
+      <c r="H122" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="I121" s="45" t="s">
+      <c r="I122" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="J121" s="45" t="s">
+      <c r="J122" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="K121" s="45" t="s">
+      <c r="K122" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="L121" s="73"/>
-      <c r="M121" s="72" t="s">
+      <c r="L122" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="M122" s="73"/>
+      <c r="N122" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="N121" s="72" t="s">
+      <c r="O122" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="O121" s="72" t="s">
+      <c r="P122" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="P121" s="72" t="s">
+      <c r="Q122" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="Q121" s="73"/>
-      <c r="R121" s="72" t="s">
+      <c r="R122" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="S122" s="73"/>
+      <c r="T122" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="S121" s="72" t="s">
+      <c r="U122" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="T121" s="72" t="s">
+      <c r="V122" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="U121" s="72" t="s">
+      <c r="W122" s="72" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" s="20" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A122" s="60" t="s">
+      <c r="X122" s="75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A123" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="B122" s="60" t="s">
+      <c r="B123" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C122" s="60" t="s">
+      <c r="C123" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="D122" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E122" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F122" s="51" t="s">
+      <c r="D123" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123" s="51" t="s">
         <v>249</v>
-      </c>
-      <c r="G122" s="46"/>
-      <c r="H122" s="45"/>
-      <c r="I122" s="21"/>
-      <c r="J122" s="21"/>
-      <c r="K122" s="21"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="21"/>
-      <c r="N122" s="38"/>
-      <c r="Q122" s="22"/>
-      <c r="R122" s="31"/>
-      <c r="S122" s="31"/>
-      <c r="T122" s="31"/>
-      <c r="U122" s="31"/>
-      <c r="V122" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="W122" s="20" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A123" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="B123" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="C123" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D123" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E123" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F123" s="51" t="s">
-        <v>220</v>
       </c>
       <c r="G123" s="46"/>
       <c r="H123" s="45"/>
-      <c r="I123" s="59"/>
-      <c r="J123" s="59"/>
-      <c r="K123" s="59"/>
-      <c r="L123" s="15"/>
-      <c r="M123" s="45"/>
-      <c r="N123" s="59"/>
-      <c r="O123" s="59"/>
-      <c r="P123" s="59"/>
-      <c r="Q123" s="22"/>
-      <c r="R123" s="31"/>
-      <c r="S123" s="31"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="75"/>
+      <c r="M123" s="22"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="38"/>
+      <c r="R123" s="75"/>
+      <c r="S123" s="22"/>
       <c r="T123" s="31"/>
       <c r="U123" s="31"/>
-      <c r="V123" s="47" t="s">
+      <c r="V123" s="31"/>
+      <c r="W123" s="31"/>
+      <c r="X123" s="75"/>
+      <c r="Y123" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z123" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A124" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="G124" s="46"/>
+      <c r="H124" s="45"/>
+      <c r="I124" s="59"/>
+      <c r="J124" s="59"/>
+      <c r="K124" s="59"/>
+      <c r="L124" s="75"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="45"/>
+      <c r="O124" s="59"/>
+      <c r="P124" s="59"/>
+      <c r="Q124" s="59"/>
+      <c r="R124" s="75"/>
+      <c r="S124" s="22"/>
+      <c r="T124" s="31"/>
+      <c r="U124" s="31"/>
+      <c r="V124" s="31"/>
+      <c r="W124" s="31"/>
+      <c r="X124" s="75"/>
+      <c r="Y124" s="47" t="s">
         <v>365</v>
       </c>
-      <c r="W123" s="1" t="s">
+      <c r="Z124" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A124" s="41"/>
-      <c r="B124" s="41"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="39"/>
-      <c r="M124" s="45"/>
-      <c r="Q124" s="22"/>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -6313,9 +6754,10 @@
       <c r="F125" s="41"/>
       <c r="G125" s="48"/>
       <c r="H125" s="39"/>
-      <c r="Q125" s="22"/>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="N125" s="45"/>
+      <c r="S125" s="22"/>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A126" s="41"/>
       <c r="B126" s="41"/>
       <c r="C126" s="41"/>
@@ -6324,9 +6766,9 @@
       <c r="F126" s="41"/>
       <c r="G126" s="48"/>
       <c r="H126" s="39"/>
-      <c r="Q126" s="22"/>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S126" s="22"/>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A127" s="41"/>
       <c r="B127" s="41"/>
       <c r="C127" s="41"/>
@@ -6335,9 +6777,9 @@
       <c r="F127" s="41"/>
       <c r="G127" s="48"/>
       <c r="H127" s="39"/>
-      <c r="Q127" s="22"/>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S127" s="22"/>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A128" s="41"/>
       <c r="B128" s="41"/>
       <c r="C128" s="41"/>
@@ -6346,9 +6788,9 @@
       <c r="F128" s="41"/>
       <c r="G128" s="48"/>
       <c r="H128" s="39"/>
-      <c r="Q128" s="22"/>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S128" s="22"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A129" s="41"/>
       <c r="B129" s="41"/>
       <c r="C129" s="41"/>
@@ -6357,9 +6799,9 @@
       <c r="F129" s="41"/>
       <c r="G129" s="48"/>
       <c r="H129" s="39"/>
-      <c r="Q129" s="22"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S129" s="22"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A130" s="41"/>
       <c r="B130" s="41"/>
       <c r="C130" s="41"/>
@@ -6368,9 +6810,9 @@
       <c r="F130" s="41"/>
       <c r="G130" s="48"/>
       <c r="H130" s="39"/>
-      <c r="Q130" s="22"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S130" s="22"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A131" s="41"/>
       <c r="B131" s="41"/>
       <c r="C131" s="41"/>
@@ -6379,9 +6821,9 @@
       <c r="F131" s="41"/>
       <c r="G131" s="48"/>
       <c r="H131" s="39"/>
-      <c r="Q131" s="22"/>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S131" s="22"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A132" s="41"/>
       <c r="B132" s="41"/>
       <c r="C132" s="41"/>
@@ -6390,19 +6832,20 @@
       <c r="F132" s="41"/>
       <c r="G132" s="48"/>
       <c r="H132" s="39"/>
-      <c r="Q132" s="22"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S132" s="22"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
       <c r="D133" s="41"/>
       <c r="E133" s="41"/>
-      <c r="F133" s="49"/>
+      <c r="F133" s="41"/>
       <c r="G133" s="48"/>
-      <c r="Q133" s="22"/>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="H133" s="39"/>
+      <c r="S133" s="22"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A134" s="41"/>
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
@@ -6410,9 +6853,9 @@
       <c r="E134" s="41"/>
       <c r="F134" s="49"/>
       <c r="G134" s="48"/>
-      <c r="Q134" s="22"/>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S134" s="22"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A135" s="41"/>
       <c r="B135" s="41"/>
       <c r="C135" s="41"/>
@@ -6420,9 +6863,9 @@
       <c r="E135" s="41"/>
       <c r="F135" s="49"/>
       <c r="G135" s="48"/>
-      <c r="Q135" s="22"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S135" s="22"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A136" s="41"/>
       <c r="B136" s="41"/>
       <c r="C136" s="41"/>
@@ -6430,9 +6873,9 @@
       <c r="E136" s="41"/>
       <c r="F136" s="49"/>
       <c r="G136" s="48"/>
-      <c r="Q136" s="22"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S136" s="22"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A137" s="41"/>
       <c r="B137" s="41"/>
       <c r="C137" s="41"/>
@@ -6440,9 +6883,9 @@
       <c r="E137" s="41"/>
       <c r="F137" s="49"/>
       <c r="G137" s="48"/>
-      <c r="Q137" s="22"/>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S137" s="22"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A138" s="41"/>
       <c r="B138" s="41"/>
       <c r="C138" s="41"/>
@@ -6450,9 +6893,9 @@
       <c r="E138" s="41"/>
       <c r="F138" s="49"/>
       <c r="G138" s="48"/>
-      <c r="Q138" s="22"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S138" s="22"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A139" s="41"/>
       <c r="B139" s="41"/>
       <c r="C139" s="41"/>
@@ -6460,9 +6903,9 @@
       <c r="E139" s="41"/>
       <c r="F139" s="49"/>
       <c r="G139" s="48"/>
-      <c r="Q139" s="22"/>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S139" s="22"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A140" s="41"/>
       <c r="B140" s="41"/>
       <c r="C140" s="41"/>
@@ -6470,9 +6913,9 @@
       <c r="E140" s="41"/>
       <c r="F140" s="49"/>
       <c r="G140" s="48"/>
-      <c r="Q140" s="22"/>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S140" s="22"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A141" s="41"/>
       <c r="B141" s="41"/>
       <c r="C141" s="41"/>
@@ -6480,9 +6923,9 @@
       <c r="E141" s="41"/>
       <c r="F141" s="49"/>
       <c r="G141" s="48"/>
-      <c r="Q141" s="22"/>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S141" s="22"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A142" s="41"/>
       <c r="B142" s="41"/>
       <c r="C142" s="41"/>
@@ -6490,9 +6933,9 @@
       <c r="E142" s="41"/>
       <c r="F142" s="49"/>
       <c r="G142" s="48"/>
-      <c r="Q142" s="22"/>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S142" s="22"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A143" s="41"/>
       <c r="B143" s="41"/>
       <c r="C143" s="41"/>
@@ -6500,9 +6943,9 @@
       <c r="E143" s="41"/>
       <c r="F143" s="49"/>
       <c r="G143" s="48"/>
-      <c r="Q143" s="22"/>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S143" s="22"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A144" s="41"/>
       <c r="B144" s="41"/>
       <c r="C144" s="41"/>
@@ -6510,29 +6953,29 @@
       <c r="E144" s="41"/>
       <c r="F144" s="49"/>
       <c r="G144" s="48"/>
-      <c r="Q144" s="22"/>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S144" s="22"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A145" s="41"/>
       <c r="B145" s="41"/>
       <c r="C145" s="41"/>
       <c r="D145" s="41"/>
       <c r="E145" s="41"/>
-      <c r="F145" s="41"/>
+      <c r="F145" s="49"/>
       <c r="G145" s="48"/>
-      <c r="Q145" s="22"/>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S145" s="22"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A146" s="41"/>
       <c r="B146" s="41"/>
       <c r="C146" s="41"/>
       <c r="D146" s="41"/>
       <c r="E146" s="41"/>
-      <c r="F146" s="49"/>
+      <c r="F146" s="41"/>
       <c r="G146" s="48"/>
-      <c r="Q146" s="22"/>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S146" s="22"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A147" s="41"/>
       <c r="B147" s="41"/>
       <c r="C147" s="41"/>
@@ -6540,9 +6983,9 @@
       <c r="E147" s="41"/>
       <c r="F147" s="49"/>
       <c r="G147" s="48"/>
-      <c r="Q147" s="22"/>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S147" s="22"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A148" s="41"/>
       <c r="B148" s="41"/>
       <c r="C148" s="41"/>
@@ -6550,9 +6993,9 @@
       <c r="E148" s="41"/>
       <c r="F148" s="49"/>
       <c r="G148" s="48"/>
-      <c r="Q148" s="22"/>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S148" s="22"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A149" s="41"/>
       <c r="B149" s="41"/>
       <c r="C149" s="41"/>
@@ -6560,9 +7003,9 @@
       <c r="E149" s="41"/>
       <c r="F149" s="49"/>
       <c r="G149" s="48"/>
-      <c r="Q149" s="22"/>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S149" s="22"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A150" s="41"/>
       <c r="B150" s="41"/>
       <c r="C150" s="41"/>
@@ -6570,9 +7013,9 @@
       <c r="E150" s="41"/>
       <c r="F150" s="49"/>
       <c r="G150" s="48"/>
-      <c r="Q150" s="22"/>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S150" s="22"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A151" s="41"/>
       <c r="B151" s="41"/>
       <c r="C151" s="41"/>
@@ -6580,19 +7023,19 @@
       <c r="E151" s="41"/>
       <c r="F151" s="49"/>
       <c r="G151" s="48"/>
-      <c r="Q151" s="22"/>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S151" s="22"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A152" s="41"/>
       <c r="B152" s="41"/>
       <c r="C152" s="41"/>
       <c r="D152" s="41"/>
       <c r="E152" s="41"/>
-      <c r="F152" s="41"/>
+      <c r="F152" s="49"/>
       <c r="G152" s="48"/>
-      <c r="Q152" s="22"/>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S152" s="22"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A153" s="41"/>
       <c r="B153" s="41"/>
       <c r="C153" s="41"/>
@@ -6600,9 +7043,9 @@
       <c r="E153" s="41"/>
       <c r="F153" s="41"/>
       <c r="G153" s="48"/>
-      <c r="Q153" s="22"/>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S153" s="22"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A154" s="41"/>
       <c r="B154" s="41"/>
       <c r="C154" s="41"/>
@@ -6610,15 +7053,25 @@
       <c r="E154" s="41"/>
       <c r="F154" s="41"/>
       <c r="G154" s="48"/>
+      <c r="S154" s="22"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A155" s="41"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="41"/>
+      <c r="E155" s="41"/>
+      <c r="F155" s="41"/>
+      <c r="G155" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="Y7:Y8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="Y46:Y47"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
@@ -6626,9 +7079,9 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H20" r:id="rId1" display="standaarden.ondersteuning@vng.nl" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F45" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H20" r:id="rId1" display="standaarden.ondersteuning@vng.nl"/>
+    <hyperlink ref="F20" r:id="rId2"/>
+    <hyperlink ref="F45" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId4"/>
@@ -6636,25 +7089,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="52.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" customWidth="1"/>
+    <col min="2" max="2" width="52.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>229</v>
       </c>
@@ -6662,7 +7115,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>230</v>
       </c>
@@ -6670,8 +7123,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:2" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>208</v>
       </c>
@@ -6679,7 +7132,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>209</v>
       </c>
@@ -6687,7 +7140,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>210</v>
       </c>
@@ -6695,7 +7148,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/input/KING/props/KING.xlsx
+++ b/src/main/resources/input/KING/props/KING.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\KING\props\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\KING\Kern-taken\Imvertor\Imvertor-Maven\src\main\resources\input\KING\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF6E078-999C-4156-93CE-8478E6E00445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="28690" yWindow="-5440" windowWidth="51820" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KING" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="427">
   <si>
     <t>Name</t>
   </si>
@@ -1331,11 +1332,15 @@
   <si>
     <t>Should a regression test be performed on the results of this run?</t>
   </si>
+  <si>
+    <t>respec
+msword</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1529,7 +1534,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1736,6 +1741,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1744,13 +1752,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Controlecel" xfId="1" builtinId="23"/>
+    <cellStyle name="Goed" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Neutral 2" xfId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutral 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Verklarende tekst" xfId="3" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2027,49 +2035,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E64" sqref="E64"/>
       <selection pane="topRight" activeCell="E64" sqref="E64"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
-      <selection pane="bottomRight" activeCell="Y93" sqref="Y93"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36:L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.84375" customWidth="1"/>
-    <col min="2" max="2" width="20.15234375" customWidth="1"/>
-    <col min="3" max="3" width="50.69140625" customWidth="1"/>
-    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="50.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="2.69140625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.61328125" customWidth="1"/>
-    <col min="9" max="9" width="14.69140625" customWidth="1"/>
-    <col min="10" max="10" width="14.23046875" customWidth="1"/>
-    <col min="11" max="11" width="15.69140625" customWidth="1"/>
-    <col min="12" max="12" width="12.765625" customWidth="1"/>
-    <col min="13" max="13" width="2.3828125" style="18" customWidth="1"/>
-    <col min="14" max="14" width="18.69140625" customWidth="1"/>
-    <col min="15" max="15" width="16.07421875" customWidth="1"/>
-    <col min="16" max="17" width="15.69140625" customWidth="1"/>
-    <col min="18" max="18" width="12.921875" customWidth="1"/>
-    <col min="19" max="19" width="2.3828125" style="18" customWidth="1"/>
-    <col min="20" max="20" width="19.921875" customWidth="1"/>
-    <col min="21" max="21" width="19.61328125" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" customWidth="1"/>
+    <col min="13" max="13" width="2.36328125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" customWidth="1"/>
+    <col min="15" max="15" width="16.08984375" customWidth="1"/>
+    <col min="16" max="17" width="15.7265625" customWidth="1"/>
+    <col min="18" max="18" width="12.90625" customWidth="1"/>
+    <col min="19" max="19" width="2.36328125" style="18" customWidth="1"/>
+    <col min="20" max="20" width="19.90625" customWidth="1"/>
+    <col min="21" max="21" width="19.6328125" customWidth="1"/>
     <col min="22" max="23" width="18" customWidth="1"/>
-    <col min="24" max="24" width="19.61328125" customWidth="1"/>
-    <col min="25" max="25" width="63.61328125" customWidth="1"/>
-    <col min="26" max="26" width="30.07421875" customWidth="1"/>
+    <col min="24" max="24" width="19.6328125" customWidth="1"/>
+    <col min="25" max="25" width="63.6328125" customWidth="1"/>
+    <col min="26" max="26" width="30.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="38" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2140,7 +2148,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F2" s="57"/>
       <c r="G2" s="14"/>
       <c r="H2" s="2" t="s">
@@ -2191,7 +2199,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="44" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -2223,7 +2231,7 @@
       <c r="W3" s="31"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2257,7 +2265,7 @@
       <c r="W4" s="31"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2291,7 +2299,7 @@
       <c r="W5" s="31"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -2312,17 +2320,17 @@
       <c r="M6" s="15"/>
       <c r="S6" s="22"/>
     </row>
-    <row r="7" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A7" s="77" t="s">
+    <row r="7" spans="1:26" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="77" t="b">
+      <c r="D7" s="78" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
@@ -2343,18 +2351,18 @@
       <c r="V7" s="31"/>
       <c r="W7" s="31"/>
       <c r="X7" s="75"/>
-      <c r="Y7" s="76" t="s">
+      <c r="Y7" s="77" t="s">
         <v>351</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
+    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
       <c r="F8" s="51"/>
       <c r="G8" s="15"/>
       <c r="L8" s="75"/>
@@ -2370,9 +2378,9 @@
       <c r="V8" s="31"/>
       <c r="W8" s="31"/>
       <c r="X8" s="75"/>
-      <c r="Y8" s="76"/>
-    </row>
-    <row r="9" spans="1:26" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Y8" s="77"/>
+    </row>
+    <row r="9" spans="1:26" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>159</v>
       </c>
@@ -2401,7 +2409,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2435,7 +2443,7 @@
       <c r="W10" s="31"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>161</v>
       </c>
@@ -2456,7 +2464,7 @@
       <c r="M11" s="15"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>134</v>
       </c>
@@ -2488,7 +2496,7 @@
       <c r="W12" s="31"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:26" s="8" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
@@ -2526,7 +2534,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2560,7 +2568,7 @@
       <c r="W14" s="31"/>
       <c r="X14" s="75"/>
     </row>
-    <row r="15" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2600,7 +2608,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2638,7 +2646,7 @@
       </c>
       <c r="Z16" s="59"/>
     </row>
-    <row r="17" spans="1:26" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" s="1" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>215</v>
       </c>
@@ -2672,7 +2680,7 @@
       <c r="W17" s="31"/>
       <c r="X17" s="75"/>
     </row>
-    <row r="18" spans="1:26" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>217</v>
       </c>
@@ -2746,7 +2754,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>163</v>
       </c>
@@ -2780,7 +2788,7 @@
       <c r="W19" s="31"/>
       <c r="X19" s="75"/>
     </row>
-    <row r="20" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
@@ -2820,7 +2828,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>139</v>
       </c>
@@ -2861,7 +2869,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
@@ -2901,7 +2909,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>25</v>
       </c>
@@ -2934,7 +2942,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>165</v>
       </c>
@@ -2966,7 +2974,7 @@
       <c r="W24" s="31"/>
       <c r="X24" s="75"/>
     </row>
-    <row r="25" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3006,7 +3014,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3056,7 +3064,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="70" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="70" t="s">
         <v>416</v>
       </c>
@@ -3100,7 +3108,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3137,7 +3145,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>144</v>
       </c>
@@ -3174,7 +3182,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="37" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" s="37" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>288</v>
       </c>
@@ -3202,7 +3210,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="23" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>250</v>
       </c>
@@ -3240,7 +3248,7 @@
       </c>
       <c r="Z31" s="50"/>
     </row>
-    <row r="32" spans="1:26" s="25" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>255</v>
       </c>
@@ -3282,7 +3290,7 @@
       </c>
       <c r="Z32" s="50"/>
     </row>
-    <row r="33" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -3327,7 +3335,7 @@
       <c r="W33" s="59"/>
       <c r="X33" s="75"/>
     </row>
-    <row r="34" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>167</v>
       </c>
@@ -3361,7 +3369,7 @@
       <c r="W34" s="31"/>
       <c r="X34" s="75"/>
     </row>
-    <row r="35" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
@@ -3396,7 +3404,7 @@
       <c r="X35" s="45"/>
       <c r="Y35" s="43"/>
     </row>
-    <row r="36" spans="1:26" s="30" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
         <v>260</v>
       </c>
@@ -3416,7 +3424,18 @@
         <v>292</v>
       </c>
       <c r="G36" s="22"/>
-      <c r="L36" s="75"/>
+      <c r="I36" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="J36" s="76" t="s">
+        <v>426</v>
+      </c>
+      <c r="K36" s="76" t="s">
+        <v>426</v>
+      </c>
+      <c r="L36" s="76" t="s">
+        <v>426</v>
+      </c>
       <c r="M36" s="22"/>
       <c r="N36" s="38"/>
       <c r="R36" s="75"/>
@@ -3428,7 +3447,7 @@
       <c r="X36" s="45"/>
       <c r="Y36" s="43"/>
     </row>
-    <row r="37" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -3461,7 +3480,7 @@
       <c r="W37" s="31"/>
       <c r="X37" s="75"/>
     </row>
-    <row r="38" spans="1:26" s="32" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" s="32" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>272</v>
       </c>
@@ -3487,7 +3506,7 @@
       </c>
       <c r="Z38" s="50"/>
     </row>
-    <row r="39" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -3522,7 +3541,7 @@
       <c r="W39" s="31"/>
       <c r="X39" s="75"/>
     </row>
-    <row r="40" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -3563,7 +3582,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -3598,7 +3617,7 @@
       <c r="W41" s="31"/>
       <c r="X41" s="75"/>
     </row>
-    <row r="42" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>254</v>
       </c>
@@ -3636,7 +3655,7 @@
       <c r="W42" s="59"/>
       <c r="X42" s="75"/>
     </row>
-    <row r="43" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>173</v>
       </c>
@@ -3681,7 +3700,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>45</v>
       </c>
@@ -3718,7 +3737,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44" t="s">
         <v>47</v>
       </c>
@@ -3752,17 +3771,17 @@
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="77" t="s">
+    <row r="46" spans="1:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="77" t="b">
+      <c r="D46" s="78" t="b">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="b">
@@ -3785,18 +3804,18 @@
       <c r="V46" s="31"/>
       <c r="W46" s="31"/>
       <c r="X46" s="45"/>
-      <c r="Y46" s="76" t="s">
+      <c r="Y46" s="77" t="s">
         <v>351</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
+    <row r="47" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="78"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
       <c r="F47" s="51"/>
       <c r="G47" s="15"/>
       <c r="L47" s="75"/>
@@ -3812,9 +3831,9 @@
       <c r="V47" s="31"/>
       <c r="W47" s="31"/>
       <c r="X47" s="75"/>
-      <c r="Y47" s="76"/>
-    </row>
-    <row r="48" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="Y47" s="77"/>
+    </row>
+    <row r="48" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -3846,7 +3865,7 @@
       <c r="W48" s="31"/>
       <c r="X48" s="75"/>
     </row>
-    <row r="49" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -3880,7 +3899,7 @@
       <c r="W49" s="31"/>
       <c r="X49" s="75"/>
     </row>
-    <row r="50" spans="1:26" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:26" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -3920,7 +3939,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:26" s="1" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>213</v>
       </c>
@@ -3992,7 +4011,7 @@
       </c>
       <c r="Z51"/>
     </row>
-    <row r="52" spans="1:26" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:26" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>178</v>
       </c>
@@ -4018,7 +4037,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="4" customFormat="1" ht="86.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:26" s="4" customFormat="1" ht="86.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>180</v>
       </c>
@@ -4057,7 +4076,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
@@ -4090,7 +4109,7 @@
       <c r="X54" s="75"/>
       <c r="Y54" s="43"/>
     </row>
-    <row r="55" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
@@ -4128,7 +4147,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:26" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>61</v>
       </c>
@@ -4160,7 +4179,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>183</v>
       </c>
@@ -4195,7 +4214,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="65" t="s">
         <v>278</v>
       </c>
@@ -4232,7 +4251,7 @@
       </c>
       <c r="Z58" s="50"/>
     </row>
-    <row r="59" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>280</v>
       </c>
@@ -4257,7 +4276,7 @@
       </c>
       <c r="Z59" s="50"/>
     </row>
-    <row r="60" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>185</v>
       </c>
@@ -4280,7 +4299,7 @@
       <c r="Y60" s="43"/>
       <c r="Z60" s="50"/>
     </row>
-    <row r="61" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>283</v>
       </c>
@@ -4315,7 +4334,7 @@
       </c>
       <c r="Z61" s="50"/>
     </row>
-    <row r="62" spans="1:26" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>233</v>
       </c>
@@ -4357,7 +4376,7 @@
       </c>
       <c r="Z62" s="50"/>
     </row>
-    <row r="63" spans="1:26" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:26" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
@@ -4383,7 +4402,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
@@ -4419,7 +4438,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="37" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:26" s="37" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>295</v>
       </c>
@@ -4450,7 +4469,7 @@
       </c>
       <c r="Z65" s="61"/>
     </row>
-    <row r="66" spans="1:26" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -4476,7 +4495,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:26" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>297</v>
       </c>
@@ -4497,7 +4516,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="65" t="s">
         <v>252</v>
       </c>
@@ -4521,7 +4540,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -4555,7 +4574,7 @@
       <c r="W69" s="31"/>
       <c r="X69" s="75"/>
     </row>
-    <row r="70" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -4590,7 +4609,7 @@
       <c r="W70" s="31"/>
       <c r="X70" s="45"/>
     </row>
-    <row r="71" spans="1:26" s="19" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:26" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="19" t="s">
         <v>244</v>
       </c>
@@ -4629,7 +4648,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>189</v>
       </c>
@@ -4666,7 +4685,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -4734,7 +4753,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
         <v>192</v>
       </c>
@@ -4766,7 +4785,7 @@
       <c r="W74" s="59"/>
       <c r="X74" s="75"/>
     </row>
-    <row r="75" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
         <v>74</v>
       </c>
@@ -4801,7 +4820,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>419</v>
       </c>
@@ -4832,7 +4851,7 @@
       <c r="Y76" s="42"/>
       <c r="Z76" s="73"/>
     </row>
-    <row r="77" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>211</v>
       </c>
@@ -4866,7 +4885,7 @@
       <c r="W77" s="31"/>
       <c r="X77" s="75"/>
     </row>
-    <row r="78" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -4901,7 +4920,7 @@
       <c r="W78" s="31"/>
       <c r="X78" s="32"/>
     </row>
-    <row r="79" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -4969,7 +4988,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -5004,7 +5023,7 @@
       <c r="W80" s="31"/>
       <c r="X80" s="45"/>
     </row>
-    <row r="81" spans="1:26" s="4" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:26" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>83</v>
       </c>
@@ -5039,7 +5058,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:26" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>301</v>
       </c>
@@ -5061,7 +5080,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>193</v>
       </c>
@@ -5099,7 +5118,7 @@
       </c>
       <c r="Z83" s="4"/>
     </row>
-    <row r="84" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>303</v>
       </c>
@@ -5122,7 +5141,7 @@
       </c>
       <c r="Z84" s="4"/>
     </row>
-    <row r="85" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>306</v>
       </c>
@@ -5145,7 +5164,7 @@
       </c>
       <c r="Z85" s="4"/>
     </row>
-    <row r="86" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>309</v>
       </c>
@@ -5168,7 +5187,7 @@
       </c>
       <c r="Z86" s="4"/>
     </row>
-    <row r="87" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>312</v>
       </c>
@@ -5191,7 +5210,7 @@
       </c>
       <c r="Z87" s="4"/>
     </row>
-    <row r="88" spans="1:26" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:26" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>196</v>
       </c>
@@ -5217,7 +5236,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
@@ -5291,7 +5310,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="90" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
@@ -5332,7 +5351,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>91</v>
       </c>
@@ -5364,7 +5383,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="92" spans="1:26" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:26" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>147</v>
       </c>
@@ -5390,7 +5409,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="93" spans="1:26" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:26" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="32" t="s">
         <v>424</v>
       </c>
@@ -5423,7 +5442,7 @@
       </c>
       <c r="Y93" s="58"/>
     </row>
-    <row r="94" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:26" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -5458,7 +5477,7 @@
       <c r="W94" s="31"/>
       <c r="X94" s="45"/>
     </row>
-    <row r="95" spans="1:26" s="38" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:26" s="38" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A95" s="60" t="s">
         <v>314</v>
       </c>
@@ -5490,7 +5509,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="60" t="s">
         <v>218</v>
       </c>
@@ -5527,7 +5546,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="97" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>149</v>
       </c>
@@ -5567,7 +5586,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="98" spans="1:26" s="26" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:26" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A98" s="26" t="s">
         <v>98</v>
       </c>
@@ -5603,7 +5622,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="99" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>198</v>
       </c>
@@ -5640,7 +5659,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="100" spans="1:26" s="9" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:26" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>240</v>
       </c>
@@ -5675,7 +5694,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="101" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:26" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>214</v>
       </c>
@@ -5715,7 +5734,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="102" spans="1:26" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:26" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -5749,7 +5768,7 @@
       <c r="W102" s="31"/>
       <c r="X102" s="75"/>
     </row>
-    <row r="103" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>274</v>
       </c>
@@ -5773,7 +5792,7 @@
       <c r="M103" s="22"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" spans="1:26" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:26" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -5814,7 +5833,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="105" spans="1:26" s="38" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:26" s="38" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A105" s="61" t="s">
         <v>318</v>
       </c>
@@ -5858,7 +5877,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="106" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -5892,7 +5911,7 @@
       <c r="W106" s="31"/>
       <c r="X106" s="75"/>
     </row>
-    <row r="107" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>201</v>
       </c>
@@ -5926,7 +5945,7 @@
       <c r="W107" s="31"/>
       <c r="X107" s="75"/>
     </row>
-    <row r="108" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -5960,7 +5979,7 @@
       <c r="W108" s="31"/>
       <c r="X108" s="75"/>
     </row>
-    <row r="109" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -6028,7 +6047,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="110" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>112</v>
       </c>
@@ -6063,7 +6082,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="111" spans="1:26" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:26" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>114</v>
       </c>
@@ -6093,7 +6112,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="112" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -6126,7 +6145,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="113" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>118</v>
       </c>
@@ -6188,7 +6207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="60" t="s">
         <v>120</v>
       </c>
@@ -6250,7 +6269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="60" t="s">
         <v>121</v>
       </c>
@@ -6301,7 +6320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>151</v>
       </c>
@@ -6337,7 +6356,7 @@
       <c r="W116" s="31"/>
       <c r="X116" s="75"/>
     </row>
-    <row r="117" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>276</v>
       </c>
@@ -6373,7 +6392,7 @@
       <c r="W117"/>
       <c r="X117"/>
     </row>
-    <row r="118" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="44" t="s">
         <v>123</v>
       </c>
@@ -6434,7 +6453,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="60" t="s">
         <v>126</v>
       </c>
@@ -6496,7 +6515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="60" t="s">
         <v>232</v>
       </c>
@@ -6558,7 +6577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="60" t="s">
         <v>129</v>
       </c>
@@ -6593,7 +6612,7 @@
       <c r="W121" s="31"/>
       <c r="X121" s="45"/>
     </row>
-    <row r="122" spans="1:26" s="71" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:26" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="72" t="s">
         <v>417</v>
       </c>
@@ -6659,7 +6678,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="123" spans="1:26" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:26" s="20" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="60" t="s">
         <v>247</v>
       </c>
@@ -6701,7 +6720,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="124" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="60" t="s">
         <v>131</v>
       </c>
@@ -6745,7 +6764,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -6757,7 +6776,7 @@
       <c r="N125" s="45"/>
       <c r="S125" s="22"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126" s="41"/>
       <c r="B126" s="41"/>
       <c r="C126" s="41"/>
@@ -6768,7 +6787,7 @@
       <c r="H126" s="39"/>
       <c r="S126" s="22"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127" s="41"/>
       <c r="B127" s="41"/>
       <c r="C127" s="41"/>
@@ -6779,7 +6798,7 @@
       <c r="H127" s="39"/>
       <c r="S127" s="22"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128" s="41"/>
       <c r="B128" s="41"/>
       <c r="C128" s="41"/>
@@ -6790,7 +6809,7 @@
       <c r="H128" s="39"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="41"/>
       <c r="B129" s="41"/>
       <c r="C129" s="41"/>
@@ -6801,7 +6820,7 @@
       <c r="H129" s="39"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="41"/>
       <c r="B130" s="41"/>
       <c r="C130" s="41"/>
@@ -6812,7 +6831,7 @@
       <c r="H130" s="39"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="41"/>
       <c r="B131" s="41"/>
       <c r="C131" s="41"/>
@@ -6823,7 +6842,7 @@
       <c r="H131" s="39"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" s="41"/>
       <c r="B132" s="41"/>
       <c r="C132" s="41"/>
@@ -6834,7 +6853,7 @@
       <c r="H132" s="39"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
@@ -6845,7 +6864,7 @@
       <c r="H133" s="39"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" s="41"/>
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
@@ -6855,7 +6874,7 @@
       <c r="G134" s="48"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" s="41"/>
       <c r="B135" s="41"/>
       <c r="C135" s="41"/>
@@ -6865,7 +6884,7 @@
       <c r="G135" s="48"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" s="41"/>
       <c r="B136" s="41"/>
       <c r="C136" s="41"/>
@@ -6875,7 +6894,7 @@
       <c r="G136" s="48"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" s="41"/>
       <c r="B137" s="41"/>
       <c r="C137" s="41"/>
@@ -6885,7 +6904,7 @@
       <c r="G137" s="48"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" s="41"/>
       <c r="B138" s="41"/>
       <c r="C138" s="41"/>
@@ -6895,7 +6914,7 @@
       <c r="G138" s="48"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" s="41"/>
       <c r="B139" s="41"/>
       <c r="C139" s="41"/>
@@ -6905,7 +6924,7 @@
       <c r="G139" s="48"/>
       <c r="S139" s="22"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" s="41"/>
       <c r="B140" s="41"/>
       <c r="C140" s="41"/>
@@ -6915,7 +6934,7 @@
       <c r="G140" s="48"/>
       <c r="S140" s="22"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" s="41"/>
       <c r="B141" s="41"/>
       <c r="C141" s="41"/>
@@ -6925,7 +6944,7 @@
       <c r="G141" s="48"/>
       <c r="S141" s="22"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" s="41"/>
       <c r="B142" s="41"/>
       <c r="C142" s="41"/>
@@ -6935,7 +6954,7 @@
       <c r="G142" s="48"/>
       <c r="S142" s="22"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" s="41"/>
       <c r="B143" s="41"/>
       <c r="C143" s="41"/>
@@ -6945,7 +6964,7 @@
       <c r="G143" s="48"/>
       <c r="S143" s="22"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" s="41"/>
       <c r="B144" s="41"/>
       <c r="C144" s="41"/>
@@ -6955,7 +6974,7 @@
       <c r="G144" s="48"/>
       <c r="S144" s="22"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" s="41"/>
       <c r="B145" s="41"/>
       <c r="C145" s="41"/>
@@ -6965,7 +6984,7 @@
       <c r="G145" s="48"/>
       <c r="S145" s="22"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" s="41"/>
       <c r="B146" s="41"/>
       <c r="C146" s="41"/>
@@ -6975,7 +6994,7 @@
       <c r="G146" s="48"/>
       <c r="S146" s="22"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" s="41"/>
       <c r="B147" s="41"/>
       <c r="C147" s="41"/>
@@ -6985,7 +7004,7 @@
       <c r="G147" s="48"/>
       <c r="S147" s="22"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" s="41"/>
       <c r="B148" s="41"/>
       <c r="C148" s="41"/>
@@ -6995,7 +7014,7 @@
       <c r="G148" s="48"/>
       <c r="S148" s="22"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" s="41"/>
       <c r="B149" s="41"/>
       <c r="C149" s="41"/>
@@ -7005,7 +7024,7 @@
       <c r="G149" s="48"/>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" s="41"/>
       <c r="B150" s="41"/>
       <c r="C150" s="41"/>
@@ -7015,7 +7034,7 @@
       <c r="G150" s="48"/>
       <c r="S150" s="22"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" s="41"/>
       <c r="B151" s="41"/>
       <c r="C151" s="41"/>
@@ -7025,7 +7044,7 @@
       <c r="G151" s="48"/>
       <c r="S151" s="22"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" s="41"/>
       <c r="B152" s="41"/>
       <c r="C152" s="41"/>
@@ -7035,7 +7054,7 @@
       <c r="G152" s="48"/>
       <c r="S152" s="22"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" s="41"/>
       <c r="B153" s="41"/>
       <c r="C153" s="41"/>
@@ -7045,7 +7064,7 @@
       <c r="G153" s="48"/>
       <c r="S153" s="22"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" s="41"/>
       <c r="B154" s="41"/>
       <c r="C154" s="41"/>
@@ -7055,7 +7074,7 @@
       <c r="G154" s="48"/>
       <c r="S154" s="22"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" s="41"/>
       <c r="B155" s="41"/>
       <c r="C155" s="41"/>
@@ -7066,22 +7085,22 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Y46:Y47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="Y7:Y8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="Y46:Y47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H20" r:id="rId1" display="standaarden.ondersteuning@vng.nl"/>
-    <hyperlink ref="F20" r:id="rId2"/>
-    <hyperlink ref="F45" r:id="rId3"/>
+    <hyperlink ref="H20" r:id="rId1" display="standaarden.ondersteuning@vng.nl" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F45" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId4"/>
@@ -7089,25 +7108,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" customWidth="1"/>
-    <col min="2" max="2" width="52.23046875" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>229</v>
       </c>
@@ -7115,7 +7134,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>230</v>
       </c>
@@ -7123,8 +7142,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:2" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>208</v>
       </c>
@@ -7132,7 +7151,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>209</v>
       </c>
@@ -7140,7 +7159,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>210</v>
       </c>
@@ -7148,7 +7167,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/input/KING/props/KING.xlsx
+++ b/src/main/resources/input/KING/props/KING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\KING\Kern-taken\Imvertor\Imvertor-Maven\src\main\resources\input\KING\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF6E078-999C-4156-93CE-8478E6E00445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8589F725-48B2-4F2E-B4A0-ED2FB46F09BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-5440" windowWidth="51820" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1333,8 +1333,7 @@
     <t>Should a regression test be performed on the results of this run?</t>
   </si>
   <si>
-    <t>respec
-msword</t>
+    <t>respec</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2045,7 @@
       <selection activeCell="E64" sqref="E64"/>
       <selection pane="topRight" activeCell="E64" sqref="E64"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36:L36"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7085,16 +7084,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="Y46:Y47"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>

--- a/src/main/resources/input/KING/props/KING.xlsx
+++ b/src/main/resources/input/KING/props/KING.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\KING\props\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\KING\Kern-taken\Imvertor\Imvertor-Maven\src\main\resources\input\KING\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA3D489-4035-4CA9-82A9-5700E8B50709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="28690" yWindow="-5440" windowWidth="51820" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KING" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="429">
   <si>
     <t>Name</t>
   </si>
@@ -1331,11 +1332,20 @@
   <si>
     <t>Should a regression test be performed on the results of this run?</t>
   </si>
+  <si>
+    <t>Het lijkt er op dat je helemaal niet meerdere formats kunt definiëren gescheiden door een spatie. Alleen het eerste type dat gedefinieerd wordt, wordt gegenereerd.</t>
+  </si>
+  <si>
+    <t>De 'doc' optie lijkt nog niet geïmplementeerd.</t>
+  </si>
+  <si>
+    <t>Het maakt voor het formaat niet uit welke variant je specificeert, 'id' of 'name'.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1744,13 +1754,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Controlecel" xfId="1" builtinId="23"/>
+    <cellStyle name="Goed" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Neutral 2" xfId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutral 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Verklarende tekst" xfId="3" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2027,49 +2037,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E64" sqref="E64"/>
       <selection pane="topRight" activeCell="E64" sqref="E64"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
-      <selection pane="bottomRight" activeCell="Y93" sqref="Y93"/>
+      <selection pane="bottomRight" activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.84375" customWidth="1"/>
-    <col min="2" max="2" width="20.15234375" customWidth="1"/>
-    <col min="3" max="3" width="50.69140625" customWidth="1"/>
-    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="50.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="2.69140625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.61328125" customWidth="1"/>
-    <col min="9" max="9" width="14.69140625" customWidth="1"/>
-    <col min="10" max="10" width="14.23046875" customWidth="1"/>
-    <col min="11" max="11" width="15.69140625" customWidth="1"/>
-    <col min="12" max="12" width="12.765625" customWidth="1"/>
-    <col min="13" max="13" width="2.3828125" style="18" customWidth="1"/>
-    <col min="14" max="14" width="18.69140625" customWidth="1"/>
-    <col min="15" max="15" width="16.07421875" customWidth="1"/>
-    <col min="16" max="17" width="15.69140625" customWidth="1"/>
-    <col min="18" max="18" width="12.921875" customWidth="1"/>
-    <col min="19" max="19" width="2.3828125" style="18" customWidth="1"/>
-    <col min="20" max="20" width="19.921875" customWidth="1"/>
-    <col min="21" max="21" width="19.61328125" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" customWidth="1"/>
+    <col min="13" max="13" width="2.36328125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" customWidth="1"/>
+    <col min="15" max="15" width="16.08984375" customWidth="1"/>
+    <col min="16" max="17" width="15.7265625" customWidth="1"/>
+    <col min="18" max="18" width="12.90625" customWidth="1"/>
+    <col min="19" max="19" width="2.36328125" style="18" customWidth="1"/>
+    <col min="20" max="20" width="19.90625" customWidth="1"/>
+    <col min="21" max="21" width="19.6328125" customWidth="1"/>
     <col min="22" max="23" width="18" customWidth="1"/>
-    <col min="24" max="24" width="19.61328125" customWidth="1"/>
-    <col min="25" max="25" width="63.61328125" customWidth="1"/>
-    <col min="26" max="26" width="30.07421875" customWidth="1"/>
+    <col min="24" max="24" width="19.6328125" customWidth="1"/>
+    <col min="25" max="25" width="63.6328125" customWidth="1"/>
+    <col min="26" max="26" width="30.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="38" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2140,7 +2150,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F2" s="57"/>
       <c r="G2" s="14"/>
       <c r="H2" s="2" t="s">
@@ -2191,7 +2201,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="44" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -2223,7 +2233,7 @@
       <c r="W3" s="31"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2257,7 +2267,7 @@
       <c r="W4" s="31"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2291,7 +2301,7 @@
       <c r="W5" s="31"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -2312,7 +2322,7 @@
       <c r="M6" s="15"/>
       <c r="S6" s="22"/>
     </row>
-    <row r="7" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="77" t="s">
         <v>9</v>
       </c>
@@ -2350,7 +2360,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="77"/>
       <c r="B8" s="77"/>
       <c r="C8" s="77"/>
@@ -2372,7 +2382,7 @@
       <c r="X8" s="75"/>
       <c r="Y8" s="76"/>
     </row>
-    <row r="9" spans="1:26" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>159</v>
       </c>
@@ -2401,7 +2411,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2435,7 +2445,7 @@
       <c r="W10" s="31"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>161</v>
       </c>
@@ -2456,7 +2466,7 @@
       <c r="M11" s="15"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>134</v>
       </c>
@@ -2488,7 +2498,7 @@
       <c r="W12" s="31"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:26" s="8" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
@@ -2526,7 +2536,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2560,7 +2570,7 @@
       <c r="W14" s="31"/>
       <c r="X14" s="75"/>
     </row>
-    <row r="15" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2600,7 +2610,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2638,7 +2648,7 @@
       </c>
       <c r="Z16" s="59"/>
     </row>
-    <row r="17" spans="1:26" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" s="1" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>215</v>
       </c>
@@ -2672,7 +2682,7 @@
       <c r="W17" s="31"/>
       <c r="X17" s="75"/>
     </row>
-    <row r="18" spans="1:26" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>217</v>
       </c>
@@ -2746,7 +2756,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>163</v>
       </c>
@@ -2780,7 +2790,7 @@
       <c r="W19" s="31"/>
       <c r="X19" s="75"/>
     </row>
-    <row r="20" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
@@ -2820,7 +2830,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>139</v>
       </c>
@@ -2861,7 +2871,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
@@ -2901,7 +2911,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>25</v>
       </c>
@@ -2934,7 +2944,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>165</v>
       </c>
@@ -2966,7 +2976,7 @@
       <c r="W24" s="31"/>
       <c r="X24" s="75"/>
     </row>
-    <row r="25" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3006,7 +3016,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3056,7 +3066,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="70" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="70" t="s">
         <v>416</v>
       </c>
@@ -3100,7 +3110,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3137,7 +3147,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>144</v>
       </c>
@@ -3174,7 +3184,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="37" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" s="37" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>288</v>
       </c>
@@ -3202,7 +3212,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="23" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>250</v>
       </c>
@@ -3240,7 +3250,7 @@
       </c>
       <c r="Z31" s="50"/>
     </row>
-    <row r="32" spans="1:26" s="25" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>255</v>
       </c>
@@ -3282,7 +3292,7 @@
       </c>
       <c r="Z32" s="50"/>
     </row>
-    <row r="33" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -3326,8 +3336,11 @@
       <c r="V33" s="59"/>
       <c r="W33" s="59"/>
       <c r="X33" s="75"/>
-    </row>
-    <row r="34" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="Y33" s="58" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>167</v>
       </c>
@@ -3360,8 +3373,11 @@
       <c r="V34" s="31"/>
       <c r="W34" s="31"/>
       <c r="X34" s="75"/>
-    </row>
-    <row r="35" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Y34" s="58" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
@@ -3396,7 +3412,7 @@
       <c r="X35" s="45"/>
       <c r="Y35" s="43"/>
     </row>
-    <row r="36" spans="1:26" s="30" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
         <v>260</v>
       </c>
@@ -3426,9 +3442,11 @@
       <c r="V36" s="31"/>
       <c r="W36" s="31"/>
       <c r="X36" s="45"/>
-      <c r="Y36" s="43"/>
-    </row>
-    <row r="37" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Y36" s="43" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -3461,7 +3479,7 @@
       <c r="W37" s="31"/>
       <c r="X37" s="75"/>
     </row>
-    <row r="38" spans="1:26" s="32" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" s="32" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>272</v>
       </c>
@@ -3487,7 +3505,7 @@
       </c>
       <c r="Z38" s="50"/>
     </row>
-    <row r="39" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -3522,7 +3540,7 @@
       <c r="W39" s="31"/>
       <c r="X39" s="75"/>
     </row>
-    <row r="40" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -3563,7 +3581,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -3598,7 +3616,7 @@
       <c r="W41" s="31"/>
       <c r="X41" s="75"/>
     </row>
-    <row r="42" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>254</v>
       </c>
@@ -3636,7 +3654,7 @@
       <c r="W42" s="59"/>
       <c r="X42" s="75"/>
     </row>
-    <row r="43" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>173</v>
       </c>
@@ -3681,7 +3699,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>45</v>
       </c>
@@ -3718,7 +3736,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44" t="s">
         <v>47</v>
       </c>
@@ -3752,7 +3770,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="77" t="s">
         <v>50</v>
       </c>
@@ -3792,7 +3810,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="77"/>
       <c r="B47" s="77"/>
       <c r="C47" s="77"/>
@@ -3814,7 +3832,7 @@
       <c r="X47" s="75"/>
       <c r="Y47" s="76"/>
     </row>
-    <row r="48" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -3846,7 +3864,7 @@
       <c r="W48" s="31"/>
       <c r="X48" s="75"/>
     </row>
-    <row r="49" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -3880,7 +3898,7 @@
       <c r="W49" s="31"/>
       <c r="X49" s="75"/>
     </row>
-    <row r="50" spans="1:26" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:26" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -3920,7 +3938,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:26" s="1" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>213</v>
       </c>
@@ -3992,7 +4010,7 @@
       </c>
       <c r="Z51"/>
     </row>
-    <row r="52" spans="1:26" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:26" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>178</v>
       </c>
@@ -4018,7 +4036,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="4" customFormat="1" ht="86.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:26" s="4" customFormat="1" ht="86.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>180</v>
       </c>
@@ -4057,7 +4075,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
@@ -4090,7 +4108,7 @@
       <c r="X54" s="75"/>
       <c r="Y54" s="43"/>
     </row>
-    <row r="55" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
@@ -4128,7 +4146,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:26" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>61</v>
       </c>
@@ -4160,7 +4178,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>183</v>
       </c>
@@ -4195,7 +4213,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="65" t="s">
         <v>278</v>
       </c>
@@ -4232,7 +4250,7 @@
       </c>
       <c r="Z58" s="50"/>
     </row>
-    <row r="59" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>280</v>
       </c>
@@ -4257,7 +4275,7 @@
       </c>
       <c r="Z59" s="50"/>
     </row>
-    <row r="60" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>185</v>
       </c>
@@ -4280,7 +4298,7 @@
       <c r="Y60" s="43"/>
       <c r="Z60" s="50"/>
     </row>
-    <row r="61" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>283</v>
       </c>
@@ -4315,7 +4333,7 @@
       </c>
       <c r="Z61" s="50"/>
     </row>
-    <row r="62" spans="1:26" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>233</v>
       </c>
@@ -4357,7 +4375,7 @@
       </c>
       <c r="Z62" s="50"/>
     </row>
-    <row r="63" spans="1:26" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:26" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
@@ -4383,7 +4401,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
@@ -4419,7 +4437,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="37" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:26" s="37" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>295</v>
       </c>
@@ -4450,7 +4468,7 @@
       </c>
       <c r="Z65" s="61"/>
     </row>
-    <row r="66" spans="1:26" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -4476,7 +4494,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:26" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>297</v>
       </c>
@@ -4497,7 +4515,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="65" t="s">
         <v>252</v>
       </c>
@@ -4521,7 +4539,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -4555,7 +4573,7 @@
       <c r="W69" s="31"/>
       <c r="X69" s="75"/>
     </row>
-    <row r="70" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -4590,7 +4608,7 @@
       <c r="W70" s="31"/>
       <c r="X70" s="45"/>
     </row>
-    <row r="71" spans="1:26" s="19" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:26" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="19" t="s">
         <v>244</v>
       </c>
@@ -4629,7 +4647,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>189</v>
       </c>
@@ -4666,7 +4684,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -4734,7 +4752,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
         <v>192</v>
       </c>
@@ -4766,7 +4784,7 @@
       <c r="W74" s="59"/>
       <c r="X74" s="75"/>
     </row>
-    <row r="75" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
         <v>74</v>
       </c>
@@ -4801,7 +4819,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>419</v>
       </c>
@@ -4832,7 +4850,7 @@
       <c r="Y76" s="42"/>
       <c r="Z76" s="73"/>
     </row>
-    <row r="77" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>211</v>
       </c>
@@ -4866,7 +4884,7 @@
       <c r="W77" s="31"/>
       <c r="X77" s="75"/>
     </row>
-    <row r="78" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -4901,7 +4919,7 @@
       <c r="W78" s="31"/>
       <c r="X78" s="32"/>
     </row>
-    <row r="79" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -4969,7 +4987,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -5004,7 +5022,7 @@
       <c r="W80" s="31"/>
       <c r="X80" s="45"/>
     </row>
-    <row r="81" spans="1:26" s="4" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:26" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>83</v>
       </c>
@@ -5039,7 +5057,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:26" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>301</v>
       </c>
@@ -5061,7 +5079,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>193</v>
       </c>
@@ -5099,7 +5117,7 @@
       </c>
       <c r="Z83" s="4"/>
     </row>
-    <row r="84" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>303</v>
       </c>
@@ -5122,7 +5140,7 @@
       </c>
       <c r="Z84" s="4"/>
     </row>
-    <row r="85" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>306</v>
       </c>
@@ -5145,7 +5163,7 @@
       </c>
       <c r="Z85" s="4"/>
     </row>
-    <row r="86" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>309</v>
       </c>
@@ -5168,7 +5186,7 @@
       </c>
       <c r="Z86" s="4"/>
     </row>
-    <row r="87" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>312</v>
       </c>
@@ -5191,7 +5209,7 @@
       </c>
       <c r="Z87" s="4"/>
     </row>
-    <row r="88" spans="1:26" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:26" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>196</v>
       </c>
@@ -5217,7 +5235,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
@@ -5291,7 +5309,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="90" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
@@ -5332,7 +5350,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>91</v>
       </c>
@@ -5364,7 +5382,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="92" spans="1:26" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:26" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>147</v>
       </c>
@@ -5390,7 +5408,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="93" spans="1:26" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:26" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="32" t="s">
         <v>424</v>
       </c>
@@ -5423,7 +5441,7 @@
       </c>
       <c r="Y93" s="58"/>
     </row>
-    <row r="94" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:26" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -5458,7 +5476,7 @@
       <c r="W94" s="31"/>
       <c r="X94" s="45"/>
     </row>
-    <row r="95" spans="1:26" s="38" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:26" s="38" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A95" s="60" t="s">
         <v>314</v>
       </c>
@@ -5490,7 +5508,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:26" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="60" t="s">
         <v>218</v>
       </c>
@@ -5527,7 +5545,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="97" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>149</v>
       </c>
@@ -5567,7 +5585,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="98" spans="1:26" s="26" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:26" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A98" s="26" t="s">
         <v>98</v>
       </c>
@@ -5603,7 +5621,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="99" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>198</v>
       </c>
@@ -5640,7 +5658,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="100" spans="1:26" s="9" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:26" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>240</v>
       </c>
@@ -5675,7 +5693,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="101" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:26" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>214</v>
       </c>
@@ -5715,7 +5733,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="102" spans="1:26" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:26" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -5749,7 +5767,7 @@
       <c r="W102" s="31"/>
       <c r="X102" s="75"/>
     </row>
-    <row r="103" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>274</v>
       </c>
@@ -5773,7 +5791,7 @@
       <c r="M103" s="22"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" spans="1:26" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:26" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -5814,7 +5832,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="105" spans="1:26" s="38" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:26" s="38" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A105" s="61" t="s">
         <v>318</v>
       </c>
@@ -5858,7 +5876,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="106" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -5892,7 +5910,7 @@
       <c r="W106" s="31"/>
       <c r="X106" s="75"/>
     </row>
-    <row r="107" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>201</v>
       </c>
@@ -5926,7 +5944,7 @@
       <c r="W107" s="31"/>
       <c r="X107" s="75"/>
     </row>
-    <row r="108" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -5960,7 +5978,7 @@
       <c r="W108" s="31"/>
       <c r="X108" s="75"/>
     </row>
-    <row r="109" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -6028,7 +6046,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="110" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>112</v>
       </c>
@@ -6063,7 +6081,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="111" spans="1:26" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:26" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>114</v>
       </c>
@@ -6093,7 +6111,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="112" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -6126,7 +6144,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="113" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>118</v>
       </c>
@@ -6188,7 +6206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="60" t="s">
         <v>120</v>
       </c>
@@ -6250,7 +6268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="60" t="s">
         <v>121</v>
       </c>
@@ -6301,7 +6319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>151</v>
       </c>
@@ -6337,7 +6355,7 @@
       <c r="W116" s="31"/>
       <c r="X116" s="75"/>
     </row>
-    <row r="117" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>276</v>
       </c>
@@ -6373,7 +6391,7 @@
       <c r="W117"/>
       <c r="X117"/>
     </row>
-    <row r="118" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="44" t="s">
         <v>123</v>
       </c>
@@ -6434,7 +6452,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="60" t="s">
         <v>126</v>
       </c>
@@ -6496,7 +6514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="60" t="s">
         <v>232</v>
       </c>
@@ -6558,7 +6576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="60" t="s">
         <v>129</v>
       </c>
@@ -6593,7 +6611,7 @@
       <c r="W121" s="31"/>
       <c r="X121" s="45"/>
     </row>
-    <row r="122" spans="1:26" s="71" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:26" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="72" t="s">
         <v>417</v>
       </c>
@@ -6659,7 +6677,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="123" spans="1:26" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:26" s="20" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="60" t="s">
         <v>247</v>
       </c>
@@ -6701,7 +6719,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="124" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:26" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="60" t="s">
         <v>131</v>
       </c>
@@ -6745,7 +6763,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -6757,7 +6775,7 @@
       <c r="N125" s="45"/>
       <c r="S125" s="22"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126" s="41"/>
       <c r="B126" s="41"/>
       <c r="C126" s="41"/>
@@ -6768,7 +6786,7 @@
       <c r="H126" s="39"/>
       <c r="S126" s="22"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127" s="41"/>
       <c r="B127" s="41"/>
       <c r="C127" s="41"/>
@@ -6779,7 +6797,7 @@
       <c r="H127" s="39"/>
       <c r="S127" s="22"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128" s="41"/>
       <c r="B128" s="41"/>
       <c r="C128" s="41"/>
@@ -6790,7 +6808,7 @@
       <c r="H128" s="39"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="41"/>
       <c r="B129" s="41"/>
       <c r="C129" s="41"/>
@@ -6801,7 +6819,7 @@
       <c r="H129" s="39"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="41"/>
       <c r="B130" s="41"/>
       <c r="C130" s="41"/>
@@ -6812,7 +6830,7 @@
       <c r="H130" s="39"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="41"/>
       <c r="B131" s="41"/>
       <c r="C131" s="41"/>
@@ -6823,7 +6841,7 @@
       <c r="H131" s="39"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" s="41"/>
       <c r="B132" s="41"/>
       <c r="C132" s="41"/>
@@ -6834,7 +6852,7 @@
       <c r="H132" s="39"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
@@ -6845,7 +6863,7 @@
       <c r="H133" s="39"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" s="41"/>
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
@@ -6855,7 +6873,7 @@
       <c r="G134" s="48"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" s="41"/>
       <c r="B135" s="41"/>
       <c r="C135" s="41"/>
@@ -6865,7 +6883,7 @@
       <c r="G135" s="48"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" s="41"/>
       <c r="B136" s="41"/>
       <c r="C136" s="41"/>
@@ -6875,7 +6893,7 @@
       <c r="G136" s="48"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" s="41"/>
       <c r="B137" s="41"/>
       <c r="C137" s="41"/>
@@ -6885,7 +6903,7 @@
       <c r="G137" s="48"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" s="41"/>
       <c r="B138" s="41"/>
       <c r="C138" s="41"/>
@@ -6895,7 +6913,7 @@
       <c r="G138" s="48"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" s="41"/>
       <c r="B139" s="41"/>
       <c r="C139" s="41"/>
@@ -6905,7 +6923,7 @@
       <c r="G139" s="48"/>
       <c r="S139" s="22"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" s="41"/>
       <c r="B140" s="41"/>
       <c r="C140" s="41"/>
@@ -6915,7 +6933,7 @@
       <c r="G140" s="48"/>
       <c r="S140" s="22"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" s="41"/>
       <c r="B141" s="41"/>
       <c r="C141" s="41"/>
@@ -6925,7 +6943,7 @@
       <c r="G141" s="48"/>
       <c r="S141" s="22"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" s="41"/>
       <c r="B142" s="41"/>
       <c r="C142" s="41"/>
@@ -6935,7 +6953,7 @@
       <c r="G142" s="48"/>
       <c r="S142" s="22"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" s="41"/>
       <c r="B143" s="41"/>
       <c r="C143" s="41"/>
@@ -6945,7 +6963,7 @@
       <c r="G143" s="48"/>
       <c r="S143" s="22"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" s="41"/>
       <c r="B144" s="41"/>
       <c r="C144" s="41"/>
@@ -6955,7 +6973,7 @@
       <c r="G144" s="48"/>
       <c r="S144" s="22"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" s="41"/>
       <c r="B145" s="41"/>
       <c r="C145" s="41"/>
@@ -6965,7 +6983,7 @@
       <c r="G145" s="48"/>
       <c r="S145" s="22"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" s="41"/>
       <c r="B146" s="41"/>
       <c r="C146" s="41"/>
@@ -6975,7 +6993,7 @@
       <c r="G146" s="48"/>
       <c r="S146" s="22"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" s="41"/>
       <c r="B147" s="41"/>
       <c r="C147" s="41"/>
@@ -6985,7 +7003,7 @@
       <c r="G147" s="48"/>
       <c r="S147" s="22"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" s="41"/>
       <c r="B148" s="41"/>
       <c r="C148" s="41"/>
@@ -6995,7 +7013,7 @@
       <c r="G148" s="48"/>
       <c r="S148" s="22"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" s="41"/>
       <c r="B149" s="41"/>
       <c r="C149" s="41"/>
@@ -7005,7 +7023,7 @@
       <c r="G149" s="48"/>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" s="41"/>
       <c r="B150" s="41"/>
       <c r="C150" s="41"/>
@@ -7015,7 +7033,7 @@
       <c r="G150" s="48"/>
       <c r="S150" s="22"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" s="41"/>
       <c r="B151" s="41"/>
       <c r="C151" s="41"/>
@@ -7025,7 +7043,7 @@
       <c r="G151" s="48"/>
       <c r="S151" s="22"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" s="41"/>
       <c r="B152" s="41"/>
       <c r="C152" s="41"/>
@@ -7035,7 +7053,7 @@
       <c r="G152" s="48"/>
       <c r="S152" s="22"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" s="41"/>
       <c r="B153" s="41"/>
       <c r="C153" s="41"/>
@@ -7045,7 +7063,7 @@
       <c r="G153" s="48"/>
       <c r="S153" s="22"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" s="41"/>
       <c r="B154" s="41"/>
       <c r="C154" s="41"/>
@@ -7055,7 +7073,7 @@
       <c r="G154" s="48"/>
       <c r="S154" s="22"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" s="41"/>
       <c r="B155" s="41"/>
       <c r="C155" s="41"/>
@@ -7066,22 +7084,22 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Y46:Y47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="Y7:Y8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="Y46:Y47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H20" r:id="rId1" display="standaarden.ondersteuning@vng.nl"/>
-    <hyperlink ref="F20" r:id="rId2"/>
-    <hyperlink ref="F45" r:id="rId3"/>
+    <hyperlink ref="H20" r:id="rId1" display="standaarden.ondersteuning@vng.nl" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F45" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId4"/>
@@ -7089,25 +7107,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" customWidth="1"/>
-    <col min="2" max="2" width="52.23046875" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>229</v>
       </c>
@@ -7115,7 +7133,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>230</v>
       </c>
@@ -7123,8 +7141,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:2" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>208</v>
       </c>
@@ -7132,7 +7150,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>209</v>
       </c>
@@ -7140,7 +7158,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>210</v>
       </c>
@@ -7148,7 +7166,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/input/KING/props/KING.xlsx
+++ b/src/main/resources/input/KING/props/KING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\KING\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6212211-7FAF-478E-9E6B-0C80F03C7416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A71B42-69F2-4EB4-823F-302ED1BB43CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1369,10 +1369,10 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>MUG</t>
-  </si>
-  <si>
     <t>1.0</t>
+  </si>
+  <si>
+    <t>MBG</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1572,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1683,9 +1683,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1980,11 +1977,11 @@
   <dimension ref="A1:Z159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E64" sqref="E64"/>
       <selection pane="topRight" activeCell="E64" sqref="E64"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
-      <selection pane="bottomRight" activeCell="U74" sqref="U74:X76"/>
+      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4092,52 +4089,52 @@
       </c>
       <c r="F74" s="26"/>
       <c r="G74" s="12"/>
-      <c r="H74" s="44" t="s">
+      <c r="H74" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I74" s="44" t="s">
+      <c r="I74" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="J74" s="44" t="s">
+      <c r="J74" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="K74" s="44" t="s">
+      <c r="K74" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="L74" s="44" t="s">
+      <c r="L74" s="1" t="s">
         <v>430</v>
       </c>
       <c r="M74" s="12"/>
       <c r="N74" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="S74" s="12"/>
       <c r="T74" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
@@ -4158,52 +4155,52 @@
       </c>
       <c r="F75" s="26"/>
       <c r="G75" s="12"/>
-      <c r="H75" s="44" t="s">
+      <c r="H75" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I75" s="44" t="s">
+      <c r="I75" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="J75" s="44" t="s">
+      <c r="J75" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="K75" s="44" t="s">
+      <c r="K75" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="L75" s="44" t="s">
+      <c r="L75" s="1" t="s">
         <v>437</v>
       </c>
       <c r="M75" s="12"/>
       <c r="N75" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="S75" s="12"/>
       <c r="T75" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
@@ -6209,16 +6206,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Y46:Y47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="Y7:Y8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="Y46:Y47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>

--- a/src/main/resources/input/KING/props/KING.xlsx
+++ b/src/main/resources/input/KING/props/KING.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\KING\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A71B42-69F2-4EB4-823F-302ED1BB43CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD7C644-2A6D-4F70-AF1A-663D66856F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="2280" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KING" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="435">
   <si>
     <t>Name</t>
   </si>
@@ -169,15 +169,6 @@
     <t>Yes if the released application should be zipped for distribution</t>
   </si>
   <si>
-    <t>dashboardpath</t>
-  </si>
-  <si>
-    <t>http-path</t>
-  </si>
-  <si>
-    <t>The path to the Imvertor dashboard application.</t>
-  </si>
-  <si>
     <t>debug</t>
   </si>
   <si>
@@ -905,9 +896,6 @@
   </si>
   <si>
     <t>msword</t>
-  </si>
-  <si>
-    <t>https://imvertor.armatiek.nl/imvertor-executor/dashboard</t>
   </si>
   <si>
     <t>string</t>
@@ -1220,11 +1208,6 @@
   </si>
   <si>
     <t>niet voor VNG geloof ik</t>
-  </si>
-  <si>
-    <t>Voor Kennisnet staat deze geïndiceerd als niet relevant voor hen. Waarom?
-Je mag deze waarde helemaal niet specificeren als gebruiker. Toch gebeurt dat in de minimale configuratie.
-Handiger om leeg te laten</t>
   </si>
   <si>
     <t>Waarom heeft static een waarde als het niet wordt gebruikt door Kennisnet?
@@ -1974,14 +1957,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z159"/>
+  <dimension ref="A1:Z158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E64" sqref="E64"/>
       <selection pane="topRight" activeCell="E64" sqref="E64"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
-      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2023,126 +2006,126 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="S1" s="10"/>
       <c r="T1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F2" s="31"/>
       <c r="G2" s="11"/>
       <c r="H2" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D3" s="4" t="b">
         <v>0</v>
@@ -2203,13 +2186,13 @@
     </row>
     <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D6" s="4" t="b">
         <v>0</v>
@@ -2243,10 +2226,10 @@
       <c r="M7" s="12"/>
       <c r="S7" s="12"/>
       <c r="Y7" s="42" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2262,13 +2245,13 @@
     </row>
     <row r="9" spans="1:26" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D9" s="4" t="b">
         <v>0</v>
@@ -2283,10 +2266,10 @@
       <c r="M9" s="12"/>
       <c r="S9" s="12"/>
       <c r="Y9" s="21" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
@@ -2314,13 +2297,13 @@
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D11" s="4" t="b">
         <v>0</v>
@@ -2335,13 +2318,13 @@
     </row>
     <row r="12" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D12" s="4" t="b">
         <v>0</v>
@@ -2356,13 +2339,13 @@
     </row>
     <row r="13" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D13" s="4" t="b">
         <v>0</v>
@@ -2375,10 +2358,10 @@
       <c r="M13" s="12"/>
       <c r="S13" s="12"/>
       <c r="Y13" s="22" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -2427,10 +2410,10 @@
       <c r="M15" s="12"/>
       <c r="S15" s="12"/>
       <c r="Y15" s="22" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
@@ -2450,24 +2433,24 @@
         <v>0</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G16" s="12"/>
       <c r="M16" s="12"/>
       <c r="S16" s="12"/>
       <c r="Y16" s="22" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="1" customFormat="1" ht="17.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D17" s="1" t="b">
         <v>1</v>
@@ -2476,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G17" s="12"/>
       <c r="M17" s="12"/>
@@ -2484,13 +2467,13 @@
     </row>
     <row r="18" spans="1:26" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D18" s="1" t="b">
         <v>1</v>
@@ -2499,72 +2482,72 @@
         <v>1</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="S18" s="12"/>
       <c r="T18" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y18" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y18" s="22" t="s">
-        <v>364</v>
-      </c>
       <c r="Z18" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D19" s="1" t="b">
         <v>0</v>
@@ -2573,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G19" s="12"/>
       <c r="M19" s="12"/>
@@ -2581,13 +2564,13 @@
     </row>
     <row r="20" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D20" s="1" t="b">
         <v>0</v>
@@ -2596,24 +2579,24 @@
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G20" s="12"/>
       <c r="M20" s="12"/>
       <c r="S20" s="12"/>
       <c r="Y20" s="22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D21" s="1" t="b">
         <v>0</v>
@@ -2622,24 +2605,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G21" s="12"/>
       <c r="M21" s="12"/>
       <c r="S21" s="12"/>
       <c r="Y21" s="22" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D22" s="1" t="b">
         <v>0</v>
@@ -2654,10 +2637,10 @@
       <c r="M22" s="12"/>
       <c r="S22" s="12"/>
       <c r="Y22" s="22" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:26" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
@@ -2687,21 +2670,21 @@
       <c r="R23" s="1"/>
       <c r="S23" s="12"/>
       <c r="Y23" s="21" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D24" s="4" t="b">
         <v>0</v>
@@ -2737,10 +2720,10 @@
       <c r="M25" s="12"/>
       <c r="S25" s="12"/>
       <c r="Y25" s="22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
@@ -2784,12 +2767,12 @@
         <v>4</v>
       </c>
       <c r="Y26" s="22" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
@@ -2828,7 +2811,7 @@
         <v>4</v>
       </c>
       <c r="Y27" s="22" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
@@ -2854,18 +2837,18 @@
       <c r="M28" s="12"/>
       <c r="S28" s="12"/>
       <c r="Y28" s="22" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D29" s="1" t="b">
         <v>0</v>
@@ -2880,18 +2863,18 @@
       <c r="M29" s="12"/>
       <c r="S29" s="12"/>
       <c r="Y29" s="22" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D30" s="4" t="b">
         <v>0</v>
@@ -2904,18 +2887,18 @@
       <c r="M30" s="12"/>
       <c r="S30" s="12"/>
       <c r="Y30" s="22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D31" s="4" t="b">
         <v>0</v>
@@ -2928,18 +2911,18 @@
       <c r="M31" s="12"/>
       <c r="S31" s="12"/>
       <c r="Y31" s="22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D32" s="4" t="b">
         <v>0</v>
@@ -2948,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G32" s="12"/>
       <c r="M32" s="12"/>
@@ -2956,7 +2939,7 @@
       <c r="U32" s="19"/>
       <c r="X32" s="19"/>
       <c r="Y32" s="22" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
@@ -2994,18 +2977,18 @@
       <c r="M33" s="12"/>
       <c r="S33" s="12"/>
       <c r="Y33" s="22" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D34" s="1" t="b">
         <v>0</v>
@@ -3020,18 +3003,18 @@
       <c r="M34" s="12"/>
       <c r="S34" s="12"/>
       <c r="Y34" s="22" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D35" s="1" t="b">
         <v>0</v>
@@ -3040,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G35" s="12"/>
       <c r="M35" s="12"/>
@@ -3049,13 +3032,13 @@
     </row>
     <row r="36" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D36" s="1" t="b">
         <v>0</v>
@@ -3064,13 +3047,13 @@
         <v>1</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G36" s="12"/>
       <c r="M36" s="12"/>
       <c r="S36" s="12"/>
       <c r="Y36" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -3096,13 +3079,13 @@
     </row>
     <row r="38" spans="1:26" s="17" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D38" s="4" t="b">
         <v>0</v>
@@ -3116,7 +3099,7 @@
       <c r="M38" s="18"/>
       <c r="S38" s="12"/>
       <c r="Y38" s="21" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Z38" s="1"/>
     </row>
@@ -3166,10 +3149,10 @@
       <c r="M40" s="12"/>
       <c r="S40" s="12"/>
       <c r="Y40" s="22" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -3197,13 +3180,13 @@
     </row>
     <row r="42" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D42" s="4" t="b">
         <v>0</v>
@@ -3212,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G42" s="12"/>
       <c r="M42" s="33"/>
@@ -3220,13 +3203,13 @@
     </row>
     <row r="43" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D43" s="1" t="b">
         <v>0</v>
@@ -3253,7 +3236,7 @@
         <v>4</v>
       </c>
       <c r="Y43" s="22" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:26" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
@@ -3290,189 +3273,181 @@
       <c r="W44" s="17"/>
       <c r="X44" s="17"/>
       <c r="Y44" s="21" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>293</v>
+      <c r="D45" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="G45" s="12"/>
-      <c r="H45" s="16"/>
       <c r="M45" s="12"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
       <c r="S45" s="12"/>
-      <c r="U45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="21" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>16</v>
-      </c>
+      <c r="Y45" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="F46" s="26"/>
       <c r="G46" s="12"/>
       <c r="M46" s="12"/>
       <c r="S46" s="12"/>
-      <c r="Y46" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z46" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
+      <c r="Y46" s="42"/>
+    </row>
+    <row r="47" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="F47" s="26"/>
       <c r="G47" s="12"/>
       <c r="M47" s="12"/>
       <c r="S47" s="12"/>
-      <c r="Y47" s="42"/>
-    </row>
-    <row r="48" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="D48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" s="26"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="G48" s="12"/>
       <c r="M48" s="12"/>
       <c r="S48" s="12"/>
     </row>
-    <row r="49" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:26" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="12"/>
-      <c r="M49" s="12"/>
+      <c r="D49" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G49" s="40"/>
+      <c r="M49" s="13"/>
       <c r="S49" s="12"/>
-    </row>
-    <row r="50" spans="1:26" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A50" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="G50" s="40"/>
-      <c r="M50" s="13"/>
+      <c r="Y49" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="M50" s="12"/>
       <c r="S50" s="12"/>
       <c r="Y50" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="Z50" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" s="1" customFormat="1" ht="160.30000000000001" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="D51" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="G51" s="13"/>
+        <v>353</v>
+      </c>
+      <c r="Z50"/>
+    </row>
+    <row r="51" spans="1:26" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="12"/>
       <c r="M51" s="12"/>
       <c r="S51" s="12"/>
-      <c r="Y51" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="Z51"/>
-    </row>
-    <row r="52" spans="1:26" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Y51" s="21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" s="4" customFormat="1" ht="86.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>5</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>179</v>
@@ -3483,64 +3458,60 @@
       <c r="E52" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="F52" s="28" t="s">
-        <v>4</v>
-      </c>
+      <c r="F52" s="28"/>
       <c r="G52" s="12"/>
       <c r="M52" s="12"/>
       <c r="S52" s="12"/>
+      <c r="U52" t="s">
+        <v>357</v>
+      </c>
+      <c r="V52" t="s">
+        <v>357</v>
+      </c>
+      <c r="W52" t="s">
+        <v>357</v>
+      </c>
+      <c r="X52" t="s">
+        <v>357</v>
+      </c>
       <c r="Y52" s="21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" s="4" customFormat="1" ht="86.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" s="28"/>
-      <c r="G53" s="12"/>
+        <v>359</v>
+      </c>
+      <c r="Z52" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="27"/>
+      <c r="G53" s="36"/>
       <c r="M53" s="12"/>
       <c r="S53" s="12"/>
-      <c r="U53" t="s">
-        <v>361</v>
-      </c>
-      <c r="V53" t="s">
-        <v>361</v>
-      </c>
-      <c r="W53" t="s">
-        <v>361</v>
-      </c>
-      <c r="X53" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y53" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z53" s="4" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Y53" s="22"/>
+    </row>
+    <row r="54" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" s="4" t="b">
         <v>0</v>
@@ -3552,137 +3523,140 @@
       <c r="G54" s="36"/>
       <c r="M54" s="12"/>
       <c r="S54" s="12"/>
-      <c r="Y54" s="22"/>
-    </row>
-    <row r="55" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="Y54" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E55" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="17"/>
       <c r="M55" s="12"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="R55" s="1"/>
       <c r="S55" s="12"/>
-      <c r="Y55" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="D56" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E56" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F56" s="27"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="17"/>
       <c r="M56" s="12"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="R56" s="1"/>
       <c r="S56" s="12"/>
-      <c r="U56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="21" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A57" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D57" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" s="4" t="b">
+      <c r="Y56" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A57" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="37" t="b">
         <v>1</v>
       </c>
       <c r="F57" s="27"/>
-      <c r="G57" s="12"/>
-      <c r="M57" s="12"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
       <c r="S57" s="12"/>
+      <c r="U57" s="9"/>
+      <c r="X57" s="9"/>
       <c r="Y57" s="22" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A58" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z57" s="1"/>
+    </row>
+    <row r="58" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A58" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B58" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D58" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" s="37" t="b">
+      <c r="D58" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F58" s="27"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
+      <c r="G58" s="12"/>
+      <c r="M58" s="12"/>
       <c r="S58" s="12"/>
-      <c r="U58" s="9"/>
-      <c r="X58" s="9"/>
       <c r="Y58" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>281</v>
+        <v>154</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="D59" s="4" t="b">
         <v>0</v>
@@ -3694,20 +3668,18 @@
       <c r="G59" s="12"/>
       <c r="M59" s="12"/>
       <c r="S59" s="12"/>
-      <c r="Y59" s="22" t="s">
-        <v>358</v>
-      </c>
+      <c r="Y59" s="22"/>
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="D60" s="4" t="b">
         <v>0</v>
@@ -3717,123 +3689,124 @@
       </c>
       <c r="F60" s="27"/>
       <c r="G60" s="12"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
       <c r="M60" s="12"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
       <c r="S60" s="12"/>
-      <c r="Y60" s="22"/>
+      <c r="Y60" s="22" t="s">
+        <v>354</v>
+      </c>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A61" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D61" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
+    <row r="61" spans="1:26" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A61" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
       <c r="S61" s="12"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
       <c r="Y61" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A62" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D62" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="G62" s="14"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
+    <row r="62" spans="1:26" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="M62" s="12"/>
       <c r="S62" s="12"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
       <c r="Y62" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z62" s="1"/>
-    </row>
-    <row r="63" spans="1:26" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>395</v>
+        <v>12</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="D63" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E63" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F63" s="27"/>
       <c r="G63" s="12"/>
       <c r="M63" s="12"/>
       <c r="S63" s="12"/>
       <c r="Y63" s="22" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>64</v>
+        <v>292</v>
       </c>
       <c r="D64" s="4" t="b">
         <v>0</v>
@@ -3841,167 +3814,172 @@
       <c r="E64" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F64" s="27"/>
+      <c r="F64" s="27" t="s">
+        <v>16</v>
+      </c>
       <c r="G64" s="12"/>
       <c r="M64" s="12"/>
       <c r="S64" s="12"/>
       <c r="Y64" s="22" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>332</v>
+      </c>
+      <c r="Z64" s="33"/>
+    </row>
+    <row r="65" spans="1:26" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
-        <v>295</v>
+        <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="D65" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="G65" s="12"/>
       <c r="M65" s="12"/>
       <c r="S65" s="12"/>
       <c r="Y65" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="Z65" s="33"/>
-    </row>
-    <row r="66" spans="1:26" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>66</v>
+        <v>290</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>67</v>
+        <v>294</v>
       </c>
       <c r="D66" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="27" t="s">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F66" s="27"/>
       <c r="G66" s="12"/>
       <c r="M66" s="12"/>
       <c r="S66" s="12"/>
       <c r="Y66" s="22" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A67" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D67" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="27"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A67" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="35"/>
       <c r="G67" s="12"/>
       <c r="M67" s="12"/>
       <c r="S67" s="12"/>
       <c r="Y67" s="22" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A68" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="D68" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F68" s="35"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>202</v>
+      </c>
       <c r="G68" s="12"/>
       <c r="M68" s="12"/>
       <c r="S68" s="12"/>
-      <c r="Y68" s="22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="D69" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E69" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F69" s="26" t="s">
-        <v>205</v>
+      <c r="F69" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="G69" s="12"/>
       <c r="M69" s="12"/>
       <c r="S69" s="12"/>
     </row>
-    <row r="70" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>10</v>
+        <v>241</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>403</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="D70" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>299</v>
+        <v>1</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>242</v>
       </c>
       <c r="G70" s="12"/>
       <c r="M70" s="12"/>
       <c r="S70" s="12"/>
-    </row>
-    <row r="71" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="Y70" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z70" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B71" s="41" t="s">
-        <v>408</v>
+        <v>186</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="D71" s="1" t="b">
         <v>0</v>
@@ -4010,76 +3988,113 @@
         <v>1</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="G71" s="12"/>
       <c r="M71" s="12"/>
       <c r="S71" s="12"/>
       <c r="Y71" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z71" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="D72" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>204</v>
+        <v>399</v>
       </c>
       <c r="G72" s="12"/>
       <c r="M72" s="12"/>
       <c r="S72" s="12"/>
-      <c r="Y72" s="22" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>423</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>73</v>
+        <v>424</v>
       </c>
       <c r="D73" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>404</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F73" s="26"/>
       <c r="G73" s="12"/>
+      <c r="H73" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="M73" s="12"/>
+      <c r="N73" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="S73" s="12"/>
+      <c r="T73" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="74" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D74" s="1" t="b">
         <v>0</v>
@@ -4090,62 +4105,62 @@
       <c r="F74" s="26"/>
       <c r="G74" s="12"/>
       <c r="H74" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M74" s="12"/>
       <c r="N74" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="S74" s="12"/>
       <c r="T74" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D75" s="1" t="b">
         <v>0</v>
@@ -4156,62 +4171,62 @@
       <c r="F75" s="26"/>
       <c r="G75" s="12"/>
       <c r="H75" s="1" t="s">
-        <v>437</v>
+        <v>266</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>437</v>
+        <v>266</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>437</v>
+        <v>266</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>437</v>
+        <v>266</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>437</v>
+        <v>266</v>
       </c>
       <c r="M75" s="12"/>
       <c r="N75" s="1" t="s">
-        <v>438</v>
+        <v>267</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>438</v>
+        <v>267</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>438</v>
+        <v>267</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>438</v>
+        <v>267</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>438</v>
+        <v>267</v>
       </c>
       <c r="S75" s="12"/>
       <c r="T75" s="1" t="s">
-        <v>438</v>
+        <v>268</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>438</v>
+        <v>268</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>438</v>
+        <v>268</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>438</v>
+        <v>268</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>438</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D76" s="1" t="b">
         <v>0</v>
@@ -4221,63 +4236,19 @@
       </c>
       <c r="F76" s="26"/>
       <c r="G76" s="12"/>
-      <c r="H76" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="M76" s="12"/>
-      <c r="N76" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="S76" s="12"/>
-      <c r="T76" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="V76" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="W76" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="X76" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="T76"/>
     </row>
     <row r="77" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>435</v>
+        <v>189</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>436</v>
+        <v>283</v>
       </c>
       <c r="D77" s="1" t="b">
         <v>0</v>
@@ -4289,47 +4260,60 @@
       <c r="G77" s="12"/>
       <c r="M77" s="12"/>
       <c r="S77" s="12"/>
-      <c r="T77"/>
-    </row>
-    <row r="78" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A78" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" s="26"/>
+    </row>
+    <row r="78" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>4</v>
+      </c>
       <c r="G78" s="12"/>
+      <c r="H78" s="17"/>
       <c r="M78" s="12"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="R78" s="17"/>
       <c r="S78" s="12"/>
-    </row>
-    <row r="79" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U78" s="17"/>
+      <c r="X78" s="17"/>
+      <c r="Y78" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z78" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A79" s="17" t="s">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D79" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" s="17" t="b">
-        <v>0</v>
+        <v>414</v>
+      </c>
+      <c r="D79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="F79" s="28" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="17"/>
@@ -4340,238 +4324,226 @@
       <c r="S79" s="12"/>
       <c r="U79" s="17"/>
       <c r="X79" s="17"/>
-      <c r="Y79" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z79" s="12" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A80" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="B80" s="17" t="s">
+      <c r="Y79" s="21"/>
+      <c r="Z79" s="12"/>
+    </row>
+    <row r="80" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="17" t="s">
-        <v>419</v>
+      <c r="C80" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="D80" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F80" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="26" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="12"/>
-      <c r="H80" s="17"/>
       <c r="M80" s="12"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="R80" s="17"/>
       <c r="S80" s="12"/>
-      <c r="U80" s="17"/>
-      <c r="X80" s="17"/>
-      <c r="Y80" s="21"/>
-      <c r="Z80" s="12"/>
     </row>
     <row r="81" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="D81" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G81" s="12"/>
+      <c r="H81" s="17"/>
       <c r="M81" s="12"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="R81" s="17"/>
       <c r="S81" s="12"/>
-    </row>
-    <row r="82" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="U81" s="17"/>
+      <c r="X81" s="17"/>
+    </row>
+    <row r="82" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="X82" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F82" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="17"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="12"/>
-      <c r="U82" s="17"/>
-      <c r="X82" s="17"/>
-    </row>
-    <row r="83" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>404</v>
+        <v>256</v>
       </c>
       <c r="G83" s="12"/>
       <c r="M83" s="12"/>
       <c r="S83" s="12"/>
-      <c r="X83" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
+    </row>
+    <row r="84" spans="1:26" s="4" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A84" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" s="26" t="s">
-        <v>259</v>
+      <c r="D84" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="27" t="s">
+        <v>296</v>
       </c>
       <c r="G84" s="12"/>
+      <c r="H84" s="17"/>
       <c r="M84" s="12"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="R84" s="17"/>
       <c r="S84" s="12"/>
-    </row>
-    <row r="85" spans="1:26" s="4" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="U84" s="17"/>
+      <c r="X84" s="17"/>
+      <c r="Y84" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z84" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="D85" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85" s="27" t="s">
-        <v>300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F85" s="27"/>
       <c r="G85" s="12"/>
       <c r="H85" s="17"/>
       <c r="M85" s="12"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="R85" s="17"/>
       <c r="S85" s="12"/>
-      <c r="U85" s="17"/>
-      <c r="X85" s="17"/>
-      <c r="Y85" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z85" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A86" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D86" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86" s="27"/>
+      <c r="Y85" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="G86" s="12"/>
-      <c r="H86" s="17"/>
       <c r="M86" s="12"/>
       <c r="S86" s="12"/>
       <c r="Y86" s="22" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D87" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E87" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="26" t="s">
-        <v>19</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="Z86" s="4"/>
+    </row>
+    <row r="87" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A87" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D87" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="27"/>
       <c r="G87" s="12"/>
       <c r="M87" s="12"/>
       <c r="S87" s="12"/>
       <c r="Y87" s="22" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="Z87" s="4"/>
     </row>
     <row r="88" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A88" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="D88" s="4" t="b">
         <v>0</v>
@@ -4582,19 +4554,19 @@
       <c r="M88" s="12"/>
       <c r="S88" s="12"/>
       <c r="Y88" s="22" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Z88" s="4"/>
     </row>
     <row r="89" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A89" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="D89" s="4" t="b">
         <v>0</v>
@@ -4605,19 +4577,19 @@
       <c r="M89" s="12"/>
       <c r="S89" s="12"/>
       <c r="Y89" s="22" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Z89" s="4"/>
     </row>
     <row r="90" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A90" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>310</v>
-      </c>
       <c r="C90" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D90" s="4" t="b">
         <v>0</v>
@@ -4628,288 +4600,294 @@
       <c r="M90" s="12"/>
       <c r="S90" s="12"/>
       <c r="Y90" s="22" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Z90" s="4"/>
     </row>
-    <row r="91" spans="1:26" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:26" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A91" s="4" t="s">
-        <v>312</v>
+        <v>193</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>313</v>
+        <v>173</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>311</v>
+        <v>194</v>
       </c>
       <c r="D91" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="27"/>
+      <c r="E91" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>203</v>
+      </c>
       <c r="G91" s="12"/>
       <c r="M91" s="12"/>
       <c r="S91" s="12"/>
       <c r="Y91" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="Z91" s="4"/>
-    </row>
-    <row r="92" spans="1:26" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A92" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D92" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F92" s="27" t="s">
-        <v>206</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>399</v>
       </c>
       <c r="G92" s="12"/>
+      <c r="H92" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="M92" s="12"/>
+      <c r="N92" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="S92" s="12"/>
+      <c r="T92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="V92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="W92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="Y92" s="22" t="s">
-        <v>343</v>
+        <v>394</v>
+      </c>
+      <c r="Z92" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D93" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>404</v>
-      </c>
       <c r="G93" s="12"/>
-      <c r="H93" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="M93" s="12"/>
-      <c r="N93" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q93" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="S93" s="12"/>
-      <c r="T93" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="U93" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="V93" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="W93" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="X93" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="Y93" s="22" t="s">
-        <v>399</v>
+        <v>340</v>
       </c>
       <c r="Z93" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A94" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A94" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F94" s="26" t="s">
-        <v>88</v>
-      </c>
       <c r="G94" s="12"/>
+      <c r="H94" s="1"/>
       <c r="M94" s="12"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="R94" s="1"/>
       <c r="S94" s="12"/>
-      <c r="Y94" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z94" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="U94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="Y95" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="D96" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="12"/>
+      <c r="L96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M96" s="12"/>
+      <c r="R96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S96" s="12"/>
+      <c r="X96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y96" s="22"/>
+    </row>
+    <row r="97" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D95" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E95" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F95" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="1"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="12"/>
-      <c r="U95" s="1"/>
-      <c r="X95" s="1"/>
-      <c r="Y95" s="21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="G97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="S97" s="12"/>
+    </row>
+    <row r="98" spans="1:26" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+      <c r="A98" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="B98" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D96" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F96" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="S96" s="12"/>
-      <c r="Y96" s="22" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="D97" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E97" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F97" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" s="12"/>
-      <c r="L97" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M97" s="12"/>
-      <c r="R97" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S97" s="12"/>
-      <c r="X97" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y97" s="22"/>
-    </row>
-    <row r="98" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A98" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98" s="1" t="b">
+      <c r="C98" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D98" s="32" t="b">
         <v>0</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="G98" s="12"/>
       <c r="M98" s="12"/>
       <c r="S98" s="12"/>
-    </row>
-    <row r="99" spans="1:26" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+      <c r="Y98" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z98" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A99" s="32" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="B99" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D99" s="32" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E99" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="F99" s="26" t="s">
         <v>4</v>
@@ -4917,27 +4895,24 @@
       <c r="G99" s="12"/>
       <c r="M99" s="12"/>
       <c r="S99" s="12"/>
-      <c r="Y99" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="Z99" s="1" t="s">
-        <v>384</v>
+      <c r="Z99" s="12" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A100" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="B100" s="32" t="s">
+      <c r="A100" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="D100" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E100" s="32" t="b">
+      <c r="C100" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F100" s="26" t="s">
@@ -4946,77 +4921,77 @@
       <c r="G100" s="12"/>
       <c r="M100" s="12"/>
       <c r="S100" s="12"/>
-      <c r="Z100" s="12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="101" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="Y100" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z100" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="D101" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="G101" s="12"/>
       <c r="M101" s="12"/>
       <c r="S101" s="12"/>
       <c r="Y101" s="22" t="s">
-        <v>331</v>
+        <v>396</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A102" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D102" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E102" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F102" s="26" t="s">
-        <v>258</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A102" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D102" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>400</v>
       </c>
       <c r="G102" s="12"/>
       <c r="M102" s="12"/>
       <c r="S102" s="12"/>
       <c r="Y102" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="Z102" s="1" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A103" s="4" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="D103" s="4" t="b">
         <v>0</v>
@@ -5024,180 +4999,177 @@
       <c r="E103" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F103" s="27" t="s">
-        <v>405</v>
-      </c>
+      <c r="F103" s="39"/>
       <c r="G103" s="12"/>
       <c r="M103" s="12"/>
       <c r="S103" s="12"/>
       <c r="Y103" s="22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A104" s="4" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>241</v>
+        <v>10</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="D104" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F104" s="39"/>
+      <c r="F104" s="27" t="s">
+        <v>209</v>
+      </c>
       <c r="G104" s="12"/>
       <c r="M104" s="12"/>
       <c r="S104" s="12"/>
       <c r="Y104" s="22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="105" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A105" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D105" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E105" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F105" s="27" t="s">
-        <v>212</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="G105" s="12"/>
       <c r="M105" s="12"/>
       <c r="S105" s="12"/>
-      <c r="Y105" s="22" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D106" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F106" s="26" t="s">
-        <v>16</v>
+    </row>
+    <row r="106" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D106" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="G106" s="12"/>
+      <c r="H106" s="1"/>
       <c r="M106" s="12"/>
       <c r="S106" s="12"/>
     </row>
-    <row r="107" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D107" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E107" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F107" s="35" t="s">
-        <v>212</v>
+    <row r="107" spans="1:26" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>401</v>
       </c>
       <c r="G107" s="12"/>
-      <c r="H107" s="1"/>
       <c r="M107" s="12"/>
       <c r="S107" s="12"/>
-    </row>
-    <row r="108" spans="1:26" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D108" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E108" s="1" t="b">
+      <c r="Y107" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z107" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A108" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D108" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" s="22" t="b">
         <v>1</v>
       </c>
       <c r="F108" s="29" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="G108" s="12"/>
       <c r="M108" s="12"/>
       <c r="S108" s="12"/>
       <c r="Y108" s="22" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="Z108" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A109" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="B109" s="22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="D109" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E109" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F109" s="29" t="s">
-        <v>16</v>
+      <c r="C109" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109" s="26" t="s">
+        <v>4</v>
       </c>
       <c r="G109" s="12"/>
       <c r="M109" s="12"/>
       <c r="S109" s="12"/>
-      <c r="Y109" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z109" s="12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="110" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="D110" s="1" t="b">
         <v>0</v>
@@ -5206,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G110" s="12"/>
       <c r="M110" s="12"/>
@@ -5214,37 +5186,37 @@
     </row>
     <row r="111" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="D111" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" s="26" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="G111" s="12"/>
       <c r="M111" s="12"/>
       <c r="S111" s="12"/>
     </row>
-    <row r="112" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="D112" s="1" t="b">
         <v>1</v>
       </c>
@@ -5252,45 +5224,57 @@
         <v>0</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>107</v>
+        <v>399</v>
       </c>
       <c r="G112" s="12"/>
       <c r="M112" s="12"/>
       <c r="S112" s="12"/>
     </row>
-    <row r="113" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A113" s="1" t="s">
+    <row r="113" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A113" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G113" s="12"/>
+      <c r="H113" s="1"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="12"/>
+      <c r="U113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z113" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A114" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D113" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F113" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="G113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="S113" s="12"/>
-    </row>
-    <row r="114" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A114" s="4" t="s">
+      <c r="B114" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D114" s="4" t="b">
         <v>1</v>
       </c>
@@ -5298,107 +5282,131 @@
         <v>0</v>
       </c>
       <c r="F114" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G114" s="12"/>
       <c r="H114" s="1"/>
       <c r="M114" s="12"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="R114" s="1"/>
       <c r="S114" s="12"/>
-      <c r="U114" s="1"/>
-      <c r="X114" s="1"/>
       <c r="Y114" s="21" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Z114" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A115" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D115" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E115" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F115" s="27" t="s">
-        <v>212</v>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="G115" s="12"/>
       <c r="H115" s="1"/>
       <c r="M115" s="12"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="R115" s="1"/>
       <c r="S115" s="12"/>
       <c r="Y115" s="21" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="Z115" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B116" t="s">
+      <c r="D116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="12"/>
+      <c r="I116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M116" s="12"/>
+      <c r="O116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S116" s="12"/>
+      <c r="U116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X116" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A117" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C116" t="s">
-        <v>117</v>
-      </c>
-      <c r="D116" t="b">
-        <v>1</v>
-      </c>
-      <c r="E116" t="b">
-        <v>1</v>
-      </c>
-      <c r="F116" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="12"/>
-      <c r="H116" s="1"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="R116" s="1"/>
-      <c r="S116" s="12"/>
-      <c r="Y116" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z116" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D117" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E117" s="1" t="b">
+      <c r="C117" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D117" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" s="32" t="b">
         <v>1</v>
       </c>
       <c r="F117" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G117" s="12"/>
+      <c r="G117" s="24"/>
       <c r="I117" s="1" t="s">
         <v>4</v>
       </c>
@@ -5438,18 +5446,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A118" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B118" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>320</v>
+        <v>119</v>
       </c>
       <c r="D118" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" s="32" t="b">
         <v>1</v>
@@ -5458,18 +5466,6 @@
         <v>16</v>
       </c>
       <c r="G118" s="24"/>
-      <c r="I118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M118" s="12"/>
       <c r="O118" s="1" t="s">
         <v>4</v>
@@ -5497,184 +5493,196 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" s="32" t="s">
+    <row r="119" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A119" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C119" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D119" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E119" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F119" s="34" t="s">
-        <v>16</v>
-      </c>
+      <c r="C119" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D119" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E119" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119" s="27"/>
       <c r="G119" s="24"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
       <c r="M119" s="12"/>
-      <c r="O119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R119" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S119" s="12"/>
-      <c r="U119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X119" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A120" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B120" s="4" t="s">
+    </row>
+    <row r="120" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D120" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E120" s="4" t="b">
+      <c r="C120" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D120" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F120" s="27"/>
       <c r="G120" s="24"/>
+      <c r="H120" s="1"/>
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120"/>
       <c r="M120" s="12"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
       <c r="S120" s="12"/>
-    </row>
-    <row r="121" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D121" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E121" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F121" s="27"/>
+      <c r="T120"/>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+      <c r="X120"/>
+    </row>
+    <row r="121" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A121" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="G121" s="24"/>
       <c r="H121" s="1"/>
-      <c r="I121"/>
-      <c r="J121"/>
-      <c r="K121"/>
-      <c r="L121"/>
+      <c r="I121" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="M121" s="12"/>
-      <c r="N121"/>
-      <c r="O121"/>
-      <c r="P121"/>
-      <c r="Q121"/>
-      <c r="R121"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="S121" s="12"/>
-      <c r="T121"/>
-      <c r="U121"/>
-      <c r="V121"/>
-      <c r="W121"/>
-      <c r="X121"/>
-    </row>
-    <row r="122" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A122" s="23" t="s">
+      <c r="U121" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="V121" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="W121" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="X121" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C122" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D122" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E122" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F122" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" s="24"/>
-      <c r="H122" s="1"/>
+      <c r="D122" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="12"/>
       <c r="I122" s="1" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="M122" s="12"/>
-      <c r="N122" s="1"/>
       <c r="O122" s="1" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="R122" s="1" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="S122" s="12"/>
       <c r="U122" s="1" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="W122" s="1" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="X122" s="1" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" s="32" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="B123" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D123" s="32" t="b">
         <v>1</v>
@@ -5682,10 +5690,10 @@
       <c r="E123" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="F123" s="26" t="s">
+      <c r="F123" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G123" s="12"/>
+      <c r="G123" s="24"/>
       <c r="I123" s="1" t="s">
         <v>4</v>
       </c>
@@ -5727,163 +5735,116 @@
     </row>
     <row r="124" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A124" s="32" t="s">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="B124" s="32" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D124" s="32" t="b">
         <v>1</v>
       </c>
       <c r="E124" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F124" s="34" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>296</v>
       </c>
       <c r="G124" s="24"/>
-      <c r="I124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M124" s="12"/>
-      <c r="O124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R124" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S124" s="12"/>
-      <c r="U124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X124" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="125" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B125" s="32" t="s">
+      <c r="A125" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D125" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E125" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F125" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="G125" s="24"/>
+      <c r="C125" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" s="12"/>
       <c r="M125" s="12"/>
       <c r="S125" s="12"/>
     </row>
-    <row r="126" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D126" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E126" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G126" s="12"/>
+    <row r="126" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A126" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D126" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G126" s="24"/>
       <c r="M126" s="12"/>
       <c r="S126" s="12"/>
-    </row>
-    <row r="127" spans="1:26" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="Y126" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z126" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A127" s="32" t="s">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="B127" s="32" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="D127" s="32" t="b">
         <v>1</v>
       </c>
       <c r="E127" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="G127" s="24"/>
       <c r="M127" s="12"/>
       <c r="S127" s="12"/>
       <c r="Y127" s="22" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="Z127" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="128" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A128" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="B128" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C128" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D128" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E128" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F128" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="G128" s="24"/>
-      <c r="M128" s="12"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A128" s="20"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="19"/>
+      <c r="N128" s="1"/>
       <c r="S128" s="12"/>
-      <c r="Y128" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z128" s="1" t="s">
-        <v>392</v>
-      </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A129" s="20"/>
@@ -5894,7 +5855,6 @@
       <c r="F129" s="20"/>
       <c r="G129" s="25"/>
       <c r="H129" s="19"/>
-      <c r="N129" s="1"/>
       <c r="S129" s="12"/>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.4">
@@ -5982,7 +5942,6 @@
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
       <c r="G137" s="25"/>
-      <c r="H137" s="19"/>
       <c r="S137" s="12"/>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.4">
@@ -6193,38 +6152,27 @@
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
       <c r="G158" s="25"/>
-      <c r="S158" s="12"/>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A159" s="20"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="20"/>
-      <c r="D159" s="20"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="Y46:Y47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="Y7:Y8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="Y45:Y46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H20" r:id="rId1" display="standaarden.ondersteuning@vng.nl" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F45" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6244,48 +6192,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
